--- a/data/input_excel/IEEE_toxic_language_detection.xlsx
+++ b/data/input_excel/IEEE_toxic_language_detection.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,126 +478,134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2021 IEEE 6th International Conference on Computing, Communication and Automation (ICCCA)</t>
+          <t>2020 Fifth International Conference on Fog and Mobile Edge Computing (FMEC)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Automatic System for Monitoring Landfills SAM-01</t>
+          <t>Computational Offloading for CNN-based Toxic Comment Detection on a Smartwatch</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>362-366</t>
+          <t>284-288</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Uncontrolled storage of problematic and toxic waste, respectively, has led in many places to the emergence of areas that pose a danger to the environment and natural resources, as well as to human health. Basically, all over the world countries are dealing with these environmental issues, therefore we have focused our attention on this mandatory objective for contemporary society and for staff working in the field of technical and engineering sciences. Our system, i.e. SAM-01, ensures the monitoring of the gases emitted by waste or household waste left in the arranged or unarranged locations as well as the monitoring of the soil pH in order to prevent the infestation of groundwater with harmful substances. The temperature inside the waste mass is monitored in order to prevent the phenomenon of self-combustion; the soil moisture is also monitored in the possible direction of leakage of harmful substances emanating from the landfill. Both the hardware and software supports of our system are presented in this paper together with further development of SAM-01.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Smartwatches are an important enabler of the Social Internet of Things (SIoT). However, a successful transition to SIoT will require negotiating challenges specific to social networks. One current challenge for social networks is the detection and removal of toxic comments like insults, threats, or sexually explicit language. Many proposed techniques for detecting toxic comments use deep neural networks. Like Siri, a smartwatch can use a remote service to detect toxic comments, or alternatively run the neural network on the edge to detect such comments. This paper presents the results of an experiment comparing the tradeoffs in memory consumption, CPU load and response time between running a toxic text detection CNN on a Samsung S3 smartwatch, or running the CNN remotely using computational offloading. Sentences were processed either periodically or by using a Poisson distribution with periods of between 0.25 and 4 minutes. The results were that there was little difference in battery depletion between running the CNN locally on the watch or remotely running the CNN. However, using WIFI for offloading resulted in much better (&lt;; 1 second) response time than running the CNN on the watch (1-2 seconds). This suggests that computational offloading is a preferred solution in this instance.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Batteries;Time factors;Wireless fidelity;Servers;Neural networks;Edge computing;Computational modeling;CNN;toxic comment detection;computational offloading;social internet of things;SIoT;smartwatch</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10.1109/ICCCA52192.2021.9666282</t>
+          <t>10.1109/FMEC49853.2020.9144770</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ciufudean, Calin, Buzduga, Corneliu</t>
+          <t>Zualkernan, Imran A., Towheed, Mohammed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2015 IEEE International Symposium on Signal Processing and Information Technology (ISSPIT)</t>
+          <t>2024 39th IEEE/ACM International Conference on Automated Software Engineering (ASE)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Implementation of Adaboost for the detection of the toxic response behaviour of zebrafish (Danio Rerio)</t>
+          <t>Efficient Detection of Toxic Prompts in Large Language Models</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>466-471</t>
+          <t>455-467</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The movement behaviour of zebrafish (Danio rerio) schools was observed in response to treatment with copper at a 24 h half-lethal concentration. The behavioural characteristic parameters, which were continuously recorded into a SQL (Structured Query Language) Server database by a digital image processing system both before and after the treatment, had significant changes. Subsequently, the Adaboost algorithm was implemented to solve the data vector classification problem in normal and abnormal water. Furthermore, to evaluate the accuracy and timeliness of the classifiers, Adaboost was compared with a back-propagation neural network (BPNN) and support vector machine (SVM). The results clearly demonstrated that the prediction accuracy of the Gentle Adaboost and Real Adaboost algorithms were over 93%, which was better than the Modest Adaboost, the BPNN and the SVM. In addition, the time requirement was also acceptable. In conclusion, Adaboost is a useful computational method for the classification of water quality.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10.1109/ISSPIT.2015.7394381</t>
-        </is>
-      </c>
+          <t>Large language models (LLMs) like ChatGPT and Gemini have significantly advanced natural language processing, enabling various applications such as chatbots and automated content generation. However, these models can be exploited by malicious individuals who craft toxic prompts to elicit harmful or unethical responses. These individuals often employ jailbreaking techniques to bypass safety mechanisms, highlighting the need for robust toxic prompt detection methods. Existing detection techniques, both blackbox and whitebox, face challenges related to the diversity of toxic prompts, scalability, and computational efficiency. In response, we propose ToxicDetector, a lightweight greybox method designed to efficiently detect toxic prompts in LLMs. ToxicDetector leverages LLMs to create toxic concept prompts, uses embedding vectors to form feature vectors, and employs a Multi-Layer Perceptron (MLP) classifier for prompt classification. Our evaluation on various versions of the LLama models, Gemma-2, and multiple datasets demonstrates that ToxicDetector achieves a high accuracy of 96.39% and a low false positive rate of 2.00%, outperforming state-of-the-art methods. Additionally, ToxicDetector’s processing time of 0.0780 seconds per prompt makes it highly suitable for real-time applications. ToxicDetector achieves high accuracy, efficiency, and scalability, making it a practical method for toxic prompt detection in LLMs.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Accuracy;Scalability;Large language models;Chatbots;Feature extraction;Vectors;Real-time systems;Safety;Software engineering;Glass box;llm;large language model;jailbreak;detection;ai security;llm security;toxic prompt</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Du, Qiuju, Xu, Jianyu, Ge, Yinghui, Wang, Chunlin</t>
+          <t>Liu, Yi, Yu, Junzhe, Sun, Huijia, Shi, Ling, Deng, Gelei, Chen, Yuqi, Liu, Yang</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023 14th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
+          <t>2022 International Conference on Computing, Communication, and Intelligent Systems (ICCCIS)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSDH: Detection of Hate Speech on social media with an effective deep neural network for code-mixed Hinglish data</t>
+          <t>Machine Learning-based Multilabel Toxic Comment Classification</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>435-439</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>The phenomenal rise of social media platforms like Twitter, Facebook, Instagram, and Reddit has led to the blending of native languages or regional tongues with English for the purpose of improving communication in linguistically open geographic regions around the world. There are many ways in which Holocaust denial can lead to an increase in violence, from direct assault to purging out of compassion. Online, people are very hostile to one another. Distinguishing between language that incites hatred and language that is disparaging is a fundamental challenge in the categorization and tracking of extremely toxic lexical features. Our research focuses on identifying harmful tweets composed in Hinglish, a fusion of Hindi and the Roman alphabet. We propose a system in this paper for classifying tweets as either abusive, neutral, or offensive. The help of Hindi-English offensive tweet dataset is comprised of tweets written in the code-transferred language of Hindi and is further subdivided into three groups: neutral, abusive, and hateful. We studied the abusive and hate speech dataset with transfer learning and pre-trained the proposed model on Hinglish-processed English tweets. With our proposed model, we were able to improve accuracy to 98.54 percent.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>The emergence of social media marked the beginning of a revolution not just in the realm of digitalization but also in that of communication. In spite of the fact that social media platforms make it possible for anyone located anywhere in the world to express their viewpoints and interact with a large audience, social media has also evolved into a venue for cruel behaviour, offensive language, cyberbullying, personal assaults, and the use of profane language. To tackle this challenge, we are detecting the toxicity level in the Jigsaw dataset by Google, which consists of six different classes, including toxic, severe_toxic, obscene, threat, insult, and identity_hate. This is a multilabel classification in which one comment can fall under more than one class. We study the impact of Multinomial NB, Logistic Regression, and Support Vector Machine with TF-IDF on identifying toxicity in text. These models were trained using the training data and after training were tested on the test data provided in the dataset. Experimental results show that Logistic Regression trumps the other models in terms of accuracy and hamming loss.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Training;Support vector machines;Toxicology;Computational modeling;Training data;Cyberbullying;Data models;Term Frequency-Inverse Document Frequency;Multinomial Naive Bayes;Toxic Comment Classification;Multilabel Classification;Natural Language Processing;Artificial Inteliigence</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.1109/ICCCNT56998.2023.10306709</t>
+          <t>10.1109/ICCCIS56430.2022.10037626</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Kumar Kaliyar, Rohit, Goswami, Anurag, Sharma, Ujali, Kanojia, Kanika, Agrawal, Mohit</t>
+          <t>Singh, Nitin Kumar, Chand, Satish</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021 29th Conference of Open Innovations Association (FRUCT)</t>
+          <t>2021 IEEE 23rd Conference on Business Informatics (CBI)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multilingual Sentiment Analysis and Toxicity Detection for Text Messages in Russian</t>
+          <t>Share of Toxic Comments among Different Topics: The Case of Russian Social Networks</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -607,221 +615,249 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>65-70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>In this paper, we discuss an approach to sentiment analysis and emotion identification for user comments. The solution is threefold: 1) topic detection, 2) sentiment evaluation, 3) toxicity detection and toxic spans localization. The lack of significantly large training data for the Russian language is handled by utilizing multilingual word embeddings, the adversarial domain adaptation model, and data augmentation. We present an overview of various preprocessing pipelines for topic modeling and highlight the LDA- Mallet model which demonstrates the best performance. For sentiment analysis and toxicity detection, we examine the efficacy of a support vector machine and a deep neural network with a multilingual language model and adversarial domain adaptation that allows us to train algorithms with datasets in the English language. All methods are tested with a dataset of user comments to various online-courses and adjusted to provide support for the development of a virtual dialogue assistant for conducting virtual exams.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>With the widespread use of online social networks, it is becoming more and more difficult to monitor and analyse all the user-generated content. Toxic speech in online conversations should be treated as a matter with serious social gravity, since it may result in both negative impacts on mental health and violent actions in the physical world. Within this study, we identified the share of toxic comments among different topics in Russian-language comments from social network Pikabu. Firstly, for toxic comments classification, we manually labelled the training dataset and fine-tuned several language models. To provide further toxic comments studies with strong classification baselines, we made our pre-trained publicly available to the research community. Secondly, we proposed an approach for topics labelling based on six major objective and observable dimensions for objective wellbeing measurement used by intergovernmental and government organisations. Lastly, we conducted an analysis of Pikabu data. We found that the largest share of toxic comments was under posts about politics, while security and socioeconomic topics ranked second and third, and the rest of the topics showed roughly the same values.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Training;Toxicology;Social networking (online);Government;User-generated content;Knowledge based systems;Mental health;toxic comments detection;sentiment analysis;social networks;text classification;natural language processing</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.23919/FRUCT52173.2021.9435584</t>
+          <t>10.1109/CBI52690.2021.10056</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bogoradnikova, Darya, Makhnytkina, Olesia, Matveev, Anton, Zakharova, Anastasia, Akulov, Artem</t>
+          <t>Smetanin, Sergey, Komarov, Mikhail</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023 5th International Conference on Inventive Research in Computing Applications (ICIRCA)</t>
+          <t>2021 IEEE 18th International Conference on Mobile Ad Hoc and Smart Systems (MASS)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multi-Label Toxicity Detection: An Analysis</t>
+          <t>Toxic Comment Detection: Analyzing the Combination of Text and Emojis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1131-1136</t>
+          <t>661-662</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Everybody has the freedom and flexibility to express their opinions and ideas through social networking and online discussion platforms. However, individuals are dealing with circumstances where the vast majority takes these networks casually and misuses them as a way to abuse and threaten others, which can result in cyberattacks, cyberbullying, nightmares, and, in severe cases, suicidal attempts. Such statements must be manually identified and classified, which is a time-taking, exhausting, and unreliable process. This research examines thetoxicity of remark and also investigate the sort of toxicity, categorize the comments into various labels if they are toxic. This research work will also compare various existing machine learning algorithms on the dataset named Toxic Comment Classification Challenge imported from Kaggle that contains 15000 comments. Machine Learning, Deep Learning and Natural Language Processing lend a helping hand in reducing the poisonous environment that exists on numerous discussion forums.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Detection of toxicity in online commentary is a growing branch of Natural Language Processing (NLP). Most research in the area rely only on text-based toxic comment detection. We propose a machine learning approach for detecting the toxicity of a comment by analyzing both the text and the emojis within the comment. Our approach utilizes word embeddings derived from GloVe and emoji2vec to train a bidirectional Long Short Term Memory (biLSTM) model. We also create a new labeled dataset with comments with text and emojis. The accuracy score of our model on preliminary data is 0.911.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Toxicology;Conferences;Machine learning;Natural language processing;Data models;Long short term memory;Toxic comments;natural language processing (NLP);emojis.</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.1109/ICIRCA57980.2023.10220812</t>
+          <t>10.1109/MASS52906.2021.00097</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Priya, Parul, Gupta, Payal, Goel, Rupesh, Jain, Vishal</t>
+          <t>Aquino, Michael, Ortiz, Yasiris, Rashid, Arif, Tumlin, Anne M., Artan, N. Sertac, Dong, Ziqian, Gu, Huanying</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020 IEEE/ACM 42nd International Conference on Software Engineering: New Ideas and Emerging Results (ICSE-NIER)</t>
+          <t>2023 5th International Conference on Cybernetics and Intelligent System (ICORIS)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stress and Burnout in Open Source: Toward Finding, Understanding, and Mitigating Unhealthy Interactions</t>
+          <t>Audio-based Indonesia Toxic Language Classification using Bidirectional Long Short Term Memory</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>57-60</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Developers from open-source communities have reported high stress levels from frequent demands for features and bug fixes and from the sometimes aggressive tone of these demands. Toxic conversations may demotivate and burn out developers, creating challenges for sustaining open source. We outline a path toward finding, understanding, and possibly mitigating such unhealthy interactions. We take a first step toward finding them, by developing and demonstrating a measurement instrument (an SVM classifier tailored for software engineering) to detect toxic discussions in GITHUB issues. We used our classifier to analyze trends over time and in different GITHUB communities, finding that toxicity varies by community and that toxicity decreased between 2012 and 2018.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+          <t>Users are able to connect with one another via web-based internet technologies through social media platforms like Twitter. On these platforms, hate speech has become a troubling problem, when people or groups are targeted because of characteristics like color, ethnicity, gender, nationality, religion, or organization. Such information is spreading quickly as a result of the practice of using hate speech to gain fast notoriety. 80% of cybercrime prosecutions in Indonesia involve hate speech and defamation on social media, despite the fact that there are regulations like the UU ITE Law, Chapter 28, Number 2, that forbid inciting hatred or enmity on the basis of race, religion, or ethnicity. This research paper explores a novel approach to audio-based toxic language classification in the Indonesian language, leveraging key techniques including Bidirectional Long Short-Term Memory (BiLSTM), speech recognition, and natural language processing. The study focuses on identifying toxic language using a balanced dataset of 5000 entries, equally divided between toxic and non-toxic categories. This dataset was compiled from diverse sources such as NusaCrowd, Kaggle, and others, and was subsequently cleansed of emojis and symbols to maintain a plain text environment. Utilizing audio-based content analysis, the methodology involved the transcription and classification of audio data, yielding an accuracy of 95.2%, precision of 96.4%, recall of 93.2% and F1 score of 94.8% in the detection of toxic speech. The implications of this research extend beyond the academic sphere of toxic language detection, holding significant real-world application potential in areas such as content moderation for Indonesian social media platforms and toxic language detection in customer service interactions. Thus, this study addresses a critical issue of toxic language proliferation in Indonesian online communities and social media platforms, further contributing to the development of healthier digital environments in the future.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Toxicology;Social networking (online);Hate speech;Speech recognition;Organizations;Speech enhancement;Regulation;natural language processing;bidirectional long short-term memory;speech recognition;audio-based content analysis;toxic language detection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.1109/ICORIS60118.2023.10352242</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Raman, Naveen, Cao, Minxuan, Tsvetkov, Yulia, Kästner, Christian, Vasilescu, Bogdan</t>
+          <t>Luckianto, Marvin, Addison, Renaldi, Vincent, Vincent, Muliono, Yohan, Prasetyo, Simeon Yuda</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019 International Conference on Intelligent Computing and Control Systems (ICCS)</t>
+          <t>2024 2nd International Conference on Self Sustainable Artificial Intelligence Systems (ICSSAS)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Detecting Hate Speech in Tweets Using Different Deep Neural Network Architectures</t>
+          <t>Multilingual Toxic Comment Classification using Deep Learning</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>923-926</t>
+          <t>752-757</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>One of the major problems, apparent in online social media, is the toxic online content. This has continued unabated, as people from diverse cultural backgrounds access the Internet, concealing their identity under the cloud of anonymity. Deep neural networks have been employed to detect hate speech from online content. This paper describes three different Deep Neural Network (DNN) Architectures for detection of hate words in Twitter - Gated Recurrent Unit (GRU), useful in capturing sequence orders, Convolution Neural Network (CNN), good for feature extraction, and Universal Language Model Fine-tuning (ULMFiT) model, which is based on transfer learning technique. ULMFiT model uses the DNN Architecture called Average-SGD Weight-Dropped Long Short Term Memory (AWD-LSTM). AWD -LSTM model was pre-trained using WikiText103 dataset. This method significantly outperformed the other Architectures.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Toxic comments can have a profoundly negative impact on online communities, fostering environments that feel unsafe, unwelcoming, and discouraging for participation. The task of toxic comment classification focuses on identifying and categorizing harmful or disruptive comments within online discussions. Despite extensive research in this area, several challenges persist, such as Multilingual Toxicity Detection, Data Imbalance, and Interpretability. Existing studies have categorized toxic comments into six distinct labels: toxic, severely toxic, obscene, threat, insult, and identity hate. Traditional machine learning models like SVM have achieved an accuracy of 87%, while more advanced models like BERT have reached up to 98.3%. The goal of this proposed work is to improve the identification of toxic comments across multiple social media platforms, particularly in datasets containing entries in multiple languages. To address this, deep learning models such as XLM-RoBERTa and BERT are employed to detect the language of the comment and classify it as either toxic or non-toxic. Each model’s performance will be evaluated primarily using Accuracy metrics, providing a basis for comparison to determine the most effective approach for multilingual toxic comment detection. High accuracy can be achieved through careful dataset preprocessing, advanced model architectures, and hyperparameter tuning. Performance can be improved by fine-tuning model hyperparameters and employing better feature extraction techniques. More clarity is required in explaining the rationale behind selecting particular models.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Training;Deep learning;Adaptation models;Toxicology;Accuracy;Social networking (online);Bidirectional control;Transformers;Encoding;Tuning;Multilingual Toxicity Detection;Bidirectional Encoder Representations from Transformers (BERT);Toxic comment;Deep learning</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.1109/ICCS45141.2019.9065763</t>
+          <t>10.1109/ICSSAS64001.2024.10760913</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Amrutha, B R, Bindu, K R</t>
+          <t>Venugopal, N. L. V., Kanchanamala, P, Muppidi, Satish, Prakash, T. Bhanu, Neelima, T., Devi, S Anjali</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023 3rd International Conference on Innovative Research in Applied Science, Engineering and Technology (IRASET)</t>
+          <t>2024 2nd International Conference on Intelligent Data Communication Technologies and Internet of Things (IDCIoT)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Social Media's Toxic Comments Detection Using Artificial Intelligence Techniques</t>
+          <t>Toxic Comment Detection Using Bidirectional Sequence Classifiers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>709-716</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cyberbullying takes its place in social media and has increased throughout the past few years. The damage that cyberbullying has on the users is undeniable they get attacked either on their appearances, ethnicities, religions, and even their thoughts and personal opinion. The attack causes these users anxiety, depression, low self-esteem, and in the worst scenarios suicide. These harmful actions toward the users drive researchers to identify and detect cyberbullying to fight it. Unfortunately, most of the previous approaches were on English texts, hardly any on other languages. This paper presents a cyberbullying detection system in the Moroccan dialect on an Instagram-collected dataset. The experiment results gave accuracies of around 77% to 91% from both the ML and DL algorithms. The LSTM model gave the best outcome by 91.24% outperforming the ML models.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>With the rising surge of online toxicity, automating the identification of abusive language becomes crucial for improving online discourse. This study proposes a deep learning system that efficiently uses multiple labels to classify harmful comments using bi-directional Long Short-Term Memory (LSTM) networks. By leveraging contextual information, the bi-LSTM model achieves state-of-the-art performance in classifying subtle forms of toxicity such as threats, insults, identity hate, and obscenity. The model achieves above 95% accuracy on benchmark datasets with rigorous data processing, optimized neural architecture, and the utilization of FastText embeddings to handle words that are not in the vocabulary. This technique can automatically filter different levels of toxicity, promoting positive online interactions when integrated into online platforms. The proposed study outlines an end-to-end pipeline incorporating recent NLP advancements and deep contextualized language models to address contemporary challenges in AI-enabled content moderation.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Training;Surveys;Vocabulary;Toxicology;Benchmark testing;Data models;Surges;natural language processing;sequence modeling;long short-term memory;toxic comment detection;bidirectional classifier</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>10.1109/IRASET57153.2023.10153015</t>
+          <t>10.1109/IDCIoT59759.2024.10467922</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rachidi, Rabia, Ouassil, Mohamed Amine, Errami, Mouaad, Cherradi, Bouchaib, Hamida, Soufiane, Silkan, Hassan</t>
+          <t>Maity, Amit, More, Rishi, Patil, Prof. Abhijit, Oza, Jay, Kambli, Gitesh</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019 2nd International Conference on Innovation in Engineering and Technology (ICIET)</t>
+          <t>2021 29th European Signal Processing Conference (EUSIPCO)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Toxicity Detection on Bengali Social Media Comments using Supervised Models</t>
+          <t>Audio-based Toxic Language Classification using Self-attentive Convolutional Neural Network</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Social media playing an indispensable role in our daily life providing a public platform to share opinions including threats, spam and vulgar words often referred to as toxic comments. This type of expression depicts the anti-social behavior of the commentators which may hamper the online atmosphere. Filtering such toxic comments by handcrafting rules is cumbersome because they are unstructured and often include misspelled obscene words. Automated machine learning-based models to classify such toxic comments constitute a part of Sentiment Analysis and they are extensively used for the English language; showing promising results than statistical models. Though Bengali is a widely spoken language around the globe, little research works have been done to detect toxic comments in this language. Hence in this scholarly manuscript, we provide a comparative analysis of five supervised learning models (Naive Bayes, Support Vector Machines, Logistic Regression, Convolutional Neural Network, and Long Short Term Memory) to detect toxic Bengali comments from an annotated publicly available dataset. As our research finding, we demonstrate that both the deep learning-based models have outperformed other classifiers by 10% margin where Convolutional Neural Network achieved the highest accuracy of 95.30%.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>The monumental increase in online social interaction activities such as social networking or online gaming is often riddled by hostile or aggressive behavior that can lead to unsolicited manifestations of cyberbullying or harassment. In this work, we develop an audio-based toxic language classifier using self-attentive Convolutional Neural Networks (CNNs). As definitions of hostility or toxicity can vary depending on the platform or application, in this work we take a more general approach for identifying toxic utterances, one that does not depend on individual lexicon terms, but rather considers the entire acoustical context of the short verse or utterance. In the proposed architecture, the self-attention mechanism captures the temporal dependency of the verbal content by summarizing all the relevant information from different regions of the utterance. The proposed audio-based self-attentive CNN model is evaluated on a public and an internal dataset and achieves 75% accuracy, 79% precision, and 80 % recall in identifying toxic speech recordings.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Measurement;Visualization;Toxicology;Europe;Cyberbullying;Signal processing;Feature extraction;toxic language detection;self-attention;hate speech;sentiment detection;cyberbullying</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10.1109/ICIET48527.2019.9290710</t>
+          <t>10.23919/EUSIPCO54536.2021.9616001</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banik, Nayan, Rahman, Md. Hasan Hafizur</t>
+          <t>Yousefi, Midia, Emmanouilidou, Dimitra</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022 International Conference on Machine Learning, Computer Systems and Security (MLCSS)</t>
+          <t>2022 IEEE 11th International Conference on Communication Systems and Network Technologies (CSNT)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Challenges and Approaches of Code-mixed Hate Speech Detection</t>
+          <t>A Toxic Content Detection Technique in Sentimental Analysis with Convolution Neural Networks</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -831,111 +867,123 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>290-295</t>
+          <t>398-402</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>The online platform and social media are very eye catchy for internet users. Platforms like YouTube, Twitter, Instagram, etc., are higher in demand due to their brilliant services. Users of these sights frequently comment on others' posts which may contain toxic speech. Some platforms also raise concerns about emerging of this activity. As the increase of hate speech is just next to impossible to control, the need to detect these contents through automated hate speech detection technologies arises. In this work, we focused on multi-lingual issues, especially Indo-European code-mixed languages. At first, we identified some issues related to code-mixed Indian languages. Then, we focused on the available solutions to this problem. We have gone through the works performed on machine learning and deep learning techniques and identified the limitations of those works. We have analyzed the present solutions and gone through the comparative studies of those. Our implementation is conducted on code-mixed twitter datasets providing several perceptions on hate speech. We have performed the experimental work on HASOC 2021 dataset. Our work contributes to the field of hate speech detection by comparing feature extraction and classifier algorithms (Machine Learning and Deep Learning). More specifically, the proposed work aimed at distinguishing Hate and Non-Hate speech from normal text.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>In the recent time, the usage of various social media platforms has drastically increased which involves the positive or negative impact on human lives. One of the aspects is directly associated with comment/opinion which individual user/person passes through different social networking sites. This paper provides the discussion on different approaches to analyze classification and modelling techniques for detecting toxic comments using convolution neural networks (CNN). It also specifies algorithm based on outlier detection on given data stream that can evaluate the posted material on social platforms and check its positive and negative impact on the society.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Analytical models;Social networking (online);Convolution;Communication systems;Conferences;Neural networks;Companies;Toxic/Non-toxic Comment Classification;Sentiment Analysis;Convolution Neural Networks;Outlier Detection Techniques</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10.1109/MLCSS57186.2022.00060</t>
+          <t>10.1109/CSNT54456.2022.9787588</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Dash, Swayam Samparna, Kar, Nikunja Bihari</t>
+          <t>Mishra, Varun, Tripathi, Monika</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020 27th Asia-Pacific Software Engineering Conference (APSEC)</t>
+          <t>2024 Second International Conference on Emerging Trends in Information Technology and Engineering (ICETITE)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A Benchmark Study of the Contemporary Toxicity Detectors on Software Engineering Interactions</t>
+          <t>Assamese Toxic Comment Detection On Social Media Using Machine Learning Methods</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>218-227</t>
+          <t>1-8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Automated filtering of toxic conversations may help an Open-source software (OSS) community to maintain healthy interactions among the project participants. Although, several general purpose tools exist to identify toxic contents, those may incorrectly flag some words commonly used in the Software Engineering (SE) context as toxic (e.g., `junk', `kill', and `dump') and vice versa. To encounter this challenge, an SE specific tool has been proposed by the CMU Strudel Lab (referred as the `STRUDEL' hereinafter) by combining the output of the Perspective API with the output from a customized version of the Stanford's Politeness detector tool. However, since STRUDEL's evaluation was very limited with only 654 SE text, its practical applicability is unclear. Therefore, this study aims to empirically evaluate the Strudel tool as well as four state-of-the-art general purpose toxicity detectors on a large scale SE dataset. On this goal, we empirically developed a rubric to manually label toxic SE interactions. Using this rubric, we manually labeled a dataset of 6,533 code review comments and 4,140 Gitter messages. The results of our analyses suggest significant degradation of all tools' performances on our datasets. Those degradations were significantly higher on our dataset of formal SE communication such as code review than on our dataset of informal communication such as Gitter messages. Two of the models from our study showed significant performance improvements during 10-fold cross validations after we retrained those on our SE datasets. Based on our manual investigations of the incorrectly classified text, we have identified several recommendations for developing an SE specific toxicity detector.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>Social media users across society are negatively impacted by toxic contents. For a strong social environment and safe language models, a toxic comment detection system is designed to protect users from harmful content in Social Media.Toxic Comment Detection in Assamese Languages is one of the most challenging Natural Language Processing (NLP) tasks since Indian languages like Assamese are ambiguous in nature and rich in morphology. Despite dearth of e-resources of Assamese language, 19,550 comments are collected manually from popular social media platforms and examined considering Naive Bayes(NB), Support Vector Machine(SVM), Logistic Regression(LR) and Random Forest(RF) with count vector, count vector+TF-IDF and n-gram representation. The experimental findings show that SVM with count vector + TF-IDF has outperformed all the proposed machine learning models with a remarkable accuracy and F1-score of 94%.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Support vector machines;Social networking (online);Morphology;Machine learning;Forestry;Market research;Vectors;Assamese;NB;SVM;LR;RF;Toxic</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.1109/APSEC51365.2020.00030</t>
+          <t>10.1109/ic-ETITE58242.2024.10493331</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sarker, Jaydeb, Turzo, Asif Kamal, Bosu, Amiangshu</t>
+          <t>Dutta, Surajit, Neog, Mandira, Baruah, Nomi</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022 IEEE 13th Annual Information Technology, Electronics and Mobile Communication Conference (IEMCON)</t>
+          <t>2023 14th IIAI International Congress on Advanced Applied Informatics (IIAI-AAI)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Reddit Comment Toxicity Score Prediction through BERT via Transformer Based Architecture</t>
+          <t>Combination and Knowledge Extension of Pre-trained Language Model for Offensive Language Detection</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0353-0358</t>
+          <t>82-87</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hateful and offensive language on social media platforms has a severe influence on users' mental health and engagement of people from various backgrounds. Automatic detection of foul language has traditionally relied heavily on datasets with categorical data. However, the degree of offensiveness of comments varies. The proposed model uses tfidf followed by Ridge Regression,Catboost Regression and BERT followed by dense layers. The study uses a dataset containing Reddit-comments written in English language with precise and calculated values ranging from -1 to 1. Best-Worst Scaling was used to annotate the dataset, a type of comparative annotation that has been found to reduce the biases associated with rating scales. It has been demonstrated that the technique gives extremely accurate offensiveness scores. The proposed method offers user to customize their own threshold of offensiveness. The experiments has been conducted with different n-gram ranges. The result reveals better performance than state of the art.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+          <t>Nowadays, more and more offensive comments are posted on social media. Those offensive comments can seriously cause mental damage to other people. Therefore, those toxic and harmful comments should be detected timely and accurate. In this paper, we exploit the powerful pre-train language models (PLM) in detecting offensive language. We consider two PLMs in our paper: BERT and DeepMoji. We finetune their combination and evaluate the performance with two datasets: Ask FM and Curious Cat. We found that DeepMoji outperforms BERT. We analyze the result from two aspects and conclude that the task and data of pre-training are important to PLM. Seeing that BERT is less effective than DeepMoji, it is possible to improve the performance of BERT. We then propose a “Knowledge Extension” method to improve the performance of the BERT model. We find that the performance of PLM with high-quality extensional knowledge can be improved significantly.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Analytical models;Frequency modulation;Social networking (online);Face recognition;Media;Data models;Task analysis;offensive language detection;machine learning;pre-trained language model;social media</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10.1109/IEMCON56893.2022.9946574</t>
+          <t>10.1109/IIAI-AAI59060.2023.00026</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Shounak, Rishi, Roy, Sayantan, Kumar, Vivek, Tiwari, Vivek</t>
+          <t>Li, Zhenming, Shimada, Kazutaka</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020 26th Conference of Open Innovations Association (FRUCT)</t>
+          <t>2020 IEEE Sixth International Conference on Multimedia Big Data (BigMM)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Avoiding Unintended Bias in Toxicity Classification with Neural Networks</t>
+          <t>Towards a Safer Conversation Space: Detection of Toxic Content in Social Media (Student Consortium)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -945,73 +993,81 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>314-320</t>
+          <t>297-301</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>The growing popularity of online platforms that allow users to communicate with each other, exchange opinions about various events and leave comments, has contributed to the development of natural language processing algorithms. Tens of millions of messages per day published by users of a certain social network must be analyzed in real time for moderation to prevent the spread of various illegal or offensive information, threats and other types of toxic comments. Of course, such a large amount of information can be processed quite quickly only automatically. That is why it is necessary to find a way to teach a computer to “understand” a text written by a man. It is a non-trivial task, even if the word “understand” here means only to detect or classify. The rapid development of machine learning technologies has led to the widespread adoption of new algorithms. Many tasks that for years were considered almost impossible to solve using computer now can be successfully solved with deep learning technologies. In this article, the author presents modern approaches to solving the problem of toxic comments detection using deep learning technologies and neural networks. The author introduces two state-of-theart neural network architectures and also demonstrates how to use a contextual language representation model to detect toxicity. Furthermore, in this article will be presented the results of the developed algorithms, as well as the results of their ensemble, tested on a large training set, gathered and marked up by Google and Jigsaw.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>With content on social media turning increasingly toxic, it has attracted intensive research in the Natural Language Processing domain to detect aggression, hate, profanity, insult, cyberbullying and other personal attacks. Unlike most of the work in toxic content detection where the nature of toxicity is determined, we treat the detection of toxic content as a binary classification task. Here, we have explored Support Vector Machine, Boosting and deep neural networks for classification. We have trained the model on twitter datasets. With a goal of better predictive performance, our approach uses a majority voting ensemble to aggregate the predictions of individual classifiers.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Social networking (online);Boosting;Training;Toxicology;Frequency measurement;Task analysis;Support vector machines;Toxic content detection;social media;Text classification;classifier ensemble</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10.23919/FRUCT48808.2020.9087368</t>
+          <t>10.1109/BigMM50055.2020.00052</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Morzhov, Sergey</t>
+          <t>Sahana, B.S., Sandhya, G., Tanuja, R.S., Ellur, Sushma, Ajina, A.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023 IEEE International Conference on Industry 4.0, Artificial Intelligence, and Communications Technology (IAICT)</t>
+          <t>2019 6th International Conference on Soft Computing &amp; Machine Intelligence (ISCMI)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multi-Label Classification of Indonesian Online Toxicity using BERT and RoBERTa</t>
+          <t>Automatic Detection of Toxic South African Tweets Using Support Vector Machines with N-Gram Features</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>143-149</t>
+          <t>126-130</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Online toxicity detection in Indonesian digital interactions poses a significant challenge due to the complexity and nuances of language. This study aims to evaluate the effectiveness of the BERT and RoBERTa language models, specifically IndoBERTweet, IndoBERT, and Indonesian RoBERTa, for identifying toxic content in Bahasa Indonesia. Our research methodology includes data collection, dataset pre-processing, data annotation, and model fine-tuning for multi-label classification tasks. The model performance is assessed using macro average of precision, recall, and F1-score. Our findings show that IndoBERTweet, fine-tuned under optimal hyperparameters (5e-5 learning rate, a batch size of 32, and three epochs), outperforms the other models with a precision of 0.85, recall of 0.94, and an F1-score of 0.89. These findings indicate that IndoBERTweet performs better in detecting and classifying online toxicity in Bahasa Indonesia. The study ’s implications extend to fostering a safer and healthier online environment for Indonesian users, while also providing a foundation for future research exploring additional models, hyperparameter optimizations, and techniques for enhancing toxicity detection and classification in the Indonesian language.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Toxic South African corpus is not available to detect toxic tweets such as offensive, hate, bullying and violent tweets. But there are some offensive and hate speech corpora, mostly in English, which have been used to detect toxic tweets. This paper focuses on automatic detection of toxic South African tweets using a reliable English corpus. The review of text classification models has shown that Support Vector Machines have very often outperformed other classic machine learning algorithms, while word and character n-gram features have performed well with varying prediction performances in different contexts. This paper therefore evaluated the performance of different parameter settings of Support Vector Machines and n-gram features for detection of toxic South African tweets, with a view to hybridize the best among the classifiers. Different combinations of word and character n- gram features were used for the classification. The results show that the Support Vector Machine classifier with set of unigram and bigram as well as set of character n-gram with length sizes from 3 to 7 perform best. By combining the classifiers, the accuracy and F-measure improve from the initial highest Accuracy and F-Measure scores of 0.9085 and 0.94, respectively to 0.9095 and 0.95. The comparison of our results with the performance of previous work on the English corpus shows that our model is reliable.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Support vector machines;Training;Feature extraction;Standards;Testing;Twitter;Logistics;machine learning;classification model;toxic tweets;support vector machine;N-gram Features</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10.1109/IAICT59002.2023.10205892</t>
+          <t>10.1109/ISCMI47871.2019.9004298</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sagama, Yoga, Alamsyah, Andry</t>
+          <t>Oriola, Oluwafemi, Kotzé, Eduan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023 IEEE International Students' Conference on Electrical, Electronics and Computer Science (SCEECS)</t>
+          <t>2023 8th International Conference on Control and Robotics Engineering (ICCRE)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arduino Based Bluetooth Voice-Controlled Robot Car and Obstacle Detector</t>
+          <t>Toxicity Detection Using State of the Art Natural Language Methodologies</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1021,529 +1077,573 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>16-20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A machine is required when humans would like to work in different environmental conditions, such as toxic material, remote handling of bombs, health conditions, and sewage treatment. The paper aims to build a robot car that monitors the human voice's movement and senses distant objects. The L298N board, HC-05, Arduino Uno microcontroller, ultrasonic sensor, battery, and jumping wires are included in this system. The robot movement and control system is used by the speaker to allow the robot to react to any speaker command that gives any verbal instruction that produces sound frequencies of the human voice. Through the software application, the user of a robotic car will choose the route or path to control the movement of the car. The user can monitor the robot's movements on his own smart device and allow the car to drive in his own way. In this method, a microcontroller with android devices is linked through a bluetooth module to receive desired voice commands. The robot then escapes obstacles and detects distant objects. The android application that is used to convert a voice to a text command and then transmit data to a microcontroller moves the robot via a voice application according to the user's command. After receiving the command, the robot moves in left, right, forward, and backward directions. This device tried to alert workers to the possibility of a terrorist attack in a military camp.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
+          <t>In this paper, the studies carried out to detect objectionable expressions in any text will be explained. Experiments were performed with Sentence transformers, supervised machine learning algorithms, and Bert transformer architecture trained in English, and the results were observed. To prepare the dataset used in the experiments, the natural language processing and machine learning methodologies of the toxic and non-toxic contents in the labeled text data obtained from the Kaggle platform are explained, and then the methods and performances of the models trained using this dataset are summarized in this paper.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Machine learning algorithms;Toxicology;Process control;Machine learning;Transformers;Natural language processing;Data models;language models;bert;transformers;natural language processing;supervised machine learning algorithms;deep learning</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10.1109/SCEECS57921.2023.10063092</t>
+          <t>10.1109/ICCRE57112.2023.10155587</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Sissodia, Rajeshwari, Rauthan, ManMohan Singh, Barthwal, Varun</t>
+          <t>Keskin, Enes Faruk, Açikgöz, Erkut, Dogan, Gulustan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021 International Conference on Innovative Practices in Technology and Management (ICIPTM)</t>
+          <t>2024 International Conference on IoT Based Control Networks and Intelligent Systems (ICICNIS)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Injurious Comment Detection and Removal utilizing Neural Network</t>
+          <t>Eliminating Toxicity in Text: An NLP Framework for Clean Content Extraction</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>165-168</t>
+          <t>146-151</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>There are a lot of ways to communicate in this cyber world. With this increasingly growing era there is also much obstruction in a safe and secure environment. There has been an exponential growth in cyber bullying and abusing. Deep learning methods have recently begun to be used to detect abusive comments made in online forums. Detecting, and classifying, online abusive language is a non-trivial NLP challenge because online comments are made in a wide variety of contexts, and contain words from many different formal and informal lexicons. For this to overcome we design a model that detects the level of toxicity in a message and replaces it with another phrase. It uses a Deep Neural network model that takes a message/comment as an input and checks for various parameters such as Toxic, Severe Toxic, Identity hate, threat, etc. And the application finally then replaces the portion with another word/phrase. Examining things, you care about can be troublesome. The danger of misuse and provocation online implies that numerous individuals quit communicating and offer up on looking for changed thoughts. Stages battle to adequately encourage discussions, driving numerous networks to restrict or totally shut down client remarks.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>This research study proposes a machine learning-based application called ToxiGuard, which is designed to ascertain the toxic language in text. The proposed technique employs the use of the Natural Language Processing (NLP) mechanism and a Naive Bayes based classifier to detect and categorize unhealthy or toxic comments. First the given text data is preprocessed by dividing or tokenizing the sentences into different words, once tokens are formed it will be passed as an argument into the proposed method which removes all the words which are unhealthy based on the trained model. Model takes the decision based on the patterns correlated with toxic or unhealthy language. The proposed mechanism is represented in the form of a graphical user interface (GUI) built with Tkinter. GUI being designed enables user to upload a text file which contains serious of text or sentences analysis is being done and visual representation of the outcome is plotted with help of a bar chart of the maximum frequency of each toxic words. In addition to analysis report outcome of the analysis can be exported for further review process. ToxiGuard focus to help or classify online content by providing effective and user-friendly application in-order to detect harmful or unhealthy language.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Visualization;Toxicology;Sensitivity;Scalability;Feature extraction;Natural language processing;Safety;Security;Standards;Graphical user interfaces;ToxiGuard;NLP;Toxic;Unhealthy;Tkinter;Naïve based classifier</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10.1109/ICIPTM52218.2021.9388331</t>
+          <t>10.1109/ICICNIS64247.2024.10823171</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Wadhwani, Abhishek, Jain, Priyank, Sahu, Shriya</t>
+          <t>Kumar, Sharath, Dmello, Daxia Vlora, Janani, Devi, K D, Avani, P, Kirthana Kamath</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021 IEEE International Conference on Systems, Man, and Cybernetics (SMC)</t>
+          <t>2022 13th International Congress on Advanced Applied Informatics Winter (IIAI-AAI-Winter)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Automatic Misogyny Detection in Social Media Platforms using Attention-based Bidirectional-LSTM</t>
+          <t>Combining Pre-Trained Language Models and Features for Offensive Language Detection</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2706-2711</t>
+          <t>5-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>The important growth of social media and online gaming sites in recent years have increased the challenge of online moderation to keep the internet safe and without toxic content. Today, machine learning techniques play an important role in detecting inappropriate content and help moderate online interaction. Text classification using Natural Language Processing (NLP) methods has been extensively studied using deep learning models and transformers which have shown impressive results. Despite this, specific classification tasks on limited datasets still need to be improved. In this paper, we propose an approach based on an Attention-Based Bidirectional LSTM model and a combination of custom features to enhance automatic misogyny identification (AMI) on social media. We present a multi-lingual study of the phenomena by carrying out different classification experiments. Our study focuses on selecting most important features to improve the model for misogyny detection. The proposed model outperforms many state-of-the-art approaches across multiple datasets.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
+          <t>Nowadays, people often express their abusive and offensive thoughts to others on social media easier. The abusive and toxic comments hurt others seriously. Therefore those abusive and toxic comments should be detected properly through natural language processing. In this paper, we focus on two types of features in offensive language: word-level and sentence-level fea-tures. We use lexicon-based and standard bag-of-words features as the word level. We introduce BERT-based and DeepMoji-based features as the sentence level. We apply the four features to a machine learning approach: support vector machines. We evaluate the method using the combinations of four features with a dataset, Curious Cat. The best F1 score was generated by the method with all features. This result shows the effectiveness of our proposed method. In addition, the experimental result indicates that DeepMoji generated from Twitter data is better than BERT which is generated from written language, for an offensive language detection task about social media data.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Support vector machines;Dictionaries;Social networking (online);Bit error rate;Machine learning;Media;Feature extraction;Offensive language detection;Features for ma-chine learning;Pre-trained language model;Social media</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10.1109/SMC52423.2021.9659158</t>
+          <t>10.1109/IIAI-AAI-Winter58034.2022.00012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rahali, Abir, Akhloufi, Moulay A., Therien-Daniel, Anne-Marie, Brassard-Gourdeau, Eloi</t>
+          <t>Li, Zhenming, Shimada, Kazutaka</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022 5th International Conference on Advances in Science and Technology (ICAST)</t>
+          <t>2020 19th IEEE International Conference on Machine Learning and Applications (ICMLA)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A Neuro-NLP Induced Deep Learning Model Developed Towards Comment Based Toxicity Prediction</t>
+          <t>Toxic Comment Classification For French Online Comments</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94-99</t>
+          <t>1010-1014</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>The comments sections of online forums and social media platforms have become the new playing field for cyber harassment. Correspondingly, various organizations and companies have decided to abolish toxic and nasty comments altogether to avoid this kind of issue. To protect authorized and genuine users from being exposed to comments which contain offensive language on online mediums or social media platforms, organizations have started flagging such comments and they are blocking those users who are using unpleasant forms of language. Most of the organizations use computerized algorithms for instinctive discovery of comment toxicity using machine learning and artificial intelligence based systems. In the present research study, we have tried to build multi headed comment toxicity detection models. We have built three toxicity detection models using deep learning techniques and compared the accuracy and results. We have also developed a menu driven interface which will help to link machine learning models which is uncomplicated for non programmers and this connection of model to interface will be convenient for making interactive programming interfaces with great accuracy and operationality.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>In this paper, we propose a supervised approach for toxic comment classification for French language. We choose a set of features proposed for toxic comment detection for English and use it for French toxic comment detection. Our approach is based on N-gram features, linguistic features and a dictionary of insulting words and expressions. We obtain a F1-score of 78% with N-grams, linguistic and lexicon features, a precision of 87% with N-gram features and a recall of 83% with N-gram, linguistic and lexicon features. Classifier used are linear SVM and decision tree.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Support vector machines;Dictionaries;Conferences;Machine learning;Linguistics;Feature extraction;Decision trees;text classification;NLP;text mining;toxic text classification</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10.1109/ICAST55766.2022.10039597</t>
+          <t>10.1109/ICMLA51294.2020.00164</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ashok, Kulaye Shreyal, Ashok, Kulaye Aishwarya, Naseem, Shaikh Mohammad Bilal</t>
+          <t>Boudjani, Nadira, Haralambous, Yannis, Lyubareva, Inna</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2021 Third IEEE International Conference on Trust, Privacy and Security in Intelligent Systems and Applications (TPS-ISA)</t>
+          <t>2024 Second International Conference on Data Science and Information System (ICDSIS)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Can pre-trained Transformers be used in detecting complex sensitive sentences? - A Monsanto case study</t>
+          <t>Exploring BERT and Bi-LSTM for Toxic Comment Classification: A Comparative Analysis</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90-97</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Each and every organisation releases information in a variety of forms ranging from annual reports to legal proceedings. Such documents may contain sensitive information and releasing them openly may lead to the leakage of confidential information. Detection of sentences that contain sensitive information in documents can help organisations prevent the leakage of valuable confidential information. This is especially challenging when such sentences contain a substantial amount of information or are paraphrased versions of known sensitive content. Current approaches to sensitive information detection in such complex settings are based on keyword-based approaches or standard machine learning models. In this paper, we wish to explore whether pretrained transformer models are well suited to detect complex sensitive information. Pretrained transformers are typically trained on an enormous amount of text and therefore readily learn grammar, structure and other linguistic features, making them particularly attractive for this task. Through our experiments on the Monsanto trial data set, we observe that the fine-tuned Bidirectional Encoder Representations from Transformers (BERT) transformer model performs better than traditional models. We experimented with four different cat-egories of documents in the Monsanto dataset and observed that BERT achieves better F2 scores by 24.13% to 65.79% for GHOST, 30.14% to 54.88% for TOXIC, 39.22% for CHEMI, 53.57 % for REGUL compared to existing sensitive information detection models.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>This study analyzes on the classification of toxic comments in online conversations using advanced natural language processing (NLP) techniques. Leveraging advanced natural language processing (NLP) techniques and classification models, including BERT and Bi-LSTM models to classify comments into 6 types of toxicity: toxic, obscene, threat, insult, severe toxic and identity hate. The study achieves competitive performance. Specifically, fine-tuning BERT using TensorFlow and Hugging Face Transformers resulted in an AUC ROC rate of $98.23 \%$, while LSTM yielded a binary accuracy of $96.07 \%$. The results demonstrate the effectiveness of using transformer-based models like BERT for toxicity classification in text data. The study discusses the methodology, model architectures, and evaluation metrics, highlighting the effectiveness of each approach in identifying and classifying toxic language. Additionally, the paper discusses the implementation of a userfriendly interface for real-time toxic comment detection, leveraging the trained models for efficient moderation of online content.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Accuracy;Toxicology;Computational modeling;Oral communication;Transformers;Natural language processing;Real-time systems;toxicity;BERT;bi-LSTM;natural language processing</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10.1109/TPSISA52974.2021.00010</t>
+          <t>10.1109/ICDSIS61070.2024.10594466</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Timmer, Roelien C., Liebowitz, David, Nepal, Surya, Kanhere, Salil S.</t>
+          <t>Tarun, V G, Sivasakthivel, Ramkumar, Ramar, Gobinath, Rajagopal, Manikandan, Sivaraman, G.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2021 Third International Conference on Intelligent Communication Technologies and Virtual Mobile Networks (ICICV)</t>
+          <t>2024 IEEE Symposium on Security and Privacy (SP)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cyberbullying Detection: An Ensemble Based Machine Learning Approach</t>
+          <t>You Only Prompt Once: On the Capabilities of Prompt Learning on Large Language Models to Tackle Toxic Content</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>710-715</t>
+          <t>770-787</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Research on cyberbullying detection is gaining increasing attention in recent years as both individual victims and societies are greatly affected by it. Moreover, ease of access to social media platforms such as Facebook, Instagram, Twitter, etc. has led to an exponential increase in the mistreatment of people in the form of hateful messages, bullying, sexism, racism, aggressive content, harassment, toxic comment etc. Thus there is an extensive need to identify, control and reduce the bullying contents spread over social media sites, which has motivated us to conduct this research to automate the detection process of offensive language or cyberbullying. Our main aim is to build single and double ensemble-based voting model to classify the contents into two groups: `offensive' or `non-offensive'. For this purpose, we have chosen four machine learning classifiers and three ensemble models with two different feature extraction techniques combined with various n-gram analysis on a dataset extracted from Twitter. In our work, Logistic Regression and Bagging ensemble model classifier have performed individually best in detecting cyberbullying which has been outperformed by our proposed SLE and DLE voting classifiers. Our proposed SLE and DLE models yield the best performance of 96% when TF-IDF (Unigram) feature extraction is applied with K-Fold cross-validation.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>The spread of toxic content online is an important problem that has adverse effects on user experience online and in our society at large. Motivated by the importance and impact of the problem, research focuses on developing solutions to detect toxic content, usually leveraging machine learning (ML) models trained on human-annotated datasets. While these efforts are important, these models usually do not generalize well and they can not cope with new trends (e.g., the emergence of new toxic terms). Currently, we are witnessing a shift in the approach to tackling societal issues online, particularly leveraging large language models (LLMs) like GPT-3 or T5 that are trained on vast corpora and have strong generalizability. In this work, we investigate how we can use LLMs and prompt learning to tackle the problem of toxic content, particularly focusing on three tasks; 1) Toxicity Classification, 2) Toxic Span Detection, and 3) Detoxification. We perform an extensive evaluation over five model architectures and eight datasets demonstrating that LLMs with prompt learning can achieve similar or even better performance compared to models trained on these specific tasks. We find that prompt learning achieves around 10% improvement in the toxicity classification task compared to the baselines, while for the toxic span detection task we find better performance to the best baseline (0.643 vs. 0.640 in terms of F1-score). Finally, for the detoxification task, we find that prompt learning can successfully reduce the average toxicity score (from 0.775 to 0.213) while preserving semantic meaning.1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Privacy;Toxicology;Large language models;Semantics;Predictive models;Market research;User experience</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10.1109/ICICV50876.2021.9388499</t>
+          <t>10.1109/SP54263.2024.00061</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Alam, Kazi Saeed, Bhowmik, Shovan, Prosun, Priyo Ranjan Kundu</t>
+          <t>He, Xinlei, Zannettou, Savvas, Shen, Yun, Zhang, Yang</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2023 4th International Conference on Signal Processing and Communication (ICSPC)</t>
+          <t>2022 IEEE 19th International Conference on Mobile Ad Hoc and Smart Systems (MASS)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deep Neural Networks based Detection and Analysis of Fake Tweets</t>
+          <t>Investigating the Effect of Machine-Translation on Automated Classification of Toxic Comments</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>56-61</t>
+          <t>764-769</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Social networking is a wedge for interchanging thoughts, individual perspectives and views but without adversely affecting the sentimental, religious, or maybe private thoughts of the group. Furthermore, the spread of fake news flashes continues to be a pattern on social networking. This paper discusses a hybrid method used towards the control over this kind of ill intentions by developing a method that analysis and also detects posts, toxic comments, or fake news inside any multimedia or text format. This particular paper will help to identify the precision of fake news utilizing Deep Neural Networks. News articles extracted from Twitter is represented as embedding vectors. The hybridized Convolutional Neural Network and LSTM (Long-Short Term Memory) framework is built to learn the contextual dependencies between the words present in news articles. We compare many methods for detecting fake news. The Natural Language Interference (NLI) designs may also be qualified. The information compilation, interpretation, and then tests procedure are clarified completely along with existing different study analyses in the identity of linguistic variants to come down with truthful and false information. Next, we check as well as train a pair of learning breakthroughs to produce exact fake information detectors.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>This paper discusses the research findings on the performance of automated toxic comment classification following machine translation. We tested Google Perspective API first on comments from non-English Wikipedia talk pages in five languages, and then on their English translation (generated with Google's Cloud Translate API). In addition to giving baselines on the current performance of Perspective in five languages, this allows for comparison on how machine-translation alters the classification. We show that the level of disagreement between pre- and post-translation classification is heavily dependent on the language used. The comments come from a Kaggle dataset and we filter them to ensure monolingual comments with simple punctuation. Results show above 84% of the French, Italian and Spanish comments received the same class pre- and post-translation, while Portuguese and Russian performed the worst of the five languages tested, with F-scores below 0.6.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Encyclopedias;Internet;Online services;Machine translation;Toxic Comment Detection;Machine Translation;Perspective API</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10.1109/ICSPC57692.2023.10125815</t>
+          <t>10.1109/MASS56207.2022.00120</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Mareeswari, G, Dinesh, Erana Veerappa</t>
+          <t>Roy, James, Suresh, Siddhi, Elsayed, Mohamed, Rocca, Ronie, Dong, Ziqian, Gu, Huanying, Artan, N. Sertac</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019 International Conference on Computational Science and Computational Intelligence (CSCI)</t>
+          <t>2021 IEEE International Symposium on Technology and Society (ISTAS)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Acoustic and Visual Approaches to Adversarial Text Generation for Google Perspective</t>
+          <t>Protecting marginalized communities by mitigating discrimination in toxic language detection</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>355-360</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Google's Perspective API was introduced to help detect and classify toxic comments in online platforms. Adversarial machine learning attacks can decrease the effectiveness of Perspective in identifying toxic comments. We have shown in our previous study that by applying a semantic-based attack to a surrogate model trained with just 10,000 queries could produce adversarial examples which evade Perspective 25% of the time. In this paper, we propose two new approaches to generate adversarial text to evade Google's Perspective, one based on acoustic similarity and the other based on visual similarity. We tested the success rate of obfuscation in Google Perspective using the adversarial texts generated through the proposed approaches and showed that Google Perspective misclassified the generated texts 33% and 72.5% of the time for the visual-based and acoustic-based approaches, respectively. The study aims to broaden the understanding of adversarial text generation and to improve the robustness for online toxic comment detection for a safe online community.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>As the harms of online toxic language become more apparent, countering online toxic behavior is an essential application of natural language processing. The first step in managing toxic language risk is identification, but algorithmic approaches have themselves demonstrated bias. Texts containing some demographic identity terms such as gay or Black are more likely to be labeled as toxic in existing toxic language detection datasets. In many machine learning models introduced for toxic language detection, non-toxic comments containing minority and marginalized community-specific identity terms were given unreasonably high toxicity scores. To address the challenge of bias in toxic language detection, we propose a two-step training approach. A pretrained language model with a multitask learning objective will mitigate biases in the toxicity classifier prediction. Experiments demonstrate that jointly training the pretrained language model with a multitask objective can effectively mitigate the impacts of unintended biases and is more robust to model bias towards commonly-attacked identity groups presented in datasets without significantly hurting the model’s generalizability.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Training;Deep learning;Toxicology;Machine learning algorithms;Bit error rate;Predictive models;Natural language processing</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10.1109/CSCI49370.2019.00069</t>
+          <t>10.1109/ISTAS52410.2021.9629201</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Brown, Stephan, Milkov, Petar, Patel, Sameep, Looi, Yi Zen, Dong, Ziqian, Gu, Huanying, Artan, N. Sertac, Jain, Edwin</t>
+          <t>Faal, Farshid, Schmitt, Ketra, Yu, Jia Yuan</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2023 International Conference on Electrical, Computer and Communication Engineering (ECCE)</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sexual Harassment Detection using Machine Learning and Deep Learning Techniques for Bangla Text</t>
+          <t>A Review of Deep Learning Techniques for Multimodal Fake News and Harmful Languages Detection</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>76133-76153</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Harassment is a kind of act that annoys or upsets someone. Harassment can be classified into different categories. Sexual harassment is one of them. Sexual harassment is a type of harassment that involves the use of implicit or explicit sexual overtones, including the inappropriate and unwelcome promises of rewards in exchange for sexual favors. At present time, the technology has become more advance and spread all over the place. That gave the toxic people a huge opportunity to spread toxicity in online platforms. Because of the increasing amount Bangla text in different social media platforms, we also need to filter such kinds of offensive Bangla texts. The objective of this research is to detect sexual harassment from Bangla text and classify them by using machine learning and deep learning algorithms as well as prevents them. In the experiment, we combined TF-IDF with different machine learning algorithms like Naive Bayes, Decision Tree, Random Forest, AdaBoost, SGD, Logistic Regression, KNN, SVM and got accuracy of 74.9%, 75.6%, 70.0%, 70.1%, 75.2%, 75.7%, 65.2%, 76.5% respectively. Deep learning algorithms like CNN, LSTM, hybrid CNN-LSTM were also used and achieved accuracy of 89% for all of them which is comparatively better than machine learning techniques.</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
+          <t>The detection of fake news and harmful languages has become increasingly important in today’s digital age. As the prevalence of fake news and harmful languages continue to increase, so also is the correspondent negative impact on individuals and the society. Researchers are exploring new techniques to identify and combat these issues. Deep neural network (DNN) has found a wide range of applications in diverse problem domains including but not limited to fake news and harmful languages detection. Fake news and harmful languages are currently increasing online and the mode of dissemination of these contents is fast changing from the traditional unimodal to multiple data forms including texts, audios, images and videos. Multimedia contents containing fake news and harmful languages pose more complex challenges than unimodal contents. The choice and efficacy of the fusion methods of the multimedia contents is one of the most challenging. Our area of focus is multimodal techniques based on deep learning that combines diverse data forms to improve detection accuracy. In this review, we delve into the current state of research, the evolution of deep learning techniques that have been proposed for multimodal fake news and harmful languages detection and the state-of-the-art (SOTA) multimedia data fusion methods. In all cases, we discuss the prospects, relationships, breakthroughs and challenges.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Fake news;Deep learning;Reviews;Data integration;Streaming media;Natural language processing;Hate speech;Cyberbullying;Cyberattack;Fake news;abusive language;deep learning;hate speech;harmful languages;deepfake;offensive language;toxic language;online trolling;cyberbullying;cyberaggression;extremism;multimedia data fusion</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10.1109/ECCE57851.2023.10101522</t>
+          <t>10.1109/ACCESS.2024.3406258</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Islam, Mujahidul, Rahman, Maqsudur, Ahmed, Md Tofael, Muhammad Islam, Abu Zafor, Das, Dipankar, Hoque, Mohammed Moshiul</t>
+          <t>Festus Ayetiran, Eniafe, Özgöbek, Özlem</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2015 International Workshop on Network and Systems Support for Games (NetGames)</t>
+          <t>2024 International Conference on Trends in Quantum Computing and Emerging Business Technologies</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Toxicity detection in multiplayer online games</t>
+          <t>DeTox: A WebApp for Toxic Comment Detection and Moderation</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Social interactions in multiplayer online games are an essential feature for a growing number of players world-wide. However, this interaction between the players might lead to the emergence of undesired and unintended behavior, particularly if the game is designed to be highly competitive. Communication channels might be abused to harass and verbally assault other players, which negates the very purpose of entertainment games by creating a toxic player-community. By using a novel natural language processing framework, we detect profanity in chat-logs of a popular Multiplayer Online Battle Arena (MOBA) game and develop a method to classify toxic remarks. We show how toxicity is non-trivially linked to game success.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>The extensive adoption of internet platforms such as YouTube has transformed communication and information exchange, compelling people to share their opinions and participate in global conversations. Open communication can, however, also encourage the spread of offensive material, such as remarks that are derogatory or involve threats or hate speech. Such offensive remarks have the potential to damage users' mental health by fostering a hostile and unsafe environment that discourages meaningful relationships. We introduce DeTox, a web application that uses machine learning techniques to detect and eliminate harmful comments from YouTube videos in order to address this problem. For the purpose of classifying comments, DeTox uses ML and DL models, which guarantees precise identification of harmful content. The YouTube Data API is integrated by the system to retrieve comments from specific videos and eliminate any harmful remarks found. A detailed examination of the Toxic Comment Classification Challenge dataset, made available by Kaggle, was necessary for the development of DeTox. To find common patterns in hazardous language, preprocessing and examination of the data were done in order to examine the distribution of toxic and non-toxic remarks. FastAPI is a high-level Python web framework that makes web application development easier and is used by the DeTox online application. The application includes a user friendly interface for creating accounts, logging in, and selecting videos to moderate. The application also includes a user interface for reviewing toxic comments and choosing to remove or keep them. DeTox is a valuable tool for moderating comments on YouTube videos. The application utilizes a machine learning model to accurately identify toxic comments, and it provides a vi user-friendly interface for removing or keeping the comments. DeTox has the potential to make YouTube a more friendly and safe environment for users.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Video on demand;Web page design;Web pages;Machine learning;User interfaces;Solids;Real-time systems;Toxic comments;Machine Learning;API;YOUTUBE;BERT</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10.1109/NetGames.2015.7382991</t>
+          <t>10.1109/TQCEBT59414.2024.10545229</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Märtens, Marcus, Shen, Siqi, Iosup, Alexandru, Kuipers, Fernando</t>
+          <t>N, Prudhvish, G, Nagarajan, U, Bharath Kumar, Vardhan B, Harsha, L, Tharun Kumar</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2022 IEEE/ACM 44th International Conference on Software Engineering: Software Engineering in Society (ICSE-SEIS)</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Detecting Interpersonal Conflict in Issues and Code Review: Cross Pollinating Open- and Closed-Source Approaches</t>
+          <t>So-haTRed: A Novel Hybrid System for Turkish Hate Speech Detection in Social Media With Ensemble Deep Learning Improved by BERT and Clustered-Graph Networks</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>86252-86270</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Hate speech on online platforms, characterized by discriminatory language targeting individuals or groups, poses significant harm and necessitates robust detection methods for digital safety. Recognizing the ease with which individuals can engage in such speech online, our study delved into detecting Turkish hate speech using deep learning algorithms and natural language processing techniques. We developed innovative methodologies, including a k-means+textGCN classifier with BERT, which marked the first such attempt in the literature, and explored multiple vector representation techniques such as Term Frequency, Word2Vec, Doc2Vec, and GloVe. Additionally, we investigated various learning algorithms and natural language processing techniques, conducting thorough evaluations on three distinct Turkish hate speech datasets. Notably, our newly presented algorithm exhibited superior performance, achieving an impressive F1-score of 87.81% on the 9K dataset, showcasing advancements in hate speech detection and contributing to a safer online environment.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Hate speech;Social networking (online);Speech recognition;Deep learning;Cultural differences;Natural language processing;Classification algorithms;Graph neural networks;Convolutional neural networks;Graph convolutional network;hate speech detection;machine learning;natural language processing;toxic speech;Turkish social media</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2024.3415350</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Altinel, Ayse Berna, Baydogmus, Gozde Karatas, Sahin, Sema, Gurbuz, Mustafa Zahid</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>AMR-CNN: Abstract Meaning Representation with Convolution Neural Network for Toxic Content Detection</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>41-55</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Interpersonal conflict in code review, such as toxic language or an unnecessary pushback, is associated with negative outcomes such as stress and turnover. Automatic detection is one approach to prevent and mitigate interpersonal conflict. Two recent automatic detection approaches were developed in different settings: a toxicity detector using text analytics for open source issue discussions and a pushback detector using logs-based metrics for corporate code reviews. This paper tests how the toxicity detector and the pushback detector can be generalized beyond their respective contexts and discussion types, and how the combination of the two can help improve interpersonal conflict detection. The results reveal connections between the two concepts. LAY ABSTRACT Software engineers often communicate with one another on platforms that support tasks like discussing bugs and inspecting each others‘ code. Such discussions sometimes contain interpersonal conflict, which can lead to stress and abandonment. In this paper, we investigate how to automatically detect interpersonal conflict, both by analyzing the text of the what the engineers are saying and by analyzing the properties of that text.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>10.1145/3510458.3513019</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Qiu, Huilian Sophie, Vasilescu, Bogdan, Kästner, Christian, Egelman, Carolyn, Jaspan, Ciera, Murphy-Hill, Emerson</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2023 14th International Conference on Information, Intelligence, Systems &amp; Applications (IISA)</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Not-in-Perspective: Towards Shielding Google's Perspective API Against Adversarial Negation Attacks</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>677-692</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>The rise of cyberbullying in social media platforms involving toxic comments has escalated the need for effective ways to monitor and moderate online interactions. Existing solutions of automated toxicity detection systems, are based on a machine or deep learning algorithms. However, statistics-based solutions are generally prone to adversarial attacks that contain logic based modifications such as negation in phrases and sentences. In that regard, we present a set of formal reasoning-based methodologies that wrap around existing ma-chine learning toxicity detection systems. Acting as both pre-processing and post-processing steps, our formal reasoning wrapper helps alleviating the negation attack problems and significantly improves the accuracy and efficacy of toxicity scoring. We evaluate different variations of our wrapper on multiple machine learning models against a negation adver-sarial dataset. Experimental results highlight the improvement of hybrid (formal reasoning and machine-learning) methods against various purely statistical solutions.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
+          <t>Recognizing the offensive, abusive, and profanity of multimedia content on the web has been a challenge to keep the web environment for user's freedom of speech. As profanity filtering function has been developed and applied in text, audio, and video context in platforms such as social media, entertainment, and education, the number of methods to trick the web-based application also has been increased and became a new issue to be solved. Compared to commonly developed toxic content detection systems that use lexicon and keyword-based detection, this work tries to embrace a different approach by the meaning of the sentence. Meaning representation is a way to grasp the meaning of linguistic input. This work proposed a data-driven approach utilizing Abstract meaning Representation to extract the meaning of the online text content into a convolutional neural network to detect level profanity. This work implements the proposed model in two kinds of datasets from the Offensive Language Identification Dataset and other datasets from the Offensive Hate dataset merged with the Twitter Sentiment Analysis dataset. The results indicate that the proposed model performs effectively, and can achieve a satisfactory accuracy in recognizing the level of online text content toxicity.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Sentiment analysis;Toxicology;Social networking (online);Text recognition;Semantics;Speech recognition;Streaming media;Datacenter design;energy efficiency of datacenter;energy efficient metrics;datacenter carbon footprint computation</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10.1109/IISA59645.2023.10345930</t>
+          <t>10.13052/jwe1540-9589.2135</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Alexiou, Michail S., Mertoguno, J. Sukarno</t>
+          <t>Elbasani, Ermal, Kim, Jeong-Dong</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023 7th International Conference on I-SMAC (IoT in Social, Mobile, Analytics and Cloud) (I-SMAC)</t>
+          <t>2022 30th European Signal Processing Conference (EUSIPCO)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bullyproof Sentinel: Fortifying Online Spaces Against Bullying using Machine Learning</t>
+          <t>Toxic Speech and Speech Emotions: Investigations of Audio-based Modeling and Intercorrelations</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>825-830</t>
+          <t>115-119</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>In the current social media landscape, cyberbullying and online harassment remain pressing issues. Therefore, we planned a cyberbullying detection system for social media platforms. It can protect online communities from toxic behaviors and make a global impact by fostering a safer and more constructive online environment. We are mainly focused on developing an improved technique to detect bot profiles on social media, developing a mechanism to detect abusive content and sarcasm, developing a mechanism to detect defamatory comments on social media, and developing an effective method for detecting offensive and abusive content in image-format reviews on social media using machine learning algorithms.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Content moderation (CM) systems have become essential following the monumental increase in multimodal and online social platforms; and while increasingly published work focuses on text-based solutions, there is still limited work on audio-based methods. In this study we aim to explore relation-ships between speech emotions and toxic speech, as part of a CM scenario. We first investigate an appropriate framework for combining speech emotion recognition (SER) and audio-based CM models. We then investigate which emotional aspects (i.e., attribute, sentiment, or attitude) could contribute the most in facilitating audio-based CM recognition platforms. Our experi-mental results indicate that conventional shared feature encoder approaches may fail to capture additional discriminative features for boosting audio-based CM tasks while utilizing SER learning. We further investigate performance trade-offs of late-fusion frameworks for combining SER and CM information. We argue that these observations could be attributed to an emotionally-biased distribution in the CM scenario, concluding that SER could in deed play a role in content moderation frameworks, given added application-specific emotional information.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Emotion recognition;Training data;Europe;Speech recognition;Signal processing;Market research;Iron;speech emotion recognition;audio-based content moderation;toxic language detection;sentiment detection</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10.1109/I-SMAC58438.2023.10290419</t>
+          <t>10.23919/EUSIPCO55093.2022.9909856</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>M.M.T., Dilshani, T., Vinoshan, W.A.S.D., Wijesinghe, V., Jathushan, Senarathne, Amila, Gunasinghe, Amali</t>
+          <t>Lin, Wei-Cheng, Emmanouilidou, Dimitra</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020 Fifth International Conference on Fog and Mobile Edge Computing (FMEC)</t>
+          <t>2022 International Conference on Recent Progresses in Science, Engineering and Technology (ICRPSET)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Computational Offloading for CNN-based Toxic Comment Detection on a Smartwatch</t>
+          <t>Bangla Toxic Comment Classification and Severity Measure Using Deep Learning</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>284-288</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Smartwatches are an important enabler of the Social Internet of Things (SIoT). However, a successful transition to SIoT will require negotiating challenges specific to social networks. One current challenge for social networks is the detection and removal of toxic comments like insults, threats, or sexually explicit language. Many proposed techniques for detecting toxic comments use deep neural networks. Like Siri, a smartwatch can use a remote service to detect toxic comments, or alternatively run the neural network on the edge to detect such comments. This paper presents the results of an experiment comparing the tradeoffs in memory consumption, CPU load and response time between running a toxic text detection CNN on a Samsung S3 smartwatch, or running the CNN remotely using computational offloading. Sentences were processed either periodically or by using a Poisson distribution with periods of between 0.25 and 4 minutes. The results were that there was little difference in battery depletion between running the CNN locally on the watch or remotely running the CNN. However, using WIFI for offloading resulted in much better (&lt;; 1 second) response time than running the CNN on the watch (1-2 seconds). This suggests that computational offloading is a preferred solution in this instance.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Online users nowadays leave a lot of comments on various social networks, news websites, and forums. Certain comments are harmful or abusive. Since it is impractical to manually monitor so many comments, the majority of systems employ some form of a machine learning model to automatically identify harmful content. Much of the work has been done for the English language. However, only a few approaches have been taken to classify toxic comments in the Bangla language. A multi-label classification technique for Bangla comments is offered in the study that follows to classify the numerous toxic comments into six categories: toxic, severe toxic, obscene, threat, insult, and identity hate, and also measure the severity of these comments. For the experiment, we compiled a dataset of 12634 comments from TikTok and other sources. By incorporating knowledge from earlier proposed studies, the proposed classification model was developed utilizing deep learning techniques, specifically Long Short-Term Memory (LSTM) and Long Short-Term Memory-Convolutional Neural Networks (LSTM-CNNs), as well as word embeddings and obtained a maximum accuracy of 83.66% and 1.61 MSE loss for the severity measure.11https://github.com/imbodrulalam/Toxic-Comment-Detection-BN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Deep learning;Resistance;Knowledge engineering;Social networking (online);Neural networks;Loss measurement;Electrical resistance measurement;Bangla Toxic;Comment Classification;Toxic Severity Measure;Deep Learning;ML;NLP;LSTM;LSTM-CNN;CNN</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10.1109/FMEC49853.2020.9144770</t>
+          <t>10.1109/ICRPSET57982.2022.10188551</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Zualkernan, Imran A., Towheed, Mohammed</t>
+          <t>Haque, Naimul, Alam, Md. Bodrul, Towfiq, Abdullah Ath, Hossain, Mehorab</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022 International Conference on Computing, Communication, and Intelligent Systems (ICCCIS)</t>
+          <t>2022 IEEE/ACM International Conference on Advances in Social Networks Analysis and Mining (ASONAM)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Machine Learning-based Multilabel Toxic Comment Classification</t>
+          <t>A Machine Learning Approach to Identify Toxic Language in the Online Space</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1553,35 +1653,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>435-439</t>
+          <t>396-402</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>The emergence of social media marked the beginning of a revolution not just in the realm of digitalization but also in that of communication. In spite of the fact that social media platforms make it possible for anyone located anywhere in the world to express their viewpoints and interact with a large audience, social media has also evolved into a venue for cruel behaviour, offensive language, cyberbullying, personal assaults, and the use of profane language. To tackle this challenge, we are detecting the toxicity level in the Jigsaw dataset by Google, which consists of six different classes, including toxic, severe_toxic, obscene, threat, insult, and identity_hate. This is a multilabel classification in which one comment can fall under more than one class. We study the impact of Multinomial NB, Logistic Regression, and Support Vector Machine with TF-IDF on identifying toxicity in text. These models were trained using the training data and after training were tested on the test data provided in the dataset. Experimental results show that Logistic Regression trumps the other models in terms of accuracy and hamming loss.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>In this study, we trained three machine learning models to detect toxic language on social media. These models were trained using data from diverse sources to ensure that the models have a broad understanding of toxic language. Next, we evaluate the performance of our models on a dataset with samples of data from a large number of diverse online forums. The test dataset was annotated by three independent annotators. We also compared the performance of our models with Perspective API - a toxic language detection model created by Jigsaw and Google's Counter Abuse Technology team. The results showed that our classification models performed well on data from the domains they were trained on (Fl = 0.91, 0.91, &amp; 0.84, for the RoBERTa, BERT, &amp; SVM respectively), but the performance decreased when they were tested on annotated data from new domains (Fl = 0.80, 0.61, 0.49, &amp; 0.77, for the RoBERTa, BERT, SVM, &amp; Google perspective, respectively). Finally, we used the best-performing model on the test data (RoBERTa, ROC = 0.86) to examine the frequency (/proportion) of toxic language in 21 diverse forums. The results of these analyses showed that forums for general discussions with moderation (e.g., Alternate history) had much lower proportions of toxic language compared to those with minimal moderation (e.g., 8Kun). Although highlighting the complexity of detecting toxic language, our results show that model performance can be improved by using a diverse dataset when building new models. We conclude by discussing the implication of our findings and some directions for future research.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Support vector machines;Social networking (online);Bit error rate;Buildings;Machine learning;Data models;Frequency diversity</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10.1109/ICCCIS56430.2022.10037626</t>
+          <t>10.1109/ASONAM55673.2022.10068619</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Singh, Nitin Kumar, Chand, Satish</t>
+          <t>Kaati, Lisa, Shrestha, Amendra, Akrami, Nazar</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2021 IEEE 18th International Conference on Mobile Ad Hoc and Smart Systems (MASS)</t>
+          <t>2021 5th International Conference on Computing Methodologies and Communication (ICCMC)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Toxic Comment Detection: Analyzing the Combination of Text and Emojis</t>
+          <t>Toxic Speech Detection using Traditional Machine Learning Models and BERT and fastText Embedding with Deep Neural Networks</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1591,35 +1695,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>661-662</t>
+          <t>1254-1259</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Detection of toxicity in online commentary is a growing branch of Natural Language Processing (NLP). Most research in the area rely only on text-based toxic comment detection. We propose a machine learning approach for detecting the toxicity of a comment by analyzing both the text and the emojis within the comment. Our approach utilizes word embeddings derived from GloVe and emoji2vec to train a bidirectional Long Short Term Memory (biLSTM) model. We also create a new labeled dataset with comments with text and emojis. The accuracy score of our model on preliminary data is 0.911.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>The introduction of social media brought about a revolution in the world of digitalization and communication. These platforms were initially developed with a purpose of connecting people across the global boundaries while allowing them to express their views and opinions and learn from others' ideas. With the incoming of the pandemic, the usage of these sites has risen significantly be it by the businesses, educational institutions, students or general public. The increasing ubiquity of social media platforms like Twitter and Facebook has been an issue of major concern since a long time. Along with providing a way for enhanced communication, these platforms also allow internet users to voice their opinions which get circulated among the masses within seconds. Moreover, given the different backgrounds, believes, ethnicity and cultures that the users on these platforms come from, many of them tend to use mean, aggressive and hateful content during their discussions with people not hailing from a background similar to theirs. The amount of hate speech and offensive content has been increasing exponentially. Terms like "profane", "hate", and "offensive" are used interchangeably, and hence these have been classified under a broader category of "Toxic" content. A major part of our dataset focuses on conversations prevailing among the youth. After the preprocessing of this dataset using NLP and embeddings (Bert and fastText), a bunch of Machine Learning (LR, SVM, DT, RF, XGBoost) and Deep Learning algorithms (CNN, MLP, LSTM) have been performed, with CNN giving the best results.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Voice activity detection;Support vector machines;Radio frequency;Deep learning;Machine learning algorithms;Social networking (online);Pandemics;hate speech;offensive;toxic;classification;deep learning;natural language processing;twitter;facebook</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10.1109/MASS52906.2021.00097</t>
+          <t>10.1109/ICCMC51019.2021.9418395</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aquino, Michael, Ortiz, Yasiris, Rashid, Arif, Tumlin, Anne M., Artan, N. Sertac, Dong, Ziqian, Gu, Huanying</t>
+          <t>Malik, Pranav, Aggrawal, Aditi, Vishwakarma, Dinesh K.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022 IEEE 11th International Conference on Communication Systems and Network Technologies (CSNT)</t>
+          <t>2022 International Conference on Intelligent Systems and Computer Vision (ISCV)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>A Toxic Content Detection Technique in Sentimental Analysis with Convolution Neural Networks</t>
+          <t>Detection of toxicity in social media based on Natural Language Processing methods</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1629,377 +1737,413 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>398-402</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>In the recent time, the usage of various social media platforms has drastically increased which involves the positive or negative impact on human lives. One of the aspects is directly associated with comment/opinion which individual user/person passes through different social networking sites. This paper provides the discussion on different approaches to analyze classification and modelling techniques for detecting toxic comments using convolution neural networks (CNN). It also specifies algorithm based on outlier detection on given data stream that can evaluate the posted material on social platforms and check its positive and negative impact on the society.</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>Comments on important websites, such as popular news portals or social media platforms, are among the main ways of virtual interaction. Unfortunately, the behavior of users on these websites often becomes rude or disrespectful, by spreading toxic comments which can muddle the proper functioning of these sites. The aim of this research is to detect these toxic comments, and to find parts, toxic spans, of these comments to which toxicity can be attributed. Thus, we explored and compared various classifiers belonging to three categories “Machine Learning, Ensemble Learning and Deep Learning” and using different text representations. For detecting toxic spans in the comments, we applied an unsupervised method, we apply the Local Interpretable Model-Agnostic Explanations (LIME).The measures we used to evaluate our methods are accuracy, recall, and Fl-score. Our experiments showed that deep learning models performed unquestionably in the task of detecting toxic comments. The LSTM models with the Globe representation and LSTM with FastText were able to produce a higher F1 and accuracy compared to the other models used. For Toxic spans detction, the higher scores were obtained when combining LIME with classifier LSTM(GloVe) with an accuracy of 98% to identify the toxic spans.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Deep learning;Learning systems;Toxicology;Machine learning algorithms;Social networking (online);Transformers;Natural language processing;Toxic spans;Deep Learning;LIME;LSTM;Globe;fastText</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10.1109/CSNT54456.2022.9787588</t>
+          <t>10.1109/ISCV54655.2022.9806096</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Mishra, Varun, Tripathi, Monika</t>
+          <t>Taleb, Mohammed, Hamza, Alami, Zouitni, Mohamed, Burmani, Nabil, Lafkiar, Said, En-Nahnahi, Noureddine</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2021 29th European Signal Processing Conference (EUSIPCO)</t>
+          <t>2023 IEEE International Conference on Advanced Networks and Telecommunications Systems (ANTS)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Audio-based Toxic Language Classification using Self-attentive Convolutional Neural Network</t>
+          <t>Detecting toxic comments from highly skewed social media data</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>744-749</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The monumental increase in online social interaction activities such as social networking or online gaming is often riddled by hostile or aggressive behavior that can lead to unsolicited manifestations of cyberbullying or harassment. In this work, we develop an audio-based toxic language classifier using self-attentive Convolutional Neural Networks (CNNs). As definitions of hostility or toxicity can vary depending on the platform or application, in this work we take a more general approach for identifying toxic utterances, one that does not depend on individual lexicon terms, but rather considers the entire acoustical context of the short verse or utterance. In the proposed architecture, the self-attention mechanism captures the temporal dependency of the verbal content by summarizing all the relevant information from different regions of the utterance. The proposed audio-based self-attentive CNN model is evaluated on a public and an internal dataset and achieves 75% accuracy, 79% precision, and 80 % recall in identifying toxic speech recordings.</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>A user’s online social media data, to a considerable extent, provides insight into the user’s activity. Screening user-generated data for negative content has a wide range of applications, like background checks of an employee and spotting of terror elements. Researchers have focused on identifying toxic text in social media by exploiting deep-learning models in conjunction with pre-trained language models. However, the availability of labelled toxic text is limited. In this work, we apply data augmentation techniques to address the problem of imbalanced training data. The augmented labelled data is used to fine-tune an ensemble. The ensemble consists of one linear classifier and three sequence classifiers, Bi-RNN (Bi-directional Recurrent Neural Networks), Bi-GRU (Bi-directional Gated Recurrent Unit), and Bi-LSTM (Bi-directional Long-Short Term Memory). We use BERT (Bi-directional Encoder Representations from Transformers) as our pre-trained language model. We also experiment with various text preprocessing techniques on the training data and how it affects classification performance. We compare our best-identified model with other toxic text detection frameworks available in the literature.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Recurrent neural networks;Social networking (online);Computational modeling;Text categorization;Training data;Text detection;Bidirectional control;toxic text detection;sentiment analysis;deep learning;social media;BERT</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10.23919/EUSIPCO54536.2021.9616001</t>
+          <t>10.1109/ANTS59832.2023.10469000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Yousefi, Midia, Emmanouilidou, Dimitra</t>
+          <t>Datta, Abhradeep, Kumar, B Monish, Singh Sairam, Ashok</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2019 6th International Conference on Soft Computing &amp; Machine Intelligence (ISCMI)</t>
+          <t>2024 International Conference on Information Management and Technology (ICIMTech)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Automatic Detection of Toxic South African Tweets Using Support Vector Machines with N-Gram Features</t>
+          <t>A Hybrid Deep Learning Techniques Using BERT and CNN for Toxic Comments Classification</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>126-130</t>
+          <t>393-398</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Toxic South African corpus is not available to detect toxic tweets such as offensive, hate, bullying and violent tweets. But there are some offensive and hate speech corpora, mostly in English, which have been used to detect toxic tweets. This paper focuses on automatic detection of toxic South African tweets using a reliable English corpus. The review of text classification models has shown that Support Vector Machines have very often outperformed other classic machine learning algorithms, while word and character n-gram features have performed well with varying prediction performances in different contexts. This paper therefore evaluated the performance of different parameter settings of Support Vector Machines and n-gram features for detection of toxic South African tweets, with a view to hybridize the best among the classifiers. Different combinations of word and character n- gram features were used for the classification. The results show that the Support Vector Machine classifier with set of unigram and bigram as well as set of character n-gram with length sizes from 3 to 7 perform best. By combining the classifiers, the accuracy and F-measure improve from the initial highest Accuracy and F-Measure scores of 0.9085 and 0.94, respectively to 0.9095 and 0.95. The comparison of our results with the performance of previous work on the English corpus shows that our model is reliable.</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>Cyberbullying is a pervasive issue across all forms of media, affecting various demographics and platforms indiscriminately. From social media networks to online forums and comment sections on news sites, the harmful behavior of cyberbullying manifests in many forms, including harassment, threats, and demeaning comments. This ubiquity underscores the need for effective detection mechanisms. This paper explores the identification of toxic traits in online comments using advanced hybrid models, specifically BERT-CNN and BERT-LSTM. The research methodology involved constructing and configuring multiple layers within these models to optimize their ability to detect harmful content. For the BERT-CNN model, BERT's powerful language understanding capabilities are combined with CNN's strength in feature extraction through convolutional layers, capturing spatial hierarchies of features. In the BERT-LSTM model, BERT is integrated with LSTM layers to leverage their ability to learn long-term dependencies and sequential patterns in text. Various configurations of these models were tested, including adj ustments in the batch sizes and the length of the word tokens, to enhance performance in identifying toxic language. The best model which is BERT-CNN using the configuration 256 as the unit and 32 as the batch size achieved 94.48% accuracy in detecting toxic comments. The result from the model indicates that by harnessing BERT's contextual embeddings and the respective benefits of CNN's and LSTM's processing capabilities, it is possible to significantly reduce the frequency of cyberbullying through effective detection, ultimately fostering safer online environments across different media platforms.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Adaptation models;Visualization;Accuracy;Transfer learning;Cyberbullying;Media;Feature extraction;Information management;Convolutional neural networks;Long short term memory;toxic comment detection;BERT;LSTM;CNN;cyberbullying</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10.1109/ISCMI47871.2019.9004298</t>
+          <t>10.1109/ICIMTech63123.2024.10780934</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Oriola, Oluwafemi, Kotzé, Eduan</t>
+          <t>Jessica, Adelia, Sugiarto, Migel Sastrawan, Jerry, Achmad, Said, Sutoyo, Rhio</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020 IEEE Sixth International Conference on Multimedia Big Data (BigMM)</t>
+          <t>2023 Second International Conference on Informatics (ICI)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Towards a Safer Conversation Space: Detection of Toxic Content in Social Media (Student Consortium)</t>
+          <t>Toxic Comment Analyzer using BERT: A Deep Learning Approach for Toxicity Detection</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>297-301</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>With content on social media turning increasingly toxic, it has attracted intensive research in the Natural Language Processing domain to detect aggression, hate, profanity, insult, cyberbullying and other personal attacks. Unlike most of the work in toxic content detection where the nature of toxicity is determined, we treat the detection of toxic content as a binary classification task. Here, we have explored Support Vector Machine, Boosting and deep neural networks for classification. We have trained the model on twitter datasets. With a goal of better predictive performance, our approach uses a majority voting ensemble to aggregate the predictions of individual classifiers.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>With the good hike of social and communication platforms, a significant increase in the volume of user-generated content is produced. Unfortunately, this surge in online interactions has also led to an increase in toxic and offensive comments. Toxic comments not only contribute to a negative online environment but also have the potential to harm individuals and communities. Consequently, the development of automated methods for detecting toxic comments has become imperative. In this research paper, we propose a toxic comment analyzer using BERT to address this issue. Our approach demonstrates the effectiveness of leveraging pre-trained language models for identifying toxic language, with promising results of 97% accuracy on benchmark datasets.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Deep learning;Analytical models;Toxicology;User-generated content;Buildings;Surges;Informatics;Toxicity Detection;BERT;Toxic Comment Analyzer</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10.1109/BigMM50055.2020.00052</t>
+          <t>10.1109/ICI60088.2023.10421672</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Sahana, B.S., Sandhya, G., Tanuja, R.S., Ellur, Sushma, Ajina, A.</t>
+          <t>Singh, Richa, Kashyap, Rekha, Sharma, Vikrant</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2023 8th International Conference on Control and Robotics Engineering (ICCRE)</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Toxicity Detection Using State of the Art Natural Language Methodologies</t>
+          <t>A Survey on Continuous Object Tracking and Boundary Detection Schemes in IoT Assisted Wireless Sensor Networks</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>16-20</t>
+          <t>126324-126336</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>In this paper, the studies carried out to detect objectionable expressions in any text will be explained. Experiments were performed with Sentence transformers, supervised machine learning algorithms, and Bert transformer architecture trained in English, and the results were observed. To prepare the dataset used in the experiments, the natural language processing and machine learning methodologies of the toxic and non-toxic contents in the labeled text data obtained from the Kaggle platform are explained, and then the methods and performances of the models trained using this dataset are summarized in this paper.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>With the new age of data innovation, the Internet of Things (IoT) proliferation has drawn enormous thought and has applied to help applications in different fields i.e., natural assurance, military observing, and industrial applications. WSNs are the essential segment of IoT for monitoring as well as tracking. The most preeminent applications provide confinement and identification of continuous objects i.e. wildfire, toxic gas, bio synthetics concoctions, and so forth. In the case of continuous objects such as fire and toxic gases are detected to identify the boundary of damage and alert teams for rescue efforts. It is also helpful in identifying safe paths for rescue. We have investigated various existing surveys that carried out different concepts associated with continuous object tracking and find out the deficit of boundary detection of object. In order to replete the present cleft of analysis, we have inspected various current state-of-the-art works on boundary detection of a continuous object that has yet not been added to the current writing. This paper presents an extensive overview of different continuous object tracking schemes which involve energy efficiency, boundary detection, communication, data aggregation, and network structural design in literature with the aid of featuring taxonomy. We summarized, compared, and classified these schemes along with their analysis and performance. Moreover, for further evaluation mechanism, strengths and weaknesses of these schemes are presented. Finally, various state-of-the-art open research challenges are identified. Moreover, there is a need to overcome these challenges through novel and reliable arrangements by the researchers.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Target tracking;Object tracking;Wireless sensor networks;Sensors;Monitoring;Energy efficiency;Object detection;Boundary detection;continuous object;network life;object tracking;WSN</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10.1109/ICCRE57112.2023.10155587</t>
+          <t>10.1109/ACCESS.2021.3110203</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Keskin, Enes Faruk, Açikgöz, Erkut, Dogan, Gulustan</t>
+          <t>Ullah, Ata, Ishaq, Nagina, Azeem, Muhammad, Ashraf, Humaira, Jhanjhi, N. Z., Humayun, Mamoona, Tabbakh, Thamer A., Almusaylim, Zahrah A.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022 13th International Congress on Advanced Applied Informatics Winter (IIAI-AAI-Winter)</t>
+          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Combining Pre-Trained Language Models and Features for Offensive Language Detection</t>
+          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>5-10</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nowadays, people often express their abusive and offensive thoughts to others on social media easier. The abusive and toxic comments hurt others seriously. Therefore those abusive and toxic comments should be detected properly through natural language processing. In this paper, we focus on two types of features in offensive language: word-level and sentence-level fea-tures. We use lexicon-based and standard bag-of-words features as the word level. We introduce BERT-based and DeepMoji-based features as the sentence level. We apply the four features to a machine learning approach: support vector machines. We evaluate the method using the combinations of four features with a dataset, Curious Cat. The best F1 score was generated by the method with all features. This result shows the effectiveness of our proposed method. In addition, the experimental result indicates that DeepMoji generated from Twitter data is better than BERT which is generated from written language, for an offensive language detection task about social media data.</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Toxicology;Codes;Detectors;Oral communication;Transformers;Software;Product design;toxicity;span detection;software engineering;natural language processing;explainability</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10.1109/IIAI-AAI-Winter58034.2022.00012</t>
+          <t>10.1109/ESEM56168.2023.10304855</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Li, Zhenming, Shimada, Kazutaka</t>
+          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020 19th IEEE International Conference on Machine Learning and Applications (ICMLA)</t>
+          <t>2023 International Joint Conference on Neural Networks (IJCNN)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Toxic Comment Classification For French Online Comments</t>
+          <t>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1010-1014</t>
+          <t>1-8</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>In this paper, we propose a supervised approach for toxic comment classification for French language. We choose a set of features proposed for toxic comment detection for English and use it for French toxic comment detection. Our approach is based on N-gram features, linguistic features and a dictionary of insulting words and expressions. We obtain a F1-score of 78% with N-grams, linguistic and lexicon features, a precision of 87% with N-gram features and a recall of 83% with N-gram, linguistic and lexicon features. Classifier used are linear SVM and decision tree.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>This paper proposes a novelty approach to mitigate the negative transfer problem. In the field of machine learning, the common strategy is to apply the Single-Task Learning approach in order to train a supervised model to solve a specific task. Training a robust model requires a lot of data and a significant amount of computational resources, making this solution unfeasible in cases where data are unavailable or expensive to gather. Therefore another solution, based on the sharing of information between tasks, has been developed: Multi-task Learning (MTL). Despite the recent developments regarding MTL, the problem of negative transfer has still to be solved. Negative transfer is a phenomenon that occurs when noisy information is shared between tasks, resulting in a drop in performance. This paper proposes a new approach to mitigate the negative transfer problem based on the task awareness concept. The proposed approach results in diminishing the negative transfer together with an improvement of performance over classic MTL solution. Moreover, the proposed approach has been implemented in two unified architectures to detect Sexism, Hate Speech, and Toxic Language in text comments. The proposed architectures set a new state-of-the-art both in EXIST-2021 and HatEval-2019 benchmarks.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Training;Computational modeling;Hate speech;Neural networks;Computer architecture;Machine learning;Multitasking;Multi-task Learning;Negative Transfer;Natural Language Processing;Deep Learning</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>10.1109/ICMLA51294.2020.00164</t>
+          <t>10.1109/IJCNN54540.2023.10191347</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Boudjani, Nadira, Haralambous, Yannis, Lyubareva, Inna</t>
+          <t>de Paula, Angel Felipe Magnossão, Rosso, Paolo, Spina, Damiano</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2021 IEEE International Symposium on Technology and Society (ISTAS)</t>
+          <t>2022 International Conference on Electronic Systems and Intelligent Computing (ICESIC)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Protecting marginalized communities by mitigating discrimination in toxic language detection</t>
+          <t>Toxic Speech Classification using Machine Learning Algorithms</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>257-263</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>As the harms of online toxic language become more apparent, countering online toxic behavior is an essential application of natural language processing. The first step in managing toxic language risk is identification, but algorithmic approaches have themselves demonstrated bias. Texts containing some demographic identity terms such as gay or Black are more likely to be labeled as toxic in existing toxic language detection datasets. In many machine learning models introduced for toxic language detection, non-toxic comments containing minority and marginalized community-specific identity terms were given unreasonably high toxicity scores. To address the challenge of bias in toxic language detection, we propose a two-step training approach. A pretrained language model with a multitask learning objective will mitigate biases in the toxicity classifier prediction. Experiments demonstrate that jointly training the pretrained language model with a multitask objective can effectively mitigate the impacts of unintended biases and is more robust to model bias towards commonly-attacked identity groups presented in datasets without significantly hurting the model’s generalizability.</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>In today's era of online social media platforms, there has been a massive surge in the propagation of toxic content speech. They provide many betterments. However, persons with considerable differences in their viewpoints have contributed to an increase in lethality of people in internet posts and debates.. With the outbreak of the pandemic, corporations, educational institutions, students, and the general public have all increased their usage in web sites. For a long time, the growing popularity of internet platforms like Twitter and Facebook has been a major cause of anxiety. These platforms not only allow for improved communication, but they also allow the users to express their thoughts, which are quickly shared with the rest of the world. Furthermore, given the diversity of these platforms' users' histories, beliefs, race, and customs, many of them choose to use disparaging, abusive, and antagonistic language while interacting with those who do not share their background. This online toxicity has been increasing exponentially by advancements provided by these social media platforms in this emerging world under the cloud of anonymity. Unlike manually, this problem can be solved using Machine Learning. Phrases like “Obscene”,”Toxic”, “Severe Toxic”,”Threat”, “Insult”,”Identity Hate” are used mutually and hence have been incorporated under “Toxic” speech content. As a result, it is vital to recognise and eliminate toxic speech from internet - based social media networks naturally. The numerous varieties of Machine Learning approaches, such as traditional Machine Learning, ensemble approach are explored in this paper. We use a corpus collected from online platform twitter to do binary and multi-class classification and investigate two techniques.: (a) a method which consists in extracting of word embeddings and then generating the model; (b)Improving the existing models- RF, DT, VC, LR, KNN. Any other sort of social media comment can be analyzed using the proposed methods. By this, we developed a model that can classify given comments into different categories of toxicity with greater precision, recall, and accuracy score.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Machine learning algorithms;Social networking (online);Blogs;Machine learning;Content management;Information integrity;Behavioral sciences;Fake news;Cultural differences;Social Media Platforms;Machine Learning;Phrases;Ensemble Learning;Word embeddings;toxic and non-toxic classification</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>10.1109/ISTAS52410.2021.9629201</t>
+          <t>10.1109/ICESIC53714.2022.9783475</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Faal, Farshid, Schmitt, Ketra, Yu, Jia Yuan</t>
+          <t>Sumanth, Pabba, Samiuddin, Syed, Jamal, K., Domakonda, Srikanth, Shivani, Pathi</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022 IEEE 19th International Conference on Mobile Ad Hoc and Smart Systems (MASS)</t>
+          <t>2024 IEEE International Conference on Smart Power Control and Renewable Energy (ICSPCRE)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Investigating the Effect of Machine-Translation on Automated Classification of Toxic Comments</t>
+          <t>Detection of Hate Speech and Offensive Language Using Machine Learning and Deep Learning for Multi-Class Tweets</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>764-769</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>This paper discusses the research findings on the performance of automated toxic comment classification following machine translation. We tested Google Perspective API first on comments from non-English Wikipedia talk pages in five languages, and then on their English translation (generated with Google's Cloud Translate API). In addition to giving baselines on the current performance of Perspective in five languages, this allows for comparison on how machine-translation alters the classification. We show that the level of disagreement between pre- and post-translation classification is heavily dependent on the language used. The comments come from a Kaggle dataset and we filter them to ensure monolingual comments with simple punctuation. Results show above 84% of the French, Italian and Spanish comments received the same class pre- and post-translation, while Portuguese and Russian performed the worst of the five languages tested, with F-scores below 0.6.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>Nowadays, every single person is indulged in social media, and because of its hidden characteristics, people are free to express their views and thoughts and expressing their views freely is their right. Expressing their thoughts and views on dynamic news puts a positive impact in economy, as it shows how people relate to each other. Yet, there are times when individuals throw toxic comments or accusing them on the grounds of caste, religion, gender identity, ethnicity etc. is a harassment of the given freedom. Due to this, hate and offensive language has become the serious issue, in modern society, which leads to damaging the people's peace, their human rights as well as creating an inequality in society. In this research paper, the dataset has been taken from the Kaggle source, sentiment analysis will be done on the detection of hate speech and offensive language, and the classification will be done on the following three labels: Hate Speech, Offensive Language and Neither.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Deep learning;Sentiment analysis;Renewable energy sources;Analytical models;Tongue;Social networking (online);Hate speech;Hate Speech;Offensive Language;Sentiment Analysis;Natural Language Processing;Machine Learning;Feature Extraction</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>10.1109/MASS56207.2022.00120</t>
+          <t>10.1109/ICSPCRE62303.2024.10675191</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Roy, James, Suresh, Siddhi, Elsayed, Mohamed, Rocca, Ronie, Dong, Ziqian, Gu, Huanying, Artan, N. Sertac</t>
+          <t>Garg, Bhavika, Bhardwaj, Aditya, Jain, Tarun</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022 International Conference on Electronic Systems and Intelligent Computing (ICESIC)</t>
+          <t>2024 2nd International Conference on Sustainable Computing and Smart Systems (ICSCSS)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Toxic Speech Classification using Machine Learning Algorithms</t>
+          <t>CivilityCheck: An Integrated Natural Language Processing and Machine Learning Framework to Detect Hateful and Offensive Language</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>257-263</t>
+          <t>985-988</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>In today's era of online social media platforms, there has been a massive surge in the propagation of toxic content speech. They provide many betterments. However, persons with considerable differences in their viewpoints have contributed to an increase in lethality of people in internet posts and debates.. With the outbreak of the pandemic, corporations, educational institutions, students, and the general public have all increased their usage in web sites. For a long time, the growing popularity of internet platforms like Twitter and Facebook has been a major cause of anxiety. These platforms not only allow for improved communication, but they also allow the users to express their thoughts, which are quickly shared with the rest of the world. Furthermore, given the diversity of these platforms' users' histories, beliefs, race, and customs, many of them choose to use disparaging, abusive, and antagonistic language while interacting with those who do not share their background. This online toxicity has been increasing exponentially by advancements provided by these social media platforms in this emerging world under the cloud of anonymity. Unlike manually, this problem can be solved using Machine Learning. Phrases like “Obscene”,”Toxic”, “Severe Toxic”,”Threat”, “Insult”,”Identity Hate” are used mutually and hence have been incorporated under “Toxic” speech content. As a result, it is vital to recognise and eliminate toxic speech from internet - based social media networks naturally. The numerous varieties of Machine Learning approaches, such as traditional Machine Learning, ensemble approach are explored in this paper. We use a corpus collected from online platform twitter to do binary and multi-class classification and investigate two techniques.: (a) a method which consists in extracting of word embeddings and then generating the model; (b)Improving the existing models- RF, DT, VC, LR, KNN. Any other sort of social media comment can be analyzed using the proposed methods. By this, we developed a model that can classify given comments into different categories of toxicity with greater precision, recall, and accuracy score.</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>The proliferation of hate speech and offensive language in online communities has escalated into a significant societal concern, prompting an urgent demand for robust tools capable of automatically identifying and addressing such content. Introducing CivilityCheck, a comprehensive framework that seamlessly integrates Natural Language Processing (NLP) and Machine Learning (ML) methodologies to uncover instances of hate speech and offensiveness within online discourse. Utilizing logistic regression models trained on Twitter datasets, CivilityCheck demonstrates remarkable efficacy, achieving a notable test accuracy of 95.4%. Moreover, the proposed framework extends its functionality into a user-friendly web browser extension, facilitating real-time analysis of social media content to cultivate a safer online environment. By endowing users with the capability to promptly identify and address toxic language, CivilityCheck contributes significantly to the propagation of civility and respect in digital interactions. This innovative solution stands at the forefront of combating online toxicity, offering a potent means to foster constructive dialogue and mitigate the harmful effects of coarse and regressive language usage on digital platforms.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Logistic regression;Accuracy;Toxicology;Social networking (online);Hate speech;Refining;Machine learning;Hate Speech;Offensive Language;Natural Language Processing;Machine Learning;Logistic Regression;Real-time Analysis</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>10.1109/ICESIC53714.2022.9783475</t>
+          <t>10.1109/ICSCSS60660.2024.10625318</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Sumanth, Pabba, Samiuddin, Syed, Jamal, K., Domakonda, Srikanth, Shivani, Pathi</t>
+          <t>Bonthu, Bhulakshmi, Abhay, Potluri, Gottipati, Likitha Sai, Vamsi, Gangisetty Krishna</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022 IEEE/ACM International Conference on Advances in Social Networks Analysis and Mining (ASONAM)</t>
+          <t>2022 IEEE 21st International Conference on Cognitive Informatics &amp; Cognitive Computing (ICCI*CC)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A Machine Learning Approach to Identify Toxic Language in the Online Space</t>
+          <t>Arabic hate speech detection system based on AraBERT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2009,78 +2153,86 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>396-402</t>
+          <t>208-213</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>In this study, we trained three machine learning models to detect toxic language on social media. These models were trained using data from diverse sources to ensure that the models have a broad understanding of toxic language. Next, we evaluate the performance of our models on a dataset with samples of data from a large number of diverse online forums. The test dataset was annotated by three independent annotators. We also compared the performance of our models with Perspective API - a toxic language detection model created by Jigsaw and Google's Counter Abuse Technology team. The results showed that our classification models performed well on data from the domains they were trained on (Fl = 0.91, 0.91, &amp; 0.84, for the RoBERTa, BERT, &amp; SVM respectively), but the performance decreased when they were tested on annotated data from new domains (Fl = 0.80, 0.61, 0.49, &amp; 0.77, for the RoBERTa, BERT, SVM, &amp; Google perspective, respectively). Finally, we used the best-performing model on the test data (RoBERTa, ROC = 0.86) to examine the frequency (/proportion) of toxic language in 21 diverse forums. The results of these analyses showed that forums for general discussions with moderation (e.g., Alternate history) had much lower proportions of toxic language compared to those with minimal moderation (e.g., 8Kun). Although highlighting the complexity of detecting toxic language, our results show that model performance can be improved by using a diverse dataset when building new models. We conclude by discussing the implication of our findings and some directions for future research.</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>Tunisia has entered a phase freedom of speech with access to social media since the Jasmine Revolution in 2011. Toxic contents such as abusive and hateful speeches have become omnipresent on Tunisian social media. Considering the side effects of these toxic contents on the psychology of users, it is necessary to detect them automatically. The dialect of Tunisian is underrepresented. As a consequence, there is not enough data set. In this paper, we present the data collection process with the aim of having a Tunisian reference dataset, to evaluate different models of hate speech and abuse detection. We also present our neural network model based on AraBERT. Our experimental results on our dataset shows that the AraBERT model performs better with an F1 score of 0.99.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Social networking (online);Computational modeling;Hate speech;Neural networks;Psychology;Data collection;Data models;Tunisian dialect;Hate speech;Social media;Arabert</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>10.1109/ASONAM55673.2022.10068619</t>
+          <t>10.1109/ICCICC57084.2022.10101577</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Kaati, Lisa, Shrestha, Amendra, Akrami, Nazar</t>
+          <t>Salomon, Palé Ollo, Kechaou, Zied, Wali, Ali</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022 30th European Signal Processing Conference (EUSIPCO)</t>
+          <t>2015 IEEE International Symposium on Signal Processing and Information Technology (ISSPIT)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Toxic Speech and Speech Emotions: Investigations of Audio-based Modeling and Intercorrelations</t>
+          <t>Implementation of Adaboost for the detection of the toxic response behaviour of zebrafish (Danio Rerio)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>115-119</t>
+          <t>466-471</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Content moderation (CM) systems have become essential following the monumental increase in multimodal and online social platforms; and while increasingly published work focuses on text-based solutions, there is still limited work on audio-based methods. In this study we aim to explore relation-ships between speech emotions and toxic speech, as part of a CM scenario. We first investigate an appropriate framework for combining speech emotion recognition (SER) and audio-based CM models. We then investigate which emotional aspects (i.e., attribute, sentiment, or attitude) could contribute the most in facilitating audio-based CM recognition platforms. Our experi-mental results indicate that conventional shared feature encoder approaches may fail to capture additional discriminative features for boosting audio-based CM tasks while utilizing SER learning. We further investigate performance trade-offs of late-fusion frameworks for combining SER and CM information. We argue that these observations could be attributed to an emotionally-biased distribution in the CM scenario, concluding that SER could in deed play a role in content moderation frameworks, given added application-specific emotional information.</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>The movement behaviour of zebrafish (Danio rerio) schools was observed in response to treatment with copper at a 24 h half-lethal concentration. The behavioural characteristic parameters, which were continuously recorded into a SQL (Structured Query Language) Server database by a digital image processing system both before and after the treatment, had significant changes. Subsequently, the Adaboost algorithm was implemented to solve the data vector classification problem in normal and abnormal water. Furthermore, to evaluate the accuracy and timeliness of the classifiers, Adaboost was compared with a back-propagation neural network (BPNN) and support vector machine (SVM). The results clearly demonstrated that the prediction accuracy of the Gentle Adaboost and Real Adaboost algorithms were over 93%, which was better than the Modest Adaboost, the BPNN and the SVM. In addition, the time requirement was also acceptable. In conclusion, Adaboost is a useful computational method for the classification of water quality.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Signal processing;Information technology;zebrafish;movement behaviour;Adaboost;Classification and Regression Trees (CART)</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10.23919/EUSIPCO55093.2022.9909856</t>
+          <t>10.1109/ISSPIT.2015.7394381</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Lin, Wei-Cheng, Emmanouilidou, Dimitra</t>
+          <t>Du, Qiuju, Xu, Jianyu, Ge, Yinghui, Wang, Chunlin</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022 International Conference on Recent Progresses in Science, Engineering and Technology (ICRPSET)</t>
+          <t>2020 International Multi-Conference on: “Organization of Knowledge and Advanced Technologies” (OCTA)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bangla Toxic Comment Classification and Severity Measure Using Deep Learning</t>
+          <t>BERT and fastText Embeddings for Automatic Detection of Toxic Speech</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2090,30 +2242,34 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Online users nowadays leave a lot of comments on various social networks, news websites, and forums. Certain comments are harmful or abusive. Since it is impractical to manually monitor so many comments, the majority of systems employ some form of a machine learning model to automatically identify harmful content. Much of the work has been done for the English language. However, only a few approaches have been taken to classify toxic comments in the Bangla language. A multi-label classification technique for Bangla comments is offered in the study that follows to classify the numerous toxic comments into six categories: toxic, severe toxic, obscene, threat, insult, and identity hate, and also measure the severity of these comments. For the experiment, we compiled a dataset of 12634 comments from TikTok and other sources. By incorporating knowledge from earlier proposed studies, the proposed classification model was developed utilizing deep learning techniques, specifically Long Short-Term Memory (LSTM) and Long Short-Term Memory-Convolutional Neural Networks (LSTM-CNNs), as well as word embeddings and obtained a maximum accuracy of 83.66% and 1.61 MSE loss for the severity measure.11https://github.com/imbodrulalam/Toxic-Comment-Detection-BN</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>With the expansion of Internet usage, catering to the dissemination of thoughts and expressions of an individual, there has been an immense increase in the spread of online hate speech. Social media, community forums, discussion platforms are few examples of common playground of online discussions where people are freely allowed to communicate. However, the freedom of speech may be misused by some people by arguing aggressively, offending others and spreading verbal violence. As there is no clear distinction between the terms offensive, abusive, hate and toxic speech, in this paper we consider the above mentioned terms as toxic speech. In many countries, online toxic speech is punishable by the law. Thus, it is important to automatically detect and remove toxic speech from online medias. Through this work, we propose automatic classification of toxic speech using embedding representations of words and deep-learning techniques. We perform binary and multi-class classification using a Twitter corpus and study two approaches: (a) a method which consists in extracting of word embeddings and then using a DNN classifier; (b) fine-tuning the pre-trained BERT model. We observed that BERT fine-tuning performed much better. Proposed methodology can be used for any other type of social media comments.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bit error rate;Task analysis;Adaptation models;Data models;Twitter;Natural language processing;Natural language processing;classification;deep neural network;hate speech</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10.1109/ICRPSET57982.2022.10188551</t>
+          <t>10.1109/OCTA49274.2020.9151853</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Haque, Naimul, Alam, Md. Bodrul, Towfiq, Abdullah Ath, Hossain, Mehorab</t>
+          <t>D'Sa, Ashwin Geet, Illina, Irina, Fohr, Dominique</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2021 5th International Conference on Computing Methodologies and Communication (ICCMC)</t>
+          <t>2021 12th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Toxic Speech Detection using Traditional Machine Learning Models and BERT and fastText Embedding with Deep Neural Networks</t>
+          <t>Detox: NLP Based Classification And Euphemistic Text Substitution For Toxic Comments</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2123,35 +2279,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1254-1259</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>The introduction of social media brought about a revolution in the world of digitalization and communication. These platforms were initially developed with a purpose of connecting people across the global boundaries while allowing them to express their views and opinions and learn from others' ideas. With the incoming of the pandemic, the usage of these sites has risen significantly be it by the businesses, educational institutions, students or general public. The increasing ubiquity of social media platforms like Twitter and Facebook has been an issue of major concern since a long time. Along with providing a way for enhanced communication, these platforms also allow internet users to voice their opinions which get circulated among the masses within seconds. Moreover, given the different backgrounds, believes, ethnicity and cultures that the users on these platforms come from, many of them tend to use mean, aggressive and hateful content during their discussions with people not hailing from a background similar to theirs. The amount of hate speech and offensive content has been increasing exponentially. Terms like "profane", "hate", and "offensive" are used interchangeably, and hence these have been classified under a broader category of "Toxic" content. A major part of our dataset focuses on conversations prevailing among the youth. After the preprocessing of this dataset using NLP and embeddings (Bert and fastText), a bunch of Machine Learning (LR, SVM, DT, RF, XGBoost) and Deep Learning algorithms (CNN, MLP, LSTM) have been performed, with CNN giving the best results.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>The challenges of eliminating inadvertent hate online have grown more and more observable. With rapid increase in access to technology worldwide, the number of people present on the internet has increased exponentially. The rise in hateful and toxic content on the internet is many fold. Present solutions are largely based on censorship and removal of such content and can be the cause of mental disturbance to the concerned auditor. Biases of manual moderation can thwart the efforts taken to prevent the presence of hate speech on online platforms. However, posts that convey important meanings also fall prey to such systems, which should be avoided. Such systems fail to educate their authors what should have been done differently. Additionally, a system that combines detection and substitution algorithms is largely absent. A euphemistic substitution approach could prove to be more effective. In this project we have developed a classifier using Natural Language Processing and Machine Learning to detect toxic texts and provide euphemisms to erudite the user of words that can replace the toxicity present in the original texts. The classifier informs the online platform about the toxicity of the texts so they restrict such content to available on its platform. The euphemisms are aimed to make the user aware of the toxicity in the text and suggest replacements, which, if used, can make the text inoffensive. We aim to achieve self realisation on the user's part so we can target the issue at its source.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Toxicology;Machine learning algorithms;Manuals;Machine learning;Natural language processing;Censorship;Classification algorithms</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10.1109/ICCMC51019.2021.9418395</t>
+          <t>10.1109/ICCCNT51525.2021.9579846</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Malik, Pranav, Aggrawal, Aditi, Vishwakarma, Dinesh K.</t>
+          <t>Jain, Somil, Kaushik, Garima, Prabhu, Pulin, Godbole, Anand</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022 International Conference on Intelligent Systems and Computer Vision (ISCV)</t>
+          <t>2022 IEEE 26th International Conference on Intelligent Engineering Systems (INES)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Detection of toxicity in social media based on Natural Language Processing methods</t>
+          <t>Abusive Language Detection on Social Media using Bidirectional Long-Short Term Memory</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2161,107 +2321,123 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>000243-000248</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Comments on important websites, such as popular news portals or social media platforms, are among the main ways of virtual interaction. Unfortunately, the behavior of users on these websites often becomes rude or disrespectful, by spreading toxic comments which can muddle the proper functioning of these sites. The aim of this research is to detect these toxic comments, and to find parts, toxic spans, of these comments to which toxicity can be attributed. Thus, we explored and compared various classifiers belonging to three categories “Machine Learning, Ensemble Learning and Deep Learning” and using different text representations. For detecting toxic spans in the comments, we applied an unsupervised method, we apply the Local Interpretable Model-Agnostic Explanations (LIME).The measures we used to evaluate our methods are accuracy, recall, and Fl-score. Our experiments showed that deep learning models performed unquestionably in the task of detecting toxic comments. The LSTM models with the Globe representation and LSTM with FastText were able to produce a higher F1 and accuracy compared to the other models used. For Toxic spans detction, the higher scores were obtained when combining LIME with classifier LSTM(GloVe) with an accuracy of 98% to identify the toxic spans.</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>Social media has allowed anybody to share their opinions and engage with the general public, but it has also become a platform for harsh language, cruel conduct, personal assaults, and cyberbullying. However, determining whether a comment or a post is violent or not remains difficult and time-consuming, and most social media businesses are always seeking better ways to do so. This may be automated to assist in detecting nasty comments, promote user safety, preserve websites, and enhance online dialogue. The toxic comment dataset is utilized in this research to train a deep learning model that categorizes comments into the following categories: severe toxic, toxic, threat, obscene, insult, and identity hatred. To categorize comments, use a bidirectional long short-term memory cell (Bi-LSTM).</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Deep learning;Training;Toxicology;Text categorization;Neural networks;Cyberbullying;Data models;Social media;Bidirectional LSTM;Abusive Language Detection;deep learning</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.1109/ISCV54655.2022.9806096</t>
+          <t>10.1109/INES56734.2022.9922628</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Taleb, Mohammed, Hamza, Alami, Zouitni, Mohamed, Burmani, Nabil, Lafkiar, Said, En-Nahnahi, Noureddine</t>
+          <t>Salehgohari, Ali, Mirhosseini, Mina, Tabrizchi, Hamed, Koczy, Annamaria Varkonyi</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2023 5th International Conference on Cybernetics and Intelligent System (ICORIS)</t>
+          <t>2020 Fourth International Conference On Intelligent Computing in Data Sciences (ICDS)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Audio-based Indonesia Toxic Language Classification using Bidirectional Long Short Term Memory</t>
+          <t>Automated NER, Sentiment Analysis and Toxic Comment Classification for a Goal-Oriented Chatbot</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Users are able to connect with one another via web-based internet technologies through social media platforms like Twitter. On these platforms, hate speech has become a troubling problem, when people or groups are targeted because of characteristics like color, ethnicity, gender, nationality, religion, or organization. Such information is spreading quickly as a result of the practice of using hate speech to gain fast notoriety. 80% of cybercrime prosecutions in Indonesia involve hate speech and defamation on social media, despite the fact that there are regulations like the UU ITE Law, Chapter 28, Number 2, that forbid inciting hatred or enmity on the basis of race, religion, or ethnicity. This research paper explores a novel approach to audio-based toxic language classification in the Indonesian language, leveraging key techniques including Bidirectional Long Short-Term Memory (BiLSTM), speech recognition, and natural language processing. The study focuses on identifying toxic language using a balanced dataset of 5000 entries, equally divided between toxic and non-toxic categories. This dataset was compiled from diverse sources such as NusaCrowd, Kaggle, and others, and was subsequently cleansed of emojis and symbols to maintain a plain text environment. Utilizing audio-based content analysis, the methodology involved the transcription and classification of audio data, yielding an accuracy of 95.2%, precision of 96.4%, recall of 93.2% and F1 score of 94.8% in the detection of toxic speech. The implications of this research extend beyond the academic sphere of toxic language detection, holding significant real-world application potential in areas such as content moderation for Indonesian social media platforms and toxic language detection in customer service interactions. Thus, this study addresses a critical issue of toxic language proliferation in Indonesian online communities and social media platforms, further contributing to the development of healthier digital environments in the future.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>This paper focuses on improving the conversational ability of a robo receptionist. In particular, we seek to improve the ability to retrieve information specific to an organization through the design of a named-entity-recognition module. We accentuate the chatbot's sensitivity to a user's comment and the tone of a conversation through designing a fine-grained sentiment analysis module. And, finally, we have ensured the output of the self-learning chatbot is positive and pleasant through a toxic-comment classifier that improves upon a dictionary-based profanity detection module. Improving the core components of the chatbot, viz., the named entity recognition, sentiment analysis and toxic comment classification modules, reflect as an improvement in the performance of the chatbot. The performance of these modules in comparison with predecessor approaches and the code to reproduce the results have also been included to facilitate further improvements in these directions.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Training;Sentiment analysis;Sensitivity;Computational modeling;Organizations;Chatbot;Data models;named-entity-recognition;fine-grained sentiment analysis;toxic comment recognition;FLAIR embedding</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10.1109/ICORIS60118.2023.10352242</t>
+          <t>10.1109/ICDS50568.2020.9268680</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Luckianto, Marvin, Addison, Renaldi, Vincent, Vincent, Muliono, Yohan, Prasetyo, Simeon Yuda</t>
+          <t>Murali, Sourabh Raja, Rangreji, Sanketh, Vinay, Siddhanth, Srinivasa, Gowri</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2022 International Conference on Data Science and Its Applications (ICoDSA)</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>A Survey on Continuous Object Tracking and Boundary Detection Schemes in IoT Assisted Wireless Sensor Networks</t>
+          <t>Separating Hate Speech from Abusive Language on Indonesian Twitter</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>126324-126336</t>
+          <t>187-191</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>With the new age of data innovation, the Internet of Things (IoT) proliferation has drawn enormous thought and has applied to help applications in different fields i.e., natural assurance, military observing, and industrial applications. WSNs are the essential segment of IoT for monitoring as well as tracking. The most preeminent applications provide confinement and identification of continuous objects i.e. wildfire, toxic gas, bio synthetics concoctions, and so forth. In the case of continuous objects such as fire and toxic gases are detected to identify the boundary of damage and alert teams for rescue efforts. It is also helpful in identifying safe paths for rescue. We have investigated various existing surveys that carried out different concepts associated with continuous object tracking and find out the deficit of boundary detection of object. In order to replete the present cleft of analysis, we have inspected various current state-of-the-art works on boundary detection of a continuous object that has yet not been added to the current writing. This paper presents an extensive overview of different continuous object tracking schemes which involve energy efficiency, boundary detection, communication, data aggregation, and network structural design in literature with the aid of featuring taxonomy. We summarized, compared, and classified these schemes along with their analysis and performance. Moreover, for further evaluation mechanism, strengths and weaknesses of these schemes are presented. Finally, various state-of-the-art open research challenges are identified. Moreover, there is a need to overcome these challenges through novel and reliable arrangements by the researchers.</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>Social media is an effective tool for connecting with people and distributing information. However, many people often use social media to spread hate speech and abusive languages. In contrast to hate speech, abusive languages are frequently used as jokes with no purpose of offending individuals or groups, even though they may contain profanities. As a result, the distinction between hate speech and abusive language is often blurred. In many cases, individuals who spread hate speech may be prosecuted as it has legal implications. Previous research has focused on binary classification of hate speech and normal tweets. This study aims to classify hate speech, abusive language, and normal messages on Indonesian Twitter. Several machine learning models, such as logistic regression and BERT models, are utilized to accomplish text classification tasks. The model's performance is assessed using the F1-Score evaluation metric. The results show that BERT models outperform other models in terms of F1-Score, with the BERT-indobenchmark model, which was pretrained on social media text data, achieving the highest F1-Score of 85.59. This also demonstrates that pretraining the BERT model using social media data improves the classification model significantly. Developing such classification model that can distinguish between hate speech and abusive language would help individuals in preventing the spread of hate speech that has legal implications.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Social networking (online);Law;Hate speech;Blogs;Bit error rate;Text categorization;Machine learning;hate speech;abusive;twitter;separating</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10.1109/ACCESS.2021.3110203</t>
+          <t>10.1109/ICoDSA55874.2022.9862850</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Ullah, Ata, Ishaq, Nagina, Azeem, Muhammad, Ashraf, Humaira, Jhanjhi, N. Z., Humayun, Mamoona, Tabbakh, Thamer A., Almusaylim, Zahrah A.</t>
+          <t>Ibrahim, Muhammad Amien, Tri Maretta Sagala, Noviyanti, Arifin, Samsul, Nariswari, Rinda, Murnaka, Nerru Pranuta, Prasetyo, Puguh Wahyu</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2021 IEEE 23rd Conference on Business Informatics (CBI)</t>
+          <t>2021 XXIV International Conference on Soft Computing and Measurements (SCM)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Share of Toxic Comments among Different Topics: The Case of Russian Social Networks</t>
+          <t>Detection of Low-toxic Texts in Similar Sets Using a Modified XLM-RoBERTa Neural Network and Toxicity Confidence Parameters</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2271,111 +2447,119 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>65-70</t>
+          <t>161-164</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>With the widespread use of online social networks, it is becoming more and more difficult to monitor and analyse all the user-generated content. Toxic speech in online conversations should be treated as a matter with serious social gravity, since it may result in both negative impacts on mental health and violent actions in the physical world. Within this study, we identified the share of toxic comments among different topics in Russian-language comments from social network Pikabu. Firstly, for toxic comments classification, we manually labelled the training dataset and fine-tuned several language models. To provide further toxic comments studies with strong classification baselines, we made our pre-trained publicly available to the research community. Secondly, we proposed an approach for topics labelling based on six major objective and observable dimensions for objective wellbeing measurement used by intergovernmental and government organisations. Lastly, we conducted an analysis of Pikabu data. We found that the largest share of toxic comments was under posts about politics, while security and socioeconomic topics ranked second and third, and the rest of the topics showed roughly the same values.</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>The article considers the problem of classifying low-toxic texts using a modified neural network of the XLM-RoBERTa transformer architecture, trained on highly toxic texts. Comments from the School of Pedagogical Design at the University of 20.35 were used as kits for identifying low-toxic texts. The network was not retrained on low-toxic texts. Instead, the classification of low-toxic texts was carried out by varying the toxicity confidence parameter. An approximation dependence of the number of low-toxic texts on the parameter of toxicity reliability was constructed and a threshold value of the toxicity reliability parameter was obtained, at which the quality of the classification of low-toxic texts is maximal. The hypothesis of the similarity of the toxicity of homogeneous information resources was also formulated and confirmed.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Analytical models;Toxicology;Computational modeling;Neural networks;Information services;Computer architecture;Reliability engineering;classification;deep learning;internet content;toxicity;XLM-RoBERTa</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10.1109/CBI52690.2021.10056</t>
+          <t>10.1109/SCM52931.2021.9507117</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Smetanin, Sergey, Komarov, Mikhail</t>
+          <t>Seliverstov, Yaroslav A., Komissarov, Andrew A., Poslovskaia, Eleonora D., Lesovodskaya, Alina A., Podtikhov, Artur V.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
+          <t>2024 9th IEEE International Conference on Smart Cloud (SmartCloud)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
+          <t>Automated Functionality and Security Evaluation of Large Language Models</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>37-41</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>Natural language processing (NLP) is rapidly developing. A series of Large Language Models (LLMs) have emerged, represented by ChatGPT, which have made significant breakthroughs in natural language understanding and generation, enabling fluent dialogue with humans, understanding human intentions, and completing complex tasks. However, in addition to the fairness and toxicity of traditional language models, some new problems, including hallucination, have also emerged in LLMs, making them hard to use. Evaluating LLMs manually is challenging due to subjectivity and inefficiency. In this paper, we focused on the fuzzy matching, toxicity detection, and hallucination detection in the evaluation of LLMs automatically, and fine-tune the Mixtral-8x7B Model, which can be deployed in private cloud environment, and prove the effectiveness of our method through experiments.</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Cloud computing;Toxicology;Accuracy;Graphics processing units;Chatbots;Security;Task analysis;LLM;evaluation;fuzzy matching;toxicity;hallucination</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>10.1109/ESEM56168.2023.10304855</t>
+          <t>10.1109/SmartCloud62736.2024.00014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
+          <t>Ding, Minjie, Shen, Ying, Chen, Mingang</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2022 IEEE 21st International Conference on Cognitive Informatics &amp; Cognitive Computing (ICCI*CC)</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Arabic hate speech detection system based on AraBERT</t>
+          <t>Toxic Fake News Detection and Classification for Combating COVID-19 Misinformation</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>208-213</t>
+          <t>5101-5118</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Tunisia has entered a phase freedom of speech with access to social media since the Jasmine Revolution in 2011. Toxic contents such as abusive and hateful speeches have become omnipresent on Tunisian social media. Considering the side effects of these toxic contents on the psychology of users, it is necessary to detect them automatically. The dialect of Tunisian is underrepresented. As a consequence, there is not enough data set. In this paper, we present the data collection process with the aim of having a Tunisian reference dataset, to evaluate different models of hate speech and abuse detection. We also present our neural network model based on AraBERT. Our experimental results on our dataset shows that the AraBERT model performs better with an F1 score of 0.99.</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>The emergence of COVID-19 has led to a surge in fake news on social media, with toxic fake news having adverse effects on individuals, society, and governments. Detecting toxic fake news is crucial, but little prior research has been done in this area. This study aims to address this gap and identify toxic fake news to save time spent on examining nontoxic fake news. To achieve this, multiple datasets were collected from different online social networking platforms such as Facebook and Twitter. The latest samples were obtained by collecting data based on the topmost keywords extracted from the existing datasets. The instances were then labeled as toxic/nontoxic using toxicity analysis, and traditional machine-learning (ML) techniques such as linear support vector machine (SVM), conventional random forest (RF), and transformer-based ML techniques such as bidirectional encoder representations from transformers (BERT) were employed to design a toxic-fake news detection (FND) and classification system. As per the experiments, the linear SVM method outperformed BERT SVM, RF, and BERT RF with an accuracy of 92% and $F_{1}$ -score, $F_{2}$ -score, and $F_{0.5}$ -score of 95%, 85%, and 87%, respectively. Upon comparison, the proposed approach has either suppressed or achieved results very close to the state-of-the-art techniques in the literature by recording the best values on performance metrics such as accuracy, F1-score, precision, and recall for linear SVM. Overall, the proposed methods have shown promising results and urge further research to restrain toxic fake news. In contrast to prior research, the presented methodology leverages toxicity-oriented attributes and BERT-based sequence representations to discern toxic counterfeit news articles from nontoxic ones across social media platforms.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Fake news;COVID-19;Social networking (online);Toxicology;Support vector machines;Radio frequency;Transformers;Bidirectional encoder representations from transformers (BERT);emotion extraction;fake news;machine learning (ML);natural language processing (NLP);toxicity analysis</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10.1109/ICCICC57084.2022.10101577</t>
+          <t>10.1109/TCSS.2023.3276764</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Salomon, Palé Ollo, Kechaou, Zied, Wali, Ali</t>
+          <t>Wani, Mudasir Ahmad, ELAffendi, Mohammad, Shakil, Kashish Ara, Abuhaimed, Ibrahem Mohammed, Nayyar, Anand, Hussain, Amir, El-Latif, Ahmed A. Abd</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020 International Multi-Conference on: “Organization of Knowledge and Advanced Technologies” (OCTA)</t>
+          <t>2020 IEEE International Conference on Electronics, Computing and Communication Technologies (CONECCT)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BERT and fastText Embeddings for Automatic Detection of Toxic Speech</t>
+          <t>Machine Learning Technology Using Thick Film Gas Sensor Toxic Liquid Detection For Industrial IOT Application</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2385,35 +2569,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>With the expansion of Internet usage, catering to the dissemination of thoughts and expressions of an individual, there has been an immense increase in the spread of online hate speech. Social media, community forums, discussion platforms are few examples of common playground of online discussions where people are freely allowed to communicate. However, the freedom of speech may be misused by some people by arguing aggressively, offending others and spreading verbal violence. As there is no clear distinction between the terms offensive, abusive, hate and toxic speech, in this paper we consider the above mentioned terms as toxic speech. In many countries, online toxic speech is punishable by the law. Thus, it is important to automatically detect and remove toxic speech from online medias. Through this work, we propose automatic classification of toxic speech using embedding representations of words and deep-learning techniques. We perform binary and multi-class classification using a Twitter corpus and study two approaches: (a) a method which consists in extracting of word embeddings and then using a DNN classifier; (b) fine-tuning the pre-trained BERT model. We observed that BERT fine-tuning performed much better. Proposed methodology can be used for any other type of social media comments.</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>Right now proposed paper has been made to investigate the affectability, reaction of SnO2 based Pd-doped thick gas sensor for hazardous liquid as for example Vodka, LPG and Whisky identification. 1" × 1" alumina matrix material was exploited prevarication of thick film gas sensor. It comprises of a gas touchy layer SnO2 doped with 1% Pd, a conjoin of electrodes underneath the gas detecting layer filling in as a contact cushion for the sensor. Likewise, a radiator component is additionally planned on the posterior of the substrate The affectability of the sensor has been learned at various Pd-doped concentration (1 % Pd doped) at a constants temperature 3000C upon exposure Vodka, LPG &amp; Whisky. In this paper, experimental results simulate in Anaconda software with the Spyder tool (Spyder 3) tool using the python programming language. Python programming is written in machine learning clustering techniques and simulated results match the experimental results with different temperatures. Industrial internet of things predominantly exploited in the frame of reference for industry 4.0. In the proposed paper, IIoT was exploited for identifying hazardous liquid.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sensitivity;Gas detectors;Temperature sensors;Thick films;Temperature measurement;Monitoring;Artificial intelligence;Thick film gas sensor;Sensitivity;Clustering;IIOT</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>10.1109/OCTA49274.2020.9151853</t>
+          <t>10.1109/CONECCT50063.2020.9198535</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>D'Sa, Ashwin Geet, Illina, Irina, Fohr, Dominique</t>
+          <t>Gupta, Amit, Ravi Kumar, Vuddagiri</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2021 XXIV International Conference on Soft Computing and Measurements (SCM)</t>
+          <t>2021 3rd International Conference on Advances in Computing, Communication Control and Networking (ICAC3N)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Detection of Low-toxic Texts in Similar Sets Using a Modified XLM-RoBERTa Neural Network and Toxicity Confidence Parameters</t>
+          <t>Quora Based Insincere Content Classification &amp; Detection for Social Media using Machine Learning</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2423,715 +2611,787 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>161-164</t>
+          <t>294-299</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>The article considers the problem of classifying low-toxic texts using a modified neural network of the XLM-RoBERTa transformer architecture, trained on highly toxic texts. Comments from the School of Pedagogical Design at the University of 20.35 were used as kits for identifying low-toxic texts. The network was not retrained on low-toxic texts. Instead, the classification of low-toxic texts was carried out by varying the toxicity confidence parameter. An approximation dependence of the number of low-toxic texts on the parameter of toxicity reliability was constructed and a threshold value of the toxicity reliability parameter was obtained, at which the quality of the classification of low-toxic texts is maximal. The hypothesis of the similarity of the toxicity of homogeneous information resources was also formulated and confirmed.</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>Internet, being a source of infinite amount of information that people use and exchange daily, is not protected from the abusive, inappropriate and toxic content. Sometimes people deteriorate the content on social media which negatively impacts the society and it may have awful results. Regarding this toxic content over social media we examined the data set of Quora, which is a question answer website, to filter the inappropriate questions which not only affects the society but also degrade the quality and the standard of such websites. This paper analysed tokenization and vectorization which are considered to be some of the best technique in natural language processing and machine learning algorithms such as Naive Bayes, Logistic Regression, Support Vector Machine and Random Forest. On the basis of accuracy, F1-score and confusion matrix we evaluated that SVM performs best result followed by Logistic Regression. The count vectorizer techniques resulted better than other text vectorizer techniques. The experimental results showed that SVM worked better by achieving an accuracy of 0.899 for the best case.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Support vector machines;Machine learning algorithms;Social networking (online);Process control;Information filters;Tokenization;Internet;Machine Learning;Natural language processing;Text Vectorization;Logistic Regression;SVM;Random Forest</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>10.1109/SCM52931.2021.9507117</t>
+          <t>10.1109/ICAC3N53548.2021.9725450</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Seliverstov, Yaroslav A., Komissarov, Andrew A., Poslovskaia, Eleonora D., Lesovodskaya, Alina A., Podtikhov, Artur V.</t>
+          <t>Kumar, Rakesh, Kumar, Ashwani, Gupta, Meenu, Chauhan, Bhaskar</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022 International Conference on Data Science and Its Applications (ICoDSA)</t>
+          <t>2024 IEEE International Conference on Interdisciplinary Approaches in Technology and Management for Social Innovation (IATMSI)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Separating Hate Speech from Abusive Language on Indonesian Twitter</t>
+          <t>SecureComment: Safeguarding Online Discussions with Intelligent Toxic Comment Filtering</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>187-191</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Social media is an effective tool for connecting with people and distributing information. However, many people often use social media to spread hate speech and abusive languages. In contrast to hate speech, abusive languages are frequently used as jokes with no purpose of offending individuals or groups, even though they may contain profanities. As a result, the distinction between hate speech and abusive language is often blurred. In many cases, individuals who spread hate speech may be prosecuted as it has legal implications. Previous research has focused on binary classification of hate speech and normal tweets. This study aims to classify hate speech, abusive language, and normal messages on Indonesian Twitter. Several machine learning models, such as logistic regression and BERT models, are utilized to accomplish text classification tasks. The model's performance is assessed using the F1-Score evaluation metric. The results show that BERT models outperform other models in terms of F1-Score, with the BERT-indobenchmark model, which was pretrained on social media text data, achieving the highest F1-Score of 85.59. This also demonstrates that pretraining the BERT model using social media data improves the classification model significantly. Developing such classification model that can distinguish between hate speech and abusive language would help individuals in preventing the spread of hate speech that has legal implications.</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>Toxic comments, such as hate speech and abuse, are a widespread issue online, disrupting healthy conversation and user safety. Identifying and filtering these comments is crucial for ensuring respectful online communications. The primary challenge arises from the need to obtain accurate detection while addressing emerging tactics and balancing between false positives and negatives. This concern affects user interactions and platform credibility and raises legal and ethical risks. Therefore, this study examines the effectiveness of numerous machine-learning models and implements an ensemble method for analyzing and classifying toxic comments. We analyze the effectiveness of various algorithms using evaluation metrics like precision, recall, accuracy, and F1-score. Ensemble methods are utilized to combine the capabilities of several models, enhancing the classification of toxic comments. The study aspires to deliver insights into the comparative performance of various machine learning models in classifying toxic comments accurately and the advantages of ensemble methods in enhancing classification accuracy.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Measurement;Technological innovation;Ethics;Machine learning algorithms;Filtering;Law;Hate speech;Toxic comments;Machine learning;Ensemble model;Classification;Twitter dataset</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10.1109/ICoDSA55874.2022.9862850</t>
+          <t>10.1109/IATMSI60426.2024.10503420</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Ibrahim, Muhammad Amien, Tri Maretta Sagala, Noviyanti, Arifin, Samsul, Nariswari, Rinda, Murnaka, Nerru Pranuta, Prasetyo, Puguh Wahyu</t>
+          <t>Rayani, Reddy Kowshik, Tekula, Samhitha, Vattigunta, Subhash Kovid, Kovi, Naveen Kumar, Namitha, Kalakunnath</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020 IEEE International Conference on Electronics, Computing and Communication Technologies (CONECCT)</t>
+          <t>2021 IEEE 2nd International Conference on Pattern Recognition and Machine Learning (PRML)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Machine Learning Technology Using Thick Film Gas Sensor Toxic Liquid Detection For Industrial IOT Application</t>
+          <t>Multi-task CNN for Abusive Language Detection</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>286-291</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Right now proposed paper has been made to investigate the affectability, reaction of SnO2 based Pd-doped thick gas sensor for hazardous liquid as for example Vodka, LPG and Whisky identification. 1" × 1" alumina matrix material was exploited prevarication of thick film gas sensor. It comprises of a gas touchy layer SnO2 doped with 1% Pd, a conjoin of electrodes underneath the gas detecting layer filling in as a contact cushion for the sensor. Likewise, a radiator component is additionally planned on the posterior of the substrate The affectability of the sensor has been learned at various Pd-doped concentration (1 % Pd doped) at a constants temperature 3000C upon exposure Vodka, LPG &amp; Whisky. In this paper, experimental results simulate in Anaconda software with the Spyder tool (Spyder 3) tool using the python programming language. Python programming is written in machine learning clustering techniques and simulated results match the experimental results with different temperatures. Industrial internet of things predominantly exploited in the frame of reference for industry 4.0. In the proposed paper, IIoT was exploited for identifying hazardous liquid.</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>Abusive language detection serves to ensure a compelling user experience via high-quality content. Different sub-categories of abusive language are closely related, with most aggressive comments containing personal attacks and toxic content and vice versa. We set a multi-task learning framework to detect different types of abusive content in a mental health forum to address this feature. Each classification task is treated as a subclass in a multi-class classification problem, with shared knowledge used for three related tasks: attack, aggression, and toxicity. Experimental results on three sub-types of Wikipedia abusive language datasets show that our framework can improve the net F1-score by 7.1%, 5.6%, and 2.7% in the attack, aggressive, and toxicity detection. Our experiments identified multi tasking framework act as an effective method in abusive language detection.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Toxicology;Natural languages;Mental health;Machine learning;Encyclopedias;Feature extraction;User experience;Natural language processing;multi-task learning;text classification;datasets;neural networks;gaze detection</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10.1109/CONECCT50063.2020.9198535</t>
+          <t>10.1109/PRML52754.2021.9520387</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Gupta, Amit, Ravi Kumar, Vuddagiri</t>
+          <t>Zhao, Qingqing, Xiao, Yue, Long, Yunfei</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2020 Fourth International Conference On Intelligent Computing in Data Sciences (ICDS)</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Automated NER, Sentiment Analysis and Toxic Comment Classification for a Goal-Oriented Chatbot</t>
+          <t>Model-Agnostic Meta-Learning for Multilingual Hate Speech Detection</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>1086-1095</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>This paper focuses on improving the conversational ability of a robo receptionist. In particular, we seek to improve the ability to retrieve information specific to an organization through the design of a named-entity-recognition module. We accentuate the chatbot's sensitivity to a user's comment and the tone of a conversation through designing a fine-grained sentiment analysis module. And, finally, we have ensured the output of the self-learning chatbot is positive and pleasant through a toxic-comment classifier that improves upon a dictionary-based profanity detection module. Improving the core components of the chatbot, viz., the named entity recognition, sentiment analysis and toxic comment classification modules, reflect as an improvement in the performance of the chatbot. The performance of these modules in comparison with predecessor approaches and the code to reproduce the results have also been included to facilitate further improvements in these directions.</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>Hate speech in social media is a growing phenomenon, and detecting such toxic content has recently gained significant traction in the research community. Existing studies have explored fine-tuning language models (LMs) to perform hate speech detection, and these solutions have yielded significant performance. However, most of these studies are limited to detecting hate speech only in English, neglecting the bulk of hateful content that is generated in other languages, particularly in low-resource languages. Developing a classifier that captures hate speech and nuances in a low-resource language with limited data is extremely challenging. To fill the research gap, we propose HateMAML, a model-agnostic meta-learning (MAML)-based framework that effectively performs hate speech detection in low-resource languages. HateMAML utilizes a self-supervision strategy to overcome the limitation of data scarcity and produces better LM initialization for fast adaptation to an unseen target language (i.e., cross-lingual transfer) or other hate speech datasets (i.e., domain generalization). Extensive experiments are conducted on five datasets across eight different low-resource languages. The results show that HateMAML outperforms the state-of-the-art baselines by more than 3% in the cross-domain multilingual transfer setting. We also conduct ablation studies to analyze the characteristics of HateMAML.</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Hate speech;Training;Data models;Training data;Adaptation models;Predictive models;Linguistics;Metalearning;Cross-lingual transfer;hate speech detection;meta-learning</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10.1109/ICDS50568.2020.9268680</t>
+          <t>10.1109/TCSS.2023.3252401</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Murali, Sourabh Raja, Rangreji, Sanketh, Vinay, Siddhanth, Srinivasa, Gowri</t>
+          <t>Awal, Md Rabiul, Lee, Roy Ka-Wei, Tanwar, Eshaan, Garg, Tanmay, Chakraborty, Tanmoy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021 3rd International Conference on Advances in Computing, Communication Control and Networking (ICAC3N)</t>
+          <t>2024 IEEE 4th International Conference on Applied Electromagnetics, Signal Processing, &amp; Communication (AESPC)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Quora Based Insincere Content Classification &amp; Detection for Social Media using Machine Learning</t>
+          <t>Real-Time Hate Speech Recognition Along with Educational Feedback and Automatic Reporting</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>294-299</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Internet, being a source of infinite amount of information that people use and exchange daily, is not protected from the abusive, inappropriate and toxic content. Sometimes people deteriorate the content on social media which negatively impacts the society and it may have awful results. Regarding this toxic content over social media we examined the data set of Quora, which is a question answer website, to filter the inappropriate questions which not only affects the society but also degrade the quality and the standard of such websites. This paper analysed tokenization and vectorization which are considered to be some of the best technique in natural language processing and machine learning algorithms such as Naive Bayes, Logistic Regression, Support Vector Machine and Random Forest. On the basis of accuracy, F1-score and confusion matrix we evaluated that SVM performs best result followed by Logistic Regression. The count vectorizer techniques resulted better than other text vectorizer techniques. The experimental results showed that SVM worked better by achieving an accuracy of 0.899 for the best case.</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>In today's digital era, the rise of toxicity, discrimination, and harm on online communication platforms has become a significant concern, necessitating effective moderation strategies. Existing methods for hate speech detection often lack real-time capabilities and fail to provide constructive feedback to users. Natural Language Processing (NLP) is used to identify the intent of the speech and bidirectional Long Short Term Memory (LSTM) machine learning algorithm classifies text into multiple hate speech categories. The designed system also displays charts, providing a detailed assessment and understanding of the nature and severity of the content. With a user-friendly interface, users receive real-time educational feedback on the nature and impact of different types of hate speech, promoting awareness and discouraging toxic behavior.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Toxicology;Machine learning algorithms;Hate speech;Bidirectional long short term memory;Speech recognition;Real-time systems;Natural language processing;Speech processing;Hate Speech Detection;Natural Language Processing;Bidirectional LSTM;Hate Classification;Real-time educational Feedback</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10.1109/ICAC3N53548.2021.9725450</t>
+          <t>10.1109/AESPC63931.2024.10872383</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kumar, Rakesh, Kumar, Ashwani, Gupta, Meenu, Chauhan, Bhaskar</t>
+          <t>Panda, Abhilasha, Anand, Abhijeet, Bebortta, Sujit, Sekhar Tripathy, Subhranshu, Mukherjee, Tanmay</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022 7th International Conference on Computer Science and Engineering (UBMK)</t>
+          <t>2024 International Conference on Electrical Electronics and Computing Technologies (ICEECT)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Linguistic-based Data Augmentation Approach for Offensive Language Detection</t>
+          <t>Toxicity Unveiled: Understanding Online Conversations</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The massive amount of data generated by social media possess a great deal of toxic content that lead to serious content filtering problems including hate speech, cyberbullying and insulting. Offensive content even without profanity may result in psychological and physical harms to, particularly children and sensitive people. As of 2022, Turkey houses 7th largest Twitter community among all countries in terms of the active user size exceeding 16 million users, which represents a high diversity of people considering its population. That said, there is a growing need for a comprehensive and high-quality dataset in Turkish that can be utilized in development of NLP models for robust detection of offensive language usage in social media. Related studies in literature have mostly focused on small, synthetic and label-imbalanced datasets. Machine learning models trained on such datasets tend to favor majority class for accuracy and possess generalizability issues. However, it is challenging to create an unbiased dataset containing hate speech without offensive words, and build an accurate detection model to identify the actual hate speech Tweets. The models may lack sufficient context due to the absence of swear words. Therefore, we propose a data augmentation approach based on data mining methods utilizing the linguistic features of Turkish that can help enhance the generalizability of machine learning models without further human interaction. Furthermore, we evaluated the impact of our comprehensive dataset in detection of offensive language in social media. The NLP models training using the augmented dataset improved the macro average detection accuracy by 7.60% in comparison to the baseline approach.</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>Internet forums enable people to express their opinions and participate in discussions on a range of subjects in the current digital era. But sometimes, this right to free speech can lead to the dissemination of harmful remarks like hate speech, harassment, and other types of damaging material. Ensuring a secure and courteous online space requires identifying and eliminating remarks that are harmful. This research article investigates many approaches to detecting poisonous comments, including classic machine learning techniques like BOW and TF-IDF, and deep learning methods like LSTM. In addition, we explore the performance of stochastic gradient descent (SGD) regressor and decision tree models in categorizing harmful remarks using these variables. Through rigorous research and review, we show that these approaches are effective at recognizing hazardous remarks. Our findings help to build strong models for automated toxic comment detection, promoting healthier online discourse.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Deep learning;Toxicology;Accuracy;Reviews;Stochastic processes;Predictive models;Data models;Speech processing;Long short term memory;Regression tree analysis;toxic comment detection;hate speech detection;online moderation;ml;dl;bow;tf-idf;lstm;text classification;natural language processing</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10.1109/UBMK55850.2022.9919562</t>
+          <t>10.1109/ICEECT61758.2024.10738878</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Tanyel, Toygar, Alkurdi, Besher, Ayvaz, Serkan</t>
+          <t>Patil, Ratna, Kulkarni, Swapneel, Ingole, Prajwal, Kumar, Pratiyush, Pawar, Sandesh, Rawandale, Shiltalkumar</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2021 IEEE 2nd International Conference on Pattern Recognition and Machine Learning (PRML)</t>
+          <t>2024 International Conference on Artificial Intelligence, Computer, Data Sciences and Applications (ACDSA)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Multi-task CNN for Abusive Language Detection</t>
+          <t>The Automatic Detection of Abusive Language in Dota 2 Chat Messages</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>286-291</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Abusive language detection serves to ensure a compelling user experience via high-quality content. Different sub-categories of abusive language are closely related, with most aggressive comments containing personal attacks and toxic content and vice versa. We set a multi-task learning framework to detect different types of abusive content in a mental health forum to address this feature. Each classification task is treated as a subclass in a multi-class classification problem, with shared knowledge used for three related tasks: attack, aggression, and toxicity. Experimental results on three sub-types of Wikipedia abusive language datasets show that our framework can improve the net F1-score by 7.1%, 5.6%, and 2.7% in the attack, aggressive, and toxicity detection. Our experiments identified multi tasking framework act as an effective method in abusive language detection.</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>This study addresses the pervasive issue of abusive language in online video game communication channels, focusing on Dota 2 chat messages. The aim was to employ diverse traditional machine learning algorithms and advanced deep learning architectures to identify and classify toxic and abusive language effectively. Leveraging TF-IDF, GloVe word embeddings, and self-trained embeddings, the research compared various classical machine learning models such as Naïve Bayes, Logistic Regression, and Support Vector Machine with convolutional and recurrent neural network models. The results revealed a consistent trend where deep learning models, particularly those employing GRUs and LSTMs, outperformed classical machine learning models. Experiments also demonstrated that self-trained embeddings generally outperformed GloVe embeddings in the domain of online video game chat messages.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Deep learning;Support vector machines;Video games;Analytical models;Logistic regression;Recurrent neural networks;Machine learning algorithms;abusive language classification;embeddings;GloVe;neural networks;machine learning;deep learning</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10.1109/PRML52754.2021.9520387</t>
+          <t>10.1109/ACDSA59508.2024.10467500</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Zhao, Qingqing, Xiao, Yue, Long, Yunfei</t>
+          <t>Du Toit, Johannes Louis, Kotzé, Eduan</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023 3rd International Conference on Pervasive Computing and Social Networking (ICPCSN)</t>
+          <t>2022 7th International Conference on Computer Science and Engineering (UBMK)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Cyber Bullying and Toxicity Detection Using Machine Learning</t>
+          <t>Linguistic-based Data Augmentation Approach for Offensive Language Detection</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>66-73</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>The increased use of online platforms for communication has made cyberbullying and toxicity detection a critical issue in recent times. This paper explores the topic of cyberbullying and toxicity detection and proposes potential solutions for identifying cyber violence and offensive language more effectively. According to the study of the algorithms in examined research papers on cyberbullying and toxicity detection, this research study presents a novel approach that achieved 90% accuracy in identifying bully text in social media comments. This is done by using machine learning algorithms such as SVM, Logistic Regression, Naive Bayes, KNN, and Random Forest, with SVM and Random Forest exhibiting the best performance. Additionally, the system improved the accuracy of identifying bully images in social media posts to 84.5% by using the MobileNetV2 model (DNN), which is superior to other approaches. The system is trained using a large, labeled dataset of text data to identify and classify different types of cyberbullying and toxic content. The findings suggest that the proposed models hold promise in detecting instances of cyberbullying and offensive content effectively. These results have significant implications for the development of cyberbullying and toxicity detection systems. The proposed approach can be integrated into various social media platforms and online communities to identify and mitigate cyberbullying and toxic content more efficiently. The study also highlights the need for continued research and collaboration among stakeholders to address cyberbullying and toxicity effectively.</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>The massive amount of data generated by social media possess a great deal of toxic content that lead to serious content filtering problems including hate speech, cyberbullying and insulting. Offensive content even without profanity may result in psychological and physical harms to, particularly children and sensitive people. As of 2022, Turkey houses 7th largest Twitter community among all countries in terms of the active user size exceeding 16 million users, which represents a high diversity of people considering its population. That said, there is a growing need for a comprehensive and high-quality dataset in Turkish that can be utilized in development of NLP models for robust detection of offensive language usage in social media. Related studies in literature have mostly focused on small, synthetic and label-imbalanced datasets. Machine learning models trained on such datasets tend to favor majority class for accuracy and possess generalizability issues. However, it is challenging to create an unbiased dataset containing hate speech without offensive words, and build an accurate detection model to identify the actual hate speech Tweets. The models may lack sufficient context due to the absence of swear words. Therefore, we propose a data augmentation approach based on data mining methods utilizing the linguistic features of Turkish that can help enhance the generalizability of machine learning models without further human interaction. Furthermore, we evaluated the impact of our comprehensive dataset in detection of offensive language in social media. The NLP models training using the augmented dataset improved the macro average detection accuracy by 7.60% in comparison to the baseline approach.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Training;Filtering;Computational modeling;Hate speech;Sociology;Psychology;Machine learning;Social media;offensive language;hate speech;cyberbullying;contextual models;data mining;pre-processing;linguistics</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10.1109/ICPCSN58827.2023.00017</t>
+          <t>10.1109/UBMK55850.2022.9919562</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Jadhav, Ranjana, Agarwal, Naman, Shevate, Srushti, Sawakare, Chinmayee, Parakh, Piyush, Khandare, Snehankit</t>
+          <t>Tanyel, Toygar, Alkurdi, Besher, Ayvaz, Serkan</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022 2nd International Conference on Innovative Practices in Technology and Management (ICIPTM)</t>
+          <t>2023 3rd International Conference on Pervasive Computing and Social Networking (ICPCSN)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Clustering Method Response and Recovery Time Analysis with Different Temperature for different Toxic Gas</t>
+          <t>Cyber Bullying and Toxicity Detection Using Machine Learning</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>79-83</t>
+          <t>66-73</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Nitrogen Dioxide sensors supported Zinc Stannate films were manufactured utilizing the splattering-pyrolysis technique. The impact of parent material pyrexia on Nitrogen Dioxide reaction was investigated. The sheets deposited at 400 °C dominate flakes like geomorphology that the blanks put forward within the superficial increase the roughness. The zinc Stannate sensor demonstrated maximum sensor reaction 29.3 at comparatively low (300 °C) functioning pyrexia regarding 40 ppm Nitrogen Dioxide concentration. The new Zinc Stannate films demonstrate excellent gas sensing characteristics and evidence extraordinary reaction and rehabilitation dynamics with no superficial variation by element or surface-active agent. The proposed work follows the use of anaconda software over spider tool (spyder-3) operation with python programming language. The Python scripts in machine learning with applied clustering techniques have valued toxic liquids. The results are close to real-time results with simulated ones at divergent functional temperatures.</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>The increased use of online platforms for communication has made cyberbullying and toxicity detection a critical issue in recent times. This paper explores the topic of cyberbullying and toxicity detection and proposes potential solutions for identifying cyber violence and offensive language more effectively. According to the study of the algorithms in examined research papers on cyberbullying and toxicity detection, this research study presents a novel approach that achieved 90% accuracy in identifying bully text in social media comments. This is done by using machine learning algorithms such as SVM, Logistic Regression, Naive Bayes, KNN, and Random Forest, with SVM and Random Forest exhibiting the best performance. Additionally, the system improved the accuracy of identifying bully images in social media posts to 84.5% by using the MobileNetV2 model (DNN), which is superior to other approaches. The system is trained using a large, labeled dataset of text data to identify and classify different types of cyberbullying and toxic content. The findings suggest that the proposed models hold promise in detecting instances of cyberbullying and offensive content effectively. These results have significant implications for the development of cyberbullying and toxicity detection systems. The proposed approach can be integrated into various social media platforms and online communities to identify and mitigate cyberbullying and toxic content more efficiently. The study also highlights the need for continued research and collaboration among stakeholders to address cyberbullying and toxicity effectively.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Support vector machines;Pervasive computing;Logistic regression;Toxicology;Machine learning algorithms;Cyberbullying;Forestry;Hate speech;Image-based detection;Neural Networks;Random forest;Support Vector Machine (SVM);Text-based Detection</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10.1109/ICIPTM54933.2022.9754047</t>
+          <t>10.1109/ICPCSN58827.2023.00017</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Gupta, Amit, Rao, A.V. Nageswara, Raghavaiah, B., Dargar, Shashi Kant</t>
+          <t>Jadhav, Ranjana, Agarwal, Naman, Shevate, Srushti, Sawakare, Chinmayee, Parakh, Piyush, Khandare, Snehankit</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2021 IEEE European Symposium on Security and Privacy (EuroS&amp;P)</t>
+          <t>2022 8th International Conference on Advanced Computing and Communication Systems (ICACCS)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Trojaning Language Models for Fun and Profit</t>
+          <t>Classification of Toxicity in Comments using NLP and LSTM</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>179-197</t>
+          <t>16-21</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Recent years have witnessed the emergence of a new paradigm of building natural language processing (NLP) systems: general-purpose, pre-trained language models (LMs) are composed with simple downstream models and fine-tuned for a variety of NLP tasks. This paradigm shift significantly simplifies the system development cycles. However, as many LMs are provided by untrusted third parties, their lack of standardization or regulation entails profound security implications, which are largely unexplored. To bridge this gap, this work studies the security threats posed by malicious LMs to NLP systems. Specifically, we present TrojanLM, a new class of trojaning attacks in which maliciously crafted LMs trigger host NLP systems to malfunction in a highly predictable manner. By empirically studying three state-of-the-art LMs (BERT, GPT-2, XLNet) in a range of security-critical NLP tasks (toxic comment detection, question answering, text completion) as well as user studies on crowdsourcing platforms, we demonstrate that TrojanLM possesses the following properties: (i) flexibility - the adversary is able to flexibly define logical combinations (e.g., ‘and’, ‘or’, ‘xor’) of arbitrary words as triggers, (ii) efficacy - the host systems misbehave as desired by the adversary with high probability when “trigger” -embedded inputs are present, (iii) specificity - the trojan LMs function indistinguishably from their benign counterparts on clean inputs, and (iv) fluency - the trigger-embedded inputs appear as fluent natural language and highly relevant to their surrounding contexts. We provide analytical justification for the practicality of TrojanLM, and further discuss potential countermeasures and their challenges, which lead to several promising research directions.</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>With the increased usage of online social media platforms, there has been a sharp hike in toxic comments. Toxicity must be reduced. Classification of toxicity in comments has been an effective research field with various newly proposed approaches. This research and analysis provide a novel usage of the Natural Language Processing approach to classify the type of toxicity in comments. This analysis intends to interpret the type of comment and determine the various types of toxic classes such as obscene, identity hate, threat, toxic, insult, severe toxic. The input to our algorithm is comments from online platforms like toxic or non-toxic. Our model aims to predict the toxicity class. This project intends to analyze in phases. In Phase I, the objective is to evaluate the toxicity in comments by giving data through various techniques like TDIDF, spacy that helps data to perceive how every word in a comment is classified into a particular category of toxic class. Here, Algorithm will take comments from test data and predict the type of toxicity for test data like a toxic, threat, and so on. In Phase II, Data is analyzed to organize the comments into toxic and non-toxic categories. This promotes us to perceive the particular comment is toxic or not.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Toxicology;Social networking (online);Communication systems;Computational modeling;Predictive models;Prediction algorithms;Natural language processing;Toxicity;Comments;NLP;TFIDF;Severe Toxic;Insult;Text Classification</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10.1109/EuroSP51992.2021.00022</t>
+          <t>10.1109/ICACCS54159.2022.9785067</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Zhang, Xinyang, Zhang, Zheng, Ji, Shouling, Wang, Ting</t>
+          <t>Garlapati, Anusha, Malisetty, Neeraj, Narayanan, Gayathri</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022 8th International Conference on Advanced Computing and Communication Systems (ICACCS)</t>
+          <t>2021 IEEE European Symposium on Security and Privacy (EuroS&amp;P)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Classification of Toxicity in Comments using NLP and LSTM</t>
+          <t>Trojaning Language Models for Fun and Profit</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>16-21</t>
+          <t>179-197</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>With the increased usage of online social media platforms, there has been a sharp hike in toxic comments. Toxicity must be reduced. Classification of toxicity in comments has been an effective research field with various newly proposed approaches. This research and analysis provide a novel usage of the Natural Language Processing approach to classify the type of toxicity in comments. This analysis intends to interpret the type of comment and determine the various types of toxic classes such as obscene, identity hate, threat, toxic, insult, severe toxic. The input to our algorithm is comments from online platforms like toxic or non-toxic. Our model aims to predict the toxicity class. This project intends to analyze in phases. In Phase I, the objective is to evaluate the toxicity in comments by giving data through various techniques like TDIDF, spacy that helps data to perceive how every word in a comment is classified into a particular category of toxic class. Here, Algorithm will take comments from test data and predict the type of toxicity for test data like a toxic, threat, and so on. In Phase II, Data is analyzed to organize the comments into toxic and non-toxic categories. This promotes us to perceive the particular comment is toxic or not.</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>Recent years have witnessed the emergence of a new paradigm of building natural language processing (NLP) systems: general-purpose, pre-trained language models (LMs) are composed with simple downstream models and fine-tuned for a variety of NLP tasks. This paradigm shift significantly simplifies the system development cycles. However, as many LMs are provided by untrusted third parties, their lack of standardization or regulation entails profound security implications, which are largely unexplored. To bridge this gap, this work studies the security threats posed by malicious LMs to NLP systems. Specifically, we present TrojanLM, a new class of trojaning attacks in which maliciously crafted LMs trigger host NLP systems to malfunction in a highly predictable manner. By empirically studying three state-of-the-art LMs (BERT, GPT-2, XLNet) in a range of security-critical NLP tasks (toxic comment detection, question answering, text completion) as well as user studies on crowdsourcing platforms, we demonstrate that TrojanLM possesses the following properties: (i) flexibility - the adversary is able to flexibly define logical combinations (e.g., ‘and’, ‘or’, ‘xor’) of arbitrary words as triggers, (ii) efficacy - the host systems misbehave as desired by the adversary with high probability when “trigger” -embedded inputs are present, (iii) specificity - the trojan LMs function indistinguishably from their benign counterparts on clean inputs, and (iv) fluency - the trigger-embedded inputs appear as fluent natural language and highly relevant to their surrounding contexts. We provide analytical justification for the practicality of TrojanLM, and further discuss potential countermeasures and their challenges, which lead to several promising research directions.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Crowdsourcing;Bridges;Buildings;Standardization;Knowledge discovery;Natural language processing;Regulation</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10.1109/ICACCS54159.2022.9785067</t>
+          <t>10.1109/EuroSP51992.2021.00022</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Garlapati, Anusha, Malisetty, Neeraj, Narayanan, Gayathri</t>
+          <t>Zhang, Xinyang, Zhang, Zheng, Ji, Shouling, Wang, Ting</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2021 6th International Conference on Computer Science and Engineering (UBMK)</t>
+          <t>2024 International Symposium ELMAR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A Review of Spam Detection in Social Media</t>
+          <t>Measuring and Mitigating Stereotype Bias in Language Models: An Overview of Debiasing Techniques</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>383-388</t>
+          <t>241-246</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>With significant usage of social media to socialize in virtual environments, bad actors are now able to use these platforms to spread their malicious activities such as hate speech, spam, and even phishing to very large crowds. Especially, Twitter is suitable for these types of activities because it is one of the most common social media platforms for microblogging with millions of active users. Moreover, since the end of 2019, Covid-19 has changed the lives of individuals in many ways. While it increased social media usage due to free time, the number of cyber-attacks soared too. To prevent these activities, detection is a very crucial phase. Thus, the main goal of this study is to review the state-of-art in the detection of malicious content and the contribution of AI algorithms for detecting spam and scams effectively in social media.</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>This paper provides an overview of methods for measuring the stereotype bias of pre-trained language models. It explains the term ‘stereotype bias’ and its measurement. A comprehensive review of language model debiasing techniques, including Dropout, Counterfactual Data Augmentation, Iterative Nullspace Projection, Sent-Debias, Self-Debias, Context-Debias, FairFil, and Auto-Debias, is provided. Subsequently, these techniques are compared, and their advantages and disadvantages are highlighted. In addition, there is an explanation of how these techniques work simply. In the future, debiasing techniques will be tested on pre-trained models for the Slovak language, focusing on the task of toxic language detection.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Measurement;Ethics;Reviews;Scalability;Focusing;Data augmentation;Robustness;Data models;Iterative methods;Testing;Debiasing technique;Language model;Measuring;Mitigating;Stereotype bias</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10.1109/UBMK52708.2021.9558993</t>
+          <t>10.1109/ELMAR62909.2024.10694175</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Yurtseven, İlke, Bagriyanik, Selami, Ayvaz, Serkan</t>
+          <t>Sokolová, Zuzana, Harahus, Maroš, Staš, Ján, Kupcová, Eva, Sokol, Miroslav, Koctúrová, Marianna, Juhár, Jozef</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023 International Joint Conference on Neural Networks (IJCNN)</t>
+          <t>2024 International Conference on Information Technology Research and Innovation (ICITRI)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</t>
+          <t>Enhancing Indonesian Abusive Language Detection on Imbalanced News Comment Dataset Using Support Vector Machine with Oversampling</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>275-280</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>This paper proposes a novelty approach to mitigate the negative transfer problem. In the field of machine learning, the common strategy is to apply the Single-Task Learning approach in order to train a supervised model to solve a specific task. Training a robust model requires a lot of data and a significant amount of computational resources, making this solution unfeasible in cases where data are unavailable or expensive to gather. Therefore another solution, based on the sharing of information between tasks, has been developed: Multi-task Learning (MTL). Despite the recent developments regarding MTL, the problem of negative transfer has still to be solved. Negative transfer is a phenomenon that occurs when noisy information is shared between tasks, resulting in a drop in performance. This paper proposes a new approach to mitigate the negative transfer problem based on the task awareness concept. The proposed approach results in diminishing the negative transfer together with an improvement of performance over classic MTL solution. Moreover, the proposed approach has been implemented in two unified architectures to detect Sexism, Hate Speech, and Toxic Language in text comments. The proposed architectures set a new state-of-the-art both in EXIST-2021 and HatEval-2019 benchmarks.</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>The growth of the internet facilitates ease of interaction and communication, including in the online news platforms with their comment sections. However, this phenomenon triggers the emergence of the online disinhibition effect, leading individuals to exhibit more aggressive behavior on the internet (toxic disinhibition). This has resulted in the prevalence of abusive language in online news comment sections, posing risks to the other readers and the subjects targeted by the abusive comments. In the context of abusive language detection, comments can be categorized into three classes, i.e., not abusive, abusive but not offensive, and abusive and offensive. Therefore, this study conducts a multiclass classification of Indonesian online news comments with those three categories. Experimental results indicate that SVM with word unigram TF-IDF serves as the best baseline classification model with a macro-average F1-score of 45.37%. We compared Easy Data Augmentation (EDA) and Synthetic Minority Oversampling Technique (SMOTE) to address the issue of extreme imbalance in the dataset. The results show that SMOTE outperforms EDA with a macro-average F1-score of 51.45% (an increase of 6.08% from baseline classification), while EDA achieves a macro-average F1-score of 49.83%. The random deletion (RD) operation was chosen for EDA, as other operations tended to decrease its performance. One drawback of EDA is the lack of a corpus for finding similar words. On the other hand, the classification results using SMOTE improve the generalization of the model more effectively. However, some issues persist, such as the abundance of Out of Vocabulary (OOV) occurrences leading to misclassification.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Support vector machines;Vocabulary;Technological innovation;Dictionaries;Computational modeling;Data augmentation;Transformers;Data models;Vectors;Information technology;abusive language detection;support vector machine;oversampling;news comment dataset</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10.1109/IJCNN54540.2023.10191347</t>
+          <t>10.1109/ICITRI62858.2024.10699029</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>de Paula, Angel Felipe Magnossão, Rosso, Paolo, Spina, Damiano</t>
+          <t>Hendrawan, Rahmat, Hana, Karimah Mutisari, Kurniati, Angelina Prima</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020 Third International Conference on Advances in Electronics, Computers and Communications (ICAECC)</t>
+          <t>2022 2nd International Conference on Innovative Practices in Technology and Management (ICIPTM)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Toxic Comment Detection using LSTM</t>
+          <t>Clustering Method Response and Recovery Time Analysis with Different Temperature for different Toxic Gas</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1-8</t>
+          <t>79-83</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>While online communication media acts as a platform for people to connect, collaborate and discuss, overcoming the barriers for communication, some take it as a medium to direct hateful and abusive comments that may prejudice an individual's emotional and mental well being. Explosion of online communication makes it virtually impossible for filtering out the hateful tweets manually, and hence there is a need for a method to filter out the hate-speech and make social media cleaner and safer to use. The paper aims to achieve the same by text mining and making use of deep learning models constructed using LSTM neural networks that can near accurately identify and classify hate-speech and filter it out for us. The model that we have developed is able to classify given comments as toxic or nontoxic with 94.49% precision, 92.79% recall and 94.94% Accuracy score.</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>Nitrogen Dioxide sensors supported Zinc Stannate films were manufactured utilizing the splattering-pyrolysis technique. The impact of parent material pyrexia on Nitrogen Dioxide reaction was investigated. The sheets deposited at 400 °C dominate flakes like geomorphology that the blanks put forward within the superficial increase the roughness. The zinc Stannate sensor demonstrated maximum sensor reaction 29.3 at comparatively low (300 °C) functioning pyrexia regarding 40 ppm Nitrogen Dioxide concentration. The new Zinc Stannate films demonstrate excellent gas sensing characteristics and evidence extraordinary reaction and rehabilitation dynamics with no superficial variation by element or surface-active agent. The proposed work follows the use of anaconda software over spider tool (spyder-3) operation with python programming language. The Python scripts in machine learning with applied clustering techniques have valued toxic liquids. The results are close to real-time results with simulated ones at divergent functional temperatures.</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Temperature measurement;Temperature sensors;Films;Sensor phenomena and characterization;Surface roughness;Software;Nitrogen;Thin Film MOS gas detector;Response Period;Rehabilitation Period;Clustering;MOS</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10.1109/ICAECC50550.2020.9339521</t>
+          <t>10.1109/ICIPTM54933.2022.9754047</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Dubey, Krishna, Nair, Rahul, Khan, Mohd. Usman, Shaikh, Prof. Sanober</t>
+          <t>Gupta, Amit, Rao, A.V. Nageswara, Raghavaiah, B., Dargar, Shashi Kant</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023 46th MIPRO ICT and Electronics Convention (MIPRO)</t>
+          <t>2024 15th International Conference on Information and Communication Systems (ICICS)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A Transfer Learning Method for Hate Speech Detection</t>
+          <t>Offensive Language Detection of Arabic Tweets Using Deep Learning Algorithm</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>953-958</t>
+          <t>1-6</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>In this work we explore the possibilities of using transfer learning techniques to enhance performance of hate speech detection models by relying on similar linguistic problems (e.g. toxic language detection). Multiple algorithms are trained for similar linguistic tasks on larger datasets, and the obtained models are used for getting predictions on the ETHOS dataset, which we chose as the target dataset of our work. The obtained predictions are used as sole or additional features in the subsequently performed experiments. Multiple algorithms are evaluated, including Logistic Regression, SVM, RidgeClassifier, Decision Tree, Random Forest, AdaBoost, GradBoost, Bagging. Furthermore, multiple textual representations are taken into account including Tf-Idf, Bert embeddings and BERT embeddings combined with the aforementioned additional features. Transformer-based models BERT and DistilBERT are introduced and fine-tuned on ETHOS dataset. All the obtained models are evaluated and the resulting performance metrics are compared to results obtained by the authors of the ETHOS dataset. In order to explore the remaining underlying issues, model-agnostic method LIME is used to obtain explanations for incorrect predictions.</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr"/>
+          <t>Offensive language has become a common occurrence in Arabic social media. Toxic textual content can be prohibited more easily with the use of automatic offensive language identification technologies. In this study, a deep learning approach was used to detect offensive Arabic language. Three models were used: RNN with LSTM, RNN with BLSTM, and the SVM learning algorithm. A dataset of 7000 tweets with two attributes from the Egyptian dialect was used. After data preprocessing, a 6-fold cross-validation was used to train and test the data. The evaluation of the three models showed the suitability of the RNN models (with an accuracy of 95.6%) over the SVM.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Support vector machines;Deep learning;Accuracy;Social networking (online);Communication systems;Data preprocessing;Vectors;offensive language detection;Deep learning;long short-term memory;Recurrent neural network;Support Vector Machine</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10.23919/MIPRO57284.2023.10159777</t>
+          <t>10.1109/ICICS63486.2024.10638282</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Šmuc, Eva, Delač, Goran, Šilić, Marin, Vladimir, Klemo</t>
+          <t>AlSukhni, Emad, AlAzzam, Iyad, Hanandeh, Sereen</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2022 IEEE Nigeria 4th International Conference on Disruptive Technologies for Sustainable Development (NIGERCON)</t>
+          <t>2024 International Conference on Sustainable Communication Networks and Application (ICSCNA)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Multi-Label Classification of Hate Speech Severity on Social Media using BERT Model</t>
+          <t>Vulnerable Object Detection Using Machine Learning</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>1376-1380</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Detection of offensive and hate speeches on social media using multi-label classification technique is a relatively new fine-grained solution to classification problems. This paper investigates intelligent learning models based on the BERT model for multi-label classification of hate speech. The approach utilized a semi-supervised pseudo-labeling technique to automatically label a newly created multi-social media data which was then augmented and balanced using AugLy and GPT-2 libraries before being used to train the BERT model. Alpha evaluation of the model returned a score of 0.948695 for toxic, 0.946662 for severe toxic, 0.944483 for obscene, 0.946159 for threat, 0.909272 for insult and 0.734659 for identity hate respectively. Examples were ranked and one among such ranked examples gave a probability score of 96%, 89.91% and 80.21% for the top three likely labels. The results compared well with that of the human-annotated severity ranking.</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>This machine language project on object detection vulnerability is to have the safety and wellbeing of toddlers by using the advantages of machine learning techniques for identifying and assessing potentially dangerous objects in an environment that contains little children. This system uses advanced computer vision and deep learning algorithms, particularly Convolutional Neural Networks (CNNs) in the analysis of real-time images or video feeds from cameras mounted in homes, daycares, or play areas. The deep learning models comprise a very good training set with high variability and diversity in images of ordinary objects and identified threats. The dataset consists of a wide range of objects that fall into one of the following categories: dangerous sharp items such as scissors and knives, dangerous small objects capable of causing choking, or poisonous substances or toxic materials if ingested. Through such data processing, the CNN- based system is trained to identify and classify such hazardous things with a precision level of almost 100%. After training, it can monitor the environment continuously with the help of live video feeds. The system immediately alerts a caregiver, parents, or administrative personnel once it identifies an object that fits into one of the pre-defined hazard categories, based on the deployment scenario. That alert would then give them timely information to provide for safety concerns. This project aims to minimize the risks of accidents and injuries by providing an effective and automatic means to monitor the environments wherein the toddlers are physically active. Integrating sophisticated object detection technology with proper safety protocols will create a more secure environment for young children through reduced accidents and evidence of a secure space for play and living.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Training;Deep learning;Pediatrics;Object detection;Streaming media;Object recognition;Feeds;Convolutional neural networks;Monitoring;Accidents;object detection;Machine Learning;Toddler Safety;Hazardous Object Identification;Real-Time Alerts;Child Safety;User Interface;Camera Integration</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10.1109/NIGERCON54645.2022.9803164</t>
+          <t>10.1109/ICSCNA63714.2024.10864124</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Dirting, Bakwa Dunka, Chukwudebe, Gloria A., Nwokorie, Euphemia Chioma, Ayogu, Ikechukwu Ignatius</t>
+          <t>J, John Shiny., M, Abhishek., N, Mahendravarman.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022 International Symposium on Networks, Computers and Communications (ISNCC)</t>
+          <t>2023 20th ACS/IEEE International Conference on Computer Systems and Applications (AICCSA)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cyber-Security for IoT Applications based on ANN Algorithm</t>
+          <t>Violent Speech Detection in Educational Environments</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Nowadays, social networks allow people to interact by exchanging messages, publishing public or private photos or videos. But sometimes they become a space of toxic language to criticise, insult, hate, and attack. In this context, researchers promote a strong intention to study, analyse and detect hate speech. By automating its detection, the spread of anxiety and the rise of hateful content can be limited, especially among children in the online schools. However, with the absence of online database of vulgar English speech by Students in schools, detecting violent speech becomes a difficult task. In this paper, we propose a new dataset-based framework for the detection of students violent speech using natural language processing and learning techniques. This focuses on a proposed ≪Students’s Violent Speech (SVS) dataset ≫ with 7056 tagged tweets. The dataset is collected and pre-processed to be analyzed to show the performance and accuracy of the proposed model.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Support vector machines;Voice activity detection;Training;Machine learning algorithms;Social networking (online);Predictive models;Classification algorithms;Violent speech;Students;Detection;Dataset collection;Natural language processing</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>10.1109/AICCSA59173.2023.10479330</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Chnini, Manel, Fredj, Nissaf, BenSaid, Fatma, Kacem, Yessine Hadj</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022 IEEE Nigeria 4th International Conference on Disruptive Technologies for Sustainable Development (NIGERCON)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Multi-Label Classification of Hate Speech Severity on Social Media using BERT Model</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>1-5</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Actually, Internet of Things (IoT) applications have greatly been applied in several domains such as smart home, smart building, smart agriculture, etc. However, IoT applications suffer from different form of cyber-attacks. Cyber-attacks may block the whole functionality of IoT applications. In this paper, the vulnerabilities and security of smart agriculture application is considered using artificial intelligence (AI) especially deep learning algorithms. Among the parameters monitored in the prototype of smart agriculture application temperature/humidity, water level, oxygen and toxic gas. Then, the security weakness and attacks of IoT environment for smart application have been handled and analyzed. Hence, an intrusion detection system (IDS) has been performed to detect cyber-attacks and alert sensor nodes about them. The IDS implemented in this work is based on Artificial Neural Network (ANN). The IDS may allow the detection of suspicious and abnormal activities and triggers alarm in the event of an intrusion.</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>10.1109/ISNCC55209.2022.9851715</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Zrelli, Amira, Nakkach, Cherfia, Ezzedine, Tahar</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr"/>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>AMR-CNN: Abstract Meaning Representation with Convolution Neural Network for Toxic Content Detection</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>677-692</t>
-        </is>
-      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Recognizing the offensive, abusive, and profanity of multimedia content on the web has been a challenge to keep the web environment for user's freedom of speech. As profanity filtering function has been developed and applied in text, audio, and video context in platforms such as social media, entertainment, and education, the number of methods to trick the web-based application also has been increased and became a new issue to be solved. Compared to commonly developed toxic content detection systems that use lexicon and keyword-based detection, this work tries to embrace a different approach by the meaning of the sentence. Meaning representation is a way to grasp the meaning of linguistic input. This work proposed a data-driven approach utilizing Abstract meaning Representation to extract the meaning of the online text content into a convolutional neural network to detect level profanity. This work implements the proposed model in two kinds of datasets from the Offensive Language Identification Dataset and other datasets from the Offensive Hate dataset merged with the Twitter Sentiment Analysis dataset. The results indicate that the proposed model performs effectively, and can achieve a satisfactory accuracy in recognizing the level of online text content toxicity.</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>Detection of offensive and hate speeches on social media using multi-label classification technique is a relatively new fine-grained solution to classification problems. This paper investigates intelligent learning models based on the BERT model for multi-label classification of hate speech. The approach utilized a semi-supervised pseudo-labeling technique to automatically label a newly created multi-social media data which was then augmented and balanced using AugLy and GPT-2 libraries before being used to train the BERT model. Alpha evaluation of the model returned a score of 0.948695 for toxic, 0.946662 for severe toxic, 0.944483 for obscene, 0.946159 for threat, 0.909272 for insult and 0.734659 for identity hate respectively. Examples were ranked and one among such ranked examples gave a probability score of 96%, 89.91% and 80.21% for the top three likely labels. The results compared well with that of the human-annotated severity ranking.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Social networking (online);Conferences;Hate speech;Bit error rate;Media;Data models;Real-time systems;Offensive speech;Hate speech detection;Multi-label classification;Hate speech severity;Deep learning</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10.13052/jwe1540-9589.2135</t>
+          <t>10.1109/NIGERCON54645.2022.9803164</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Elbasani, Ermal, Kim, Jeong-Dong</t>
+          <t>Dirting, Bakwa Dunka, Chukwudebe, Gloria A., Nwokorie, Euphemia Chioma, Ayogu, Ikechukwu Ignatius</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2022 IEEE 26th International Conference on Intelligent Engineering Systems (INES)</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Abusive Language Detection on Social Media using Bidirectional Long-Short Term Memory</t>
+          <t>AdversaFlow: Visual Red Teaming for Large Language Models with Multi-Level Adversarial Flow</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>000243-000248</t>
+          <t>492-502</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Social media has allowed anybody to share their opinions and engage with the general public, but it has also become a platform for harsh language, cruel conduct, personal assaults, and cyberbullying. However, determining whether a comment or a post is violent or not remains difficult and time-consuming, and most social media businesses are always seeking better ways to do so. This may be automated to assist in detecting nasty comments, promote user safety, preserve websites, and enhance online dialogue. The toxic comment dataset is utilized in this research to train a deep learning model that categorizes comments into the following categories: severe toxic, toxic, threat, obscene, insult, and identity hatred. To categorize comments, use a bidirectional long short-term memory cell (Bi-LSTM).</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>Large Language Models (LLMs) are powerful but also raise significant security concerns, particularly regarding the harm they can cause, such as generating fake news that manipulates public opinion on social media and providing responses to unethical activities. Traditional red teaming approaches for identifying AI vulnerabilities rely on manual prompt construction and expertise. This paper introduces AdversaFlow, a novel visual analytics system designed to enhance LLM security against adversarial attacks through human-AI collaboration. AdversaFlow involves adversarial training between a target model and a red model, featuring unique multi-level adversarial flow and fluctuation path visualizations. These features provide insights into adversarial dynamics and LLM robustness, enabling experts to identify and mitigate vulnerabilities effectively. We present quantitative evaluations and case studies validating our system's utility and offering insights for future AI security solutions. Our method can enhance LLM security, supporting downstream scenarios like social media regulation by enabling more effective detection, monitoring, and mitigation of harmful content and behaviors.</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Security;Analytical models;Training;Visual analytics;Artificial intelligence;Toxicology;Safety;Visual Analytics for Machine Learning;Artificial Intelligence Security;Large Language Models;Text Visualization</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10.1109/INES56734.2022.9922628</t>
+          <t>10.1109/TVCG.2024.3456150</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Salehgohari, Ali, Mirhosseini, Mina, Tabrizchi, Hamed, Koczy, Annamaria Varkonyi</t>
+          <t>Deng, Dazhen, Zhang, Chuhan, Zheng, Huawei, Pu, Yuwen, Ji, Shouling, Wu, Yingcai</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2022 International Conference on Distributed Computing, VLSI, Electrical Circuits and Robotics ( DISCOVER)</t>
+          <t>2022 International Symposium on Networks, Computers and Communications (ISNCC)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Identification of Toxicity in MultimediaMessages for Controlling Cyberbullying on Social Media by Natural Language Processing</t>
+          <t>Cyber-Security for IoT Applications based on ANN Algorithm</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3141,31 +3401,39 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>12-18</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Speaking hatefully is an antisocial conduct. Hate can be expressed on the basis of gender, race, or religion, ethnic, etc. The definition of “hate speech” is ambiguous. The Hate speech is defined by the Council of the European Union as “any types of expression which disseminate, provoke, or defend intolerance as a reason for racial hatred, xenophobia, antisemitism, or other types of hatred, including violent nationalism and ethnocentrism, as well as prejudice and hatred toward migrants, minorities, and those with immigrant backgrounds. The most pressing issue in recent times in social media and online groups is toxicity identification sites for networking. Therefore, it is necessary to create an automatic hazardous identification system to keep people out of and restrict their access to these online settings. The prevalence of hate speech presents significant difficulties for the cyber culture. Users can wish for social media sites and online forums to support anti-hate discourse. Hate speech detection, however, is still a young technology, and system designers must come up with a way to identify unwanted hate speech while upholding the atmosphere of online freedom of speech. No method for detecting excellence has yet been put forth. Identifying the form of communication is hate speech and automatically recognising the hate speech are the two typical obstacles for a hate speech detection task. People must first decide which kinds of speech fall under the category of hate speech before screening it out. The majority of social media platforms define hate speech differently. In this day and age, Internet is necessary, and ethics has to be followed, however several parties spread hate speech deviating on race, ethnicity, and religion. The user’s freedom and anonymity increase the harassment by hate speech. It also adds lack of regulation on social media communication. Cyber bullying and trolling are two kinds of abusive behaviour.</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>Actually, Internet of Things (IoT) applications have greatly been applied in several domains such as smart home, smart building, smart agriculture, etc. However, IoT applications suffer from different form of cyber-attacks. Cyber-attacks may block the whole functionality of IoT applications. In this paper, the vulnerabilities and security of smart agriculture application is considered using artificial intelligence (AI) especially deep learning algorithms. Among the parameters monitored in the prototype of smart agriculture application temperature/humidity, water level, oxygen and toxic gas. Then, the security weakness and attacks of IoT environment for smart application have been handled and analyzed. Hence, an intrusion detection system (IDS) has been performed to detect cyber-attacks and alert sensor nodes about them. The IDS implemented in this work is based on Artificial Neural Network (ANN). The IDS may allow the detection of suspicious and abnormal activities and triggers alarm in the event of an intrusion.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Smart agriculture;Temperature sensors;Temperature measurement;Smart buildings;Prototypes;Artificial neural networks;Smart homes;Cyber-security;IoT applications;ANN;cyberattacks;IDS.</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10.1109/DISCOVER55800.2022.9974631</t>
+          <t>10.1109/ISNCC55209.2022.9851715</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Nithyashree, V, Hiremath, Basavaraj N, Vanishree, L, Duvvuri, Aparna, Madival, Disha Anand, Vidyashree, G</t>
+          <t>Zrelli, Amira, Nakkach, Cherfia, Ezzedine, Tahar</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023 46th MIPRO ICT and Electronics Convention (MIPRO)</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Automatic Generation of Adversarial Readable Chinese Texts</t>
+          <t>A Transfer Learning Method for Hate Speech Detection</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3175,35 +3443,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1756-1770</t>
+          <t>953-958</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Natural language processing (NLP) models are known vulnerable to adversarial examples, similar to image processing models. Studying adversarial texts is an essential step to improve the robustness of NLP models. However, existing studies mainly focus on generating adversarial texts for English, with no prior knowledge that whether those attacks could be applied to Chinese. After analyzing the differences between Chinese and English, we propose a novel adversarial Chinese text generation solution Argot, by utilizing the method for adversarial English examples and several novel methods developed on Chinese characteristics. Argot could effectively and efficiently generate adversarial Chinese texts with good readability in both white-box and black-box settings. Argot could also automatically generate targeted Chinese adversarial texts, achieving a high success rate and ensuring the readability of the generated texts. Furthermore, we apply Argot to the spam detection task in both local detection models and a public toxic content detection system from a well-known security company. Argot achieves a relatively high bypass success rate with fluent readability, which proves that the real-world toxic content detection system is vulnerable to adversarial example attacks. We also evaluate some available defense strategies, and the results indicate that Argot can still achieve high attack success rates.</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr"/>
+          <t>In this work we explore the possibilities of using transfer learning techniques to enhance performance of hate speech detection models by relying on similar linguistic problems (e.g. toxic language detection). Multiple algorithms are trained for similar linguistic tasks on larger datasets, and the obtained models are used for getting predictions on the ETHOS dataset, which we chose as the target dataset of our work. The obtained predictions are used as sole or additional features in the subsequently performed experiments. Multiple algorithms are evaluated, including Logistic Regression, SVM, RidgeClassifier, Decision Tree, Random Forest, AdaBoost, GradBoost, Bagging. Furthermore, multiple textual representations are taken into account including Tf-Idf, Bert embeddings and BERT embeddings combined with the aforementioned additional features. Transformer-based models BERT and DistilBERT are introduced and fine-tuned on ETHOS dataset. All the obtained models are evaluated and the resulting performance metrics are compared to results obtained by the authors of the ETHOS dataset. In order to explore the remaining underlying issues, model-agnostic method LIME is used to obtain explanations for incorrect predictions.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Training;Support vector machines;Hate speech;Transfer learning;Bit error rate;Predictive models;Linguistics;transfer learning;hate speech detection;deep learning;feature extraction</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10.1109/TDSC.2022.3164289</t>
+          <t>10.23919/MIPRO57284.2023.10159777</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Liu, Mingxuan, Zhang, Zihan, Zhang, Yiming, Zhang, Chao, Li, Zhou, Li, Qi, Duan, Haixin, Sun, Donghong</t>
+          <t>Šmuc, Eva, Delač, Goran, Šilić, Marin, Vladimir, Klemo</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021 12th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
+          <t>2021 6th International Conference on Computer Science and Engineering (UBMK)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Detox: NLP Based Classification And Euphemistic Text Substitution For Toxic Comments</t>
+          <t>A Review of Spam Detection in Social Media</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3213,73 +3485,81 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1-5</t>
+          <t>383-388</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>The challenges of eliminating inadvertent hate online have grown more and more observable. With rapid increase in access to technology worldwide, the number of people present on the internet has increased exponentially. The rise in hateful and toxic content on the internet is many fold. Present solutions are largely based on censorship and removal of such content and can be the cause of mental disturbance to the concerned auditor. Biases of manual moderation can thwart the efforts taken to prevent the presence of hate speech on online platforms. However, posts that convey important meanings also fall prey to such systems, which should be avoided. Such systems fail to educate their authors what should have been done differently. Additionally, a system that combines detection and substitution algorithms is largely absent. A euphemistic substitution approach could prove to be more effective. In this project we have developed a classifier using Natural Language Processing and Machine Learning to detect toxic texts and provide euphemisms to erudite the user of words that can replace the toxicity present in the original texts. The classifier informs the online platform about the toxicity of the texts so they restrict such content to available on its platform. The euphemisms are aimed to make the user aware of the toxicity in the text and suggest replacements, which, if used, can make the text inoffensive. We aim to achieve self realisation on the user's part so we can target the issue at its source.</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>With significant usage of social media to socialize in virtual environments, bad actors are now able to use these platforms to spread their malicious activities such as hate speech, spam, and even phishing to very large crowds. Especially, Twitter is suitable for these types of activities because it is one of the most common social media platforms for microblogging with millions of active users. Moreover, since the end of 2019, Covid-19 has changed the lives of individuals in many ways. While it increased social media usage due to free time, the number of cyber-attacks soared too. To prevent these activities, detection is a very crucial phase. Thus, the main goal of this study is to review the state-of-art in the detection of malicious content and the contribution of AI algorithms for detecting spam and scams effectively in social media.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Computer science;COVID-19;Social networking (online);Phishing;Blogs;Virtual environments;Artificial intelligence;social media;phishing;spam;machine learning;deep learning;NLP</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10.1109/ICCCNT51525.2021.9579846</t>
+          <t>10.1109/UBMK52708.2021.9558993</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Jain, Somil, Kaushik, Garima, Prabhu, Pulin, Godbole, Anand</t>
+          <t>Yurtseven, İlke, Bagriyanik, Selami, Ayvaz, Serkan</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2022 9th Iranian Joint Congress on Fuzzy and Intelligent Systems (CFIS)</t>
+          <t>2024 IEEE International Conference on Artificial Intelligence in Engineering and Technology (IICAIET)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Intelligent Transmitter : Analysis of Effective parameters on Sensor Response of Gas Transmitter to Enhancement Measurment Accuracy by Intelligent Corrective Model Based on Artificial Neural Network</t>
+          <t>Stacked Bi-LSTM for Advanced Toxicity Detection in Comment Classification</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>337-342</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>As we may know, H2S is a toxic and dangerous gas that mainly can be found in oil fields, drilling rigs, gas separators, petrochemicals etc. It is so dangerous that if it exceeds a specified amount, it will cause physical and respiratory complications or death in some cases. For the time being, a transmitter is used to detect and measure the concentration of H2S gas which the most significant part of it, is the gas sensor. We used an electrochemical sensor to construct the transmitter. Neural networks have been used to investigate the effect of environmental parameters such as temperature and humidity. The network consists of an input layer, a hidden layer and an output layer. The results show that the output of the neural network is well able to follow the actual output. Therefore, changes in temperature and humidity affect the response of the hydrogen sulfide gas transmitter, and this change reduces the accuracy measured by the device. Furthermore, high-precision hydrogen sulfide detection sensors are generally expensive. This finding has important implications for developing robust gas sensors. By using the achieved relationship and considering the effect of temperature and humidity changes, the accuracy of the low-cos sensors can be greatly increased and the cost of producing a hydrogen sulfide transmitter can be greatly reduced.</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>The surge in Internet usage has revolutionized online forums, providing dynamic forums for active participation and meaningful debates. However, this has also exposed users to the risk of harassment. Efforts to address toxic comments in online forums have faced challenges, with current solutions unveiling unreliability. Advances in hardware, cloud computing, and natural language processing (NLP) enable the development of more robust approaches, predominantly NLP-based deep learning models. Pre-trained transformer models are gradually utilized for accurate toxic comment classification, bigger traditional methods. Stacked LSTM models, emphasizing hierarchical feature learning and improved contextual understanding, outperform single layer counterparts, offering an effective solution for online content moderation and sentiment analysis. This research indicates a significant stride towards more dependable and sophisticated toxic comment detection, addressing the challenges of social media effectively.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Representation learning;Deep learning;Sentiment analysis;Toxicology;Social networking (online);Computational modeling;Transformers;Hardware;Surges;Long short term memory;Toxicity Detection;Natural Language Processing;Ensemble Learning;Text Preprocessing;Tokenization Introduction</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10.1109/CFIS54774.2022.9756483</t>
+          <t>10.1109/IICAIET62352.2024.10729970</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ahad, Mohammad Mohseni, Hamoule, Touba</t>
+          <t>Kumar, N. Naveen, Abraham, Prabhakaran, Kaliba, Syed Ibrahim, VC, Diniesh, R, Maruthamuthu, Balamurugan, P, Seshu Kumar, Vekkudu, Naveen</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023 IEEE Colombian Conference on Applications of Computational Intelligence (ColCACI)</t>
+          <t>2023 International Conference on Integration of Computational Intelligent System (ICICIS)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Model Agnostic Approach for NLP Backdoor Detection</t>
+          <t>Smart Helmet for Coal Mine Workers</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3289,99 +3569,2187 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1-6</t>
+          <t>1-5</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Poisoning training datasets by inserting backdoors into Natural Language Processing (NLP) models can result in model misclassifications with potential adverse impacts such as evasion of toxic content detection systems, fake news publication. A majority of the NLP backdoor defenses focus on model specific defenses. The current work proposes a model agnostic approach for NLP backdoor detection. To this end two metrics are developed to successfully distinguish between clean and poisoned text data samples.</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>A more conventional version of the smart helmet has been developed to help miners while working in the mining sector. The mining industry frequently has dangerous occurrences, many of which end in fatalities or seriously injured parties. Using different sensors, the smart helmet able to recognize catastrophic situations such as presence of harmful gases like Carbon-Monoxide (CO), Methane (CH4), Ammonia (NH3) as well as temperature and humidity within the mine areas. Also the pulse of the coal miner monitored continuously so that it can be detected whether the miner is facing some difficulty or if any accident has occurred in the mine. Helmet wear by miner or not wear, is detected by an infrared sensor, hence negligence of the miner for not wearing the safety helmet can be avoided. Each sensor used has a threshold value that, if that value is exceeded, it causes the buzzer to activate, signaling the miners and supervisors. Wi-Fi and ThingSpeak is used for the remote transmission of information from coal mine to a central location. This technology may improve the safety and scale back accidents within the coal mines.</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Temperature sensors;Temperature measurement;Head;Safety;Coal mining;Fuel processing industries;Monitoring;Smart Helmet;Coal Mine Safety;Hazard Detection;Remote Monitoring</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10.1109/ColCACI59285.2023.10226144</t>
+          <t>10.1109/ICICIS56802.2023.10430243</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Surendrababu, Hema Karnam</t>
+          <t>Patil, Punam J, Bhole, Manisha, Pawar, Dilip N., Nadgaundi, Swati, Pawar, Reshma, Mhatre, Atharva</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2022 IEEE International Conference on Data Mining (ICDM)</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GraphBERT: Bridging Graph and Text for Malicious Behavior Detection on Social Media</t>
+          <t>Beyond Binary Classification: A Fine-Grained Safety Dataset for Large Language Models</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>548-557</t>
+          <t>64717-64726</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>The development of social media (e.g., Twitter) allows users to make speeches with low cost and broad influence. Thus, social media has become a perfect place for users’ malicious behaviors like committing hate crimes, spreading toxic information, abetting crimes, etc. Malicious behaviors are covert and widespread, with potential relevance regarding topic, person, place, and so on. Therefore, it is necessary to develop novel techniques to detect and disrupt malicious behavior on social media effectively. Previous research has shown promising results in extracting semantic text (speech) representation using natural language processing methods. Yet the latent relation between speeches and the connection between users behind speeches is rarely explored. In light of this, we propose a holistic model named Graph adaption BERT (GraphBERT) to detect malicious behaviors on Twitter with both semantic and relational information. Specifically, we first present a novel and a large-scale corpus of tweet data to benefit both graph-based and language-based malicious behavior detection research. Then, we design a novel model GraphBERT to learn comprehensive tweet and user representation with the integration of both semantic information encoded by transformers (i.e., BERT) and relational information encoded by graph neural network. GraphBERT further leverages a weight adaption BERT module implemented between transformer layers to refine tweet embedding using relational information for malicious tweet classification. Finally, the adapted tweet embedding is used with the initial tweet representation to generate user embedding for malicious user detection. The extensive experiments on the collected Twitter data show that our model outperforms the state-of-the-art baseline methods for both tasks (i.e., malicious tweet classification and malicious user detection).</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>Large Language Models (LLMs) excel in interactive chat scenarios due to their advanced conversational abilities. However, their training process invariably exposes them to a diverse range of harmful or toxic content, posing significant challenges in ensuring that LLM responses align with human ethical values. Consequently, the detection and quantification of adverse content remains a paramount issue in contemporary research. In this paper, we introduce the SAFE dataset, a novel resource designed to advance safety assessment research in LLMs. Our dataset extends beyond the binary categorization of content into “safe” and “unsafe”. Drawing upon human interpretations of safety, we further delineate unsafe content into six granular categories: Sensitivity, Harmfulness, Falsehood, Information Corruption, Unnaturalness, and Deviation from Instructions. This refined classification aims to enhance LLMs’ ability to discern unsafe data more accurately. In total, we have created a dataset comprising 52,340 instruction-response pairs, each annotated with safety meta-tags. Additionally, we have compiled expert comparative assessments for these indicators. We developed a multi-expert rating model trained on the SAFE dataset, designed to evaluate the responses of LLMs across various dimensions. This approach highlights the potential of our dataset in the realm of safety assessment for LLMs. The model’s capability to provide multi-faceted evaluations reflects an advanced understanding of the nuanced requirements in LLM response assessment. We believe this dataset represents a valuable resource for the community, contributing to the safe development and deployment of LLMs. Our findings and resources are poised to fuel future research endeavors in this domain.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Safety;Training;Reliability;Data models;Context modeling;Standards;Sensitivity;Large language models;Large language models;LLM safety;automatic safety score</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10.1109/ICDM54844.2022.00065</t>
+          <t>10.1109/ACCESS.2024.3393245</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Wu, Jiele, Zhang, Chunhui, Liu, Zheyuan, Zhang, Erchi, Wilson, Steven, Zhang, Chuxu</t>
+          <t>Yu, Jia, Li, Long, Lan, Zhenzhong</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>2023 IEEE International Conference on Big Data (BigData)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ANTI-Disinformation: An Adversarial Attack and Defense Network Towards Improved Robustness for Disinformation Detection on Social Media</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5476-5484</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>The prevalence of disinformation, which includes malformation (e.g., cyberbullying) and misinformation (e.g., fake news) in online platforms has raised significant concerns, prompting the need for robust detection methods to mitigate its detrimental impact. While the field of text classification has witnessed notable advancements in recent years, existing approaches often overlook the evolving nature of disinformation, wherein perpetrators employ perturbations to toxic content to evade detection or censorship. To address this challenge, we present a novel framework, Adversarial Network Towards Improved robustness for Disinformation detection (ANTI-Disinformation), which leverages reinforcement learning techniques as adversarial attacks. Additionally, we propose a defense model to enhance model’s robustness against such attacks. To evaluate the effectiveness of our approach, we conduct extensive experiments on well-known disinformation datasets collected from multiple social media platforms. The results demonstrate our approach can effectively produce degradation in existing models’ performance the most, showcasing the effectiveness of our framework and the vulnerability of existing detection systems. The results also exhibit that the proposed defense methods can consistently outperform existing typical methods in constructing robust detection models.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Degradation;Perturbation methods;Text categorization;Cyberbullying;Reinforcement learning;Big Data;Robustness;Disinformation Detection;Adversarial Attack;Adversarial Defense;Model Robustness;Reinforcement Learning</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>10.1109/BigData59044.2023.10386090</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Chen, Kuan-Chun, Chen, Chih-Yao, Li, Cheng-Te</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020 Third International Conference on Advances in Electronics, Computers and Communications (ICAECC)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Toxic Comment Detection using LSTM</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>While online communication media acts as a platform for people to connect, collaborate and discuss, overcoming the barriers for communication, some take it as a medium to direct hateful and abusive comments that may prejudice an individual's emotional and mental well being. Explosion of online communication makes it virtually impossible for filtering out the hateful tweets manually, and hence there is a need for a method to filter out the hate-speech and make social media cleaner and safer to use. The paper aims to achieve the same by text mining and making use of deep learning models constructed using LSTM neural networks that can near accurately identify and classify hate-speech and filter it out for us. The model that we have developed is able to classify given comments as toxic or nontoxic with 94.49% precision, 92.79% recall and 94.94% Accuracy score.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Training;Text mining;Toxicology;Computational modeling;Neural networks;Text categorization;Data models;Hate Speech;Word Embedding;Artificial Neural Networks;LSTM;NLP</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10.1109/ICAECC50550.2020.9339521</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Dubey, Krishna, Nair, Rahul, Khan, Mohd. Usman, Shaikh, Prof. Sanober</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022 International Conference on Distributed Computing, VLSI, Electrical Circuits and Robotics ( DISCOVER)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Identification of Toxicity in MultimediaMessages for Controlling Cyberbullying on Social Media by Natural Language Processing</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>12-18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Speaking hatefully is an antisocial conduct. Hate can be expressed on the basis of gender, race, or religion, ethnic, etc. The definition of “hate speech” is ambiguous. The Hate speech is defined by the Council of the European Union as “any types of expression which disseminate, provoke, or defend intolerance as a reason for racial hatred, xenophobia, antisemitism, or other types of hatred, including violent nationalism and ethnocentrism, as well as prejudice and hatred toward migrants, minorities, and those with immigrant backgrounds. The most pressing issue in recent times in social media and online groups is toxicity identification sites for networking. Therefore, it is necessary to create an automatic hazardous identification system to keep people out of and restrict their access to these online settings. The prevalence of hate speech presents significant difficulties for the cyber culture. Users can wish for social media sites and online forums to support anti-hate discourse. Hate speech detection, however, is still a young technology, and system designers must come up with a way to identify unwanted hate speech while upholding the atmosphere of online freedom of speech. No method for detecting excellence has yet been put forth. Identifying the form of communication is hate speech and automatically recognising the hate speech are the two typical obstacles for a hate speech detection task. People must first decide which kinds of speech fall under the category of hate speech before screening it out. The majority of social media platforms define hate speech differently. In this day and age, Internet is necessary, and ethics has to be followed, however several parties spread hate speech deviating on race, ethnicity, and religion. The user’s freedom and anonymity increase the harassment by hate speech. It also adds lack of regulation on social media communication. Cyber bullying and trolling are two kinds of abusive behaviour.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Toxicology;Hate speech;Bit error rate;Anxiety disorders;Cyberbullying;Speech recognition;Very large scale integration;Natural Language Processing;Artificial Intelligence;Sentic Computing;Cyberbullying;Hate content identification;Toxicity level classification;Multimodal data;BERT</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10.1109/DISCOVER55800.2022.9974631</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Nithyashree, V, Hiremath, Basavaraj N, Vanishree, L, Duvvuri, Aparna, Madival, Disha Anand, Vidyashree, G</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Automatic Generation of Adversarial Readable Chinese Texts</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1756-1770</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Natural language processing (NLP) models are known vulnerable to adversarial examples, similar to image processing models. Studying adversarial texts is an essential step to improve the robustness of NLP models. However, existing studies mainly focus on generating adversarial texts for English, with no prior knowledge that whether those attacks could be applied to Chinese. After analyzing the differences between Chinese and English, we propose a novel adversarial Chinese text generation solution Argot, by utilizing the method for adversarial English examples and several novel methods developed on Chinese characteristics. Argot could effectively and efficiently generate adversarial Chinese texts with good readability in both white-box and black-box settings. Argot could also automatically generate targeted Chinese adversarial texts, achieving a high success rate and ensuring the readability of the generated texts. Furthermore, we apply Argot to the spam detection task in both local detection models and a public toxic content detection system from a well-known security company. Argot achieves a relatively high bypass success rate with fluent readability, which proves that the real-world toxic content detection system is vulnerable to adversarial example attacks. We also evaluate some available defense strategies, and the results indicate that Argot can still achieve high attack success rates.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Perturbation methods;Semantics;Vocabulary;Task analysis;Shape;Robustness;Electronic mail;Natural language processing;generation of adversarial example</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>10.1109/TDSC.2022.3164289</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Liu, Mingxuan, Zhang, Zihan, Zhang, Yiming, Zhang, Chao, Li, Zhou, Li, Qi, Duan, Haixin, Sun, Donghong</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022 IEEE 13th Annual Information Technology, Electronics and Mobile Communication Conference (IEMCON)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Reddit Comment Toxicity Score Prediction through BERT via Transformer Based Architecture</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0353-0358</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hateful and offensive language on social media platforms has a severe influence on users' mental health and engagement of people from various backgrounds. Automatic detection of foul language has traditionally relied heavily on datasets with categorical data. However, the degree of offensiveness of comments varies. The proposed model uses tfidf followed by Ridge Regression,Catboost Regression and BERT followed by dense layers. The study uses a dataset containing Reddit-comments written in English language with precise and calculated values ranging from -1 to 1. Best-Worst Scaling was used to annotate the dataset, a type of comparative annotation that has been found to reduce the biases associated with rating scales. It has been demonstrated that the technique gives extremely accurate offensiveness scores. The proposed method offers user to customize their own threshold of offensiveness. The experiments has been conducted with different n-gram ranges. The result reveals better performance than state of the art.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Toxicology;Social networking (online);Annotations;Bit error rate;Mental health;Transformers;Mobile communication;Reddit;BERT;Toxic Comments;Catboost;Sentiment Analysis;Offensive Language</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>10.1109/IEMCON56893.2022.9946574</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Shounak, Rishi, Roy, Sayantan, Kumar, Vivek, Tiwari, Vivek</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023 5th International Conference on Sustainable Technologies for Industry 5.0 (STI)</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Bengali Cyberbullying Detection in Social Media Using Machine Learning Algorithms</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Social media has become more prevalent and it is now fairly easy to communicate with people online. Social network users have many options to cooperate, interact positively, and exchange information. The same system might create a toxic environment that can create an unpleasant environment for online abuse and bullies. Young adults and celebrities are vulnerable to online abuse more often. That's why cyberbullying should be identified and eliminated from social media because it may significantly lead to psychological as well as emotional suffering. By utilizing Natural Language Processing (NLP), Machine Learning (ML), as well as Deep Learning Models based on Transformers like BERT, we can identify patterns in social media texts used by bullies and create an automated method that can detect abusive texts. In this study, we proposed a reliable machine-learning model for social media cyberbullying detection in the Bengali language. We applied text preprocessing, followed by feature extraction using the TF-IDF vectorizer. Then, we applied 4 ML algorithms and 1 transformer-based pretrained BERT model and evaluated their performances by different performance metrics. Our study found that BERT worked best compared to other algorithms and achieved an accuracy of 90% and an AUC (Area under the ROC Curve) of 0.96.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Measurement;Deep learning;Machine learning algorithms;Cyberbullying;Psychology;Transformers;Feature extraction;Cyberbullying;Bangla bullying detection;Hate speech detection;NLP;Machine learning;BERT</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>10.1109/STI59863.2023.10464740</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Saha, Subrata, Islam, Md. Shamimul, Alam, Md. Mahbub, Rahman, Md. Motinur, Hasan Majumder, Md. Ziaul, Alam, Md. Shah, Hossain, M. Khalid</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022 9th Iranian Joint Congress on Fuzzy and Intelligent Systems (CFIS)</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Intelligent Transmitter : Analysis of Effective parameters on Sensor Response of Gas Transmitter to Enhancement Measurment Accuracy by Intelligent Corrective Model Based on Artificial Neural Network</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1-7</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>As we may know, H2S is a toxic and dangerous gas that mainly can be found in oil fields, drilling rigs, gas separators, petrochemicals etc. It is so dangerous that if it exceeds a specified amount, it will cause physical and respiratory complications or death in some cases. For the time being, a transmitter is used to detect and measure the concentration of H2S gas which the most significant part of it, is the gas sensor. We used an electrochemical sensor to construct the transmitter. Neural networks have been used to investigate the effect of environmental parameters such as temperature and humidity. The network consists of an input layer, a hidden layer and an output layer. The results show that the output of the neural network is well able to follow the actual output. Therefore, changes in temperature and humidity affect the response of the hydrogen sulfide gas transmitter, and this change reduces the accuracy measured by the device. Furthermore, high-precision hydrogen sulfide detection sensors are generally expensive. This finding has important implications for developing robust gas sensors. By using the achieved relationship and considering the effect of temperature and humidity changes, the accuracy of the low-cos sensors can be greatly increased and the cost of producing a hydrogen sulfide transmitter can be greatly reduced.</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Temperature measurement;Temperature sensors;Temperature;Costs;Transmitters;Hydrogen;Humidity measurement;Artificial Neural Network;Intelligent Transmitter;Sensor response;Temperature and Humidity Effect</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>10.1109/CFIS54774.2022.9756483</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Ahad, Mohammad Mohseni, Hamoule, Touba</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023 IEEE 3rd Mysore Sub Section International Conference (MysuruCon)</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Detection of Mental Health Issues and Solution to Online Toxicity using Machine Learning</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1-7</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>In modern times, the use of the internet and social media has greatly increased, leading to the emergence of online toxicity, which can have serious consequences for individuals' mental health. Machine learning techniques can be used to detect mental health issues and address online toxicity. One approach to detecting mental health issues in its early stages is to use machine learning to analyze social media posts and other online content. By training a model on large datasets of labeled text, it is possible to identify patterns and indicators of mental health issues such as depression, anxiety, and stress. To address online toxicity, machine learning can be used to identify and classify toxic content, such as hate speech or cyberbullying. This can be done by training a model on a dataset of labeled toxic and non-toxic content Once the model is trained, it can be used to identify and flag the toxic content in real-time, allowing it to be moderated or removed completely. Overall, the use of machine learning for the detection of mental health issues and the solution to online toxicity can be a powerful tool for promoting mental wellbeing and creating a safer and more positive online environment.</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Training;Sentiment analysis;Analytical models;Toxicology;Machine learning;Mental health;Feature extraction;Machine Learning;Online Toxicity;Depression;Anxiety;Mental Health.</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>10.1109/MysuruCon59703.2023.10396981</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>H K, Parjanya, Hegde, Ramakrishna, Mishra, Nikhil Kumar, Kumar Sandliya, Abhishek, Singh, Anant, S M, Soumyasri</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023 IEEE Colombian Conference on Applications of Computational Intelligence (ColCACI)</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Model Agnostic Approach for NLP Backdoor Detection</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Poisoning training datasets by inserting backdoors into Natural Language Processing (NLP) models can result in model misclassifications with potential adverse impacts such as evasion of toxic content detection systems, fake news publication. A majority of the NLP backdoor defenses focus on model specific defenses. The current work proposes a model agnostic approach for NLP backdoor detection. To this end two metrics are developed to successfully distinguish between clean and poisoned text data samples.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Measurement;Training;Context-aware services;Semantics;Transformers;Natural language processing;Fake news;NLP Backdoors;Backdoor defense;Sentiment Analysis;Data Poisoning</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>10.1109/ColCACI59285.2023.10226144</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Surendrababu, Hema Karnam</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022 IEEE International Conference on Data Mining (ICDM)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>GraphBERT: Bridging Graph and Text for Malicious Behavior Detection on Social Media</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>548-557</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The development of social media (e.g., Twitter) allows users to make speeches with low cost and broad influence. Thus, social media has become a perfect place for users’ malicious behaviors like committing hate crimes, spreading toxic information, abetting crimes, etc. Malicious behaviors are covert and widespread, with potential relevance regarding topic, person, place, and so on. Therefore, it is necessary to develop novel techniques to detect and disrupt malicious behavior on social media effectively. Previous research has shown promising results in extracting semantic text (speech) representation using natural language processing methods. Yet the latent relation between speeches and the connection between users behind speeches is rarely explored. In light of this, we propose a holistic model named Graph adaption BERT (GraphBERT) to detect malicious behaviors on Twitter with both semantic and relational information. Specifically, we first present a novel and a large-scale corpus of tweet data to benefit both graph-based and language-based malicious behavior detection research. Then, we design a novel model GraphBERT to learn comprehensive tweet and user representation with the integration of both semantic information encoded by transformers (i.e., BERT) and relational information encoded by graph neural network. GraphBERT further leverages a weight adaption BERT module implemented between transformer layers to refine tweet embedding using relational information for malicious tweet classification. Finally, the adapted tweet embedding is used with the initial tweet representation to generate user embedding for malicious user detection. The extensive experiments on the collected Twitter data show that our model outperforms the state-of-the-art baseline methods for both tasks (i.e., malicious tweet classification and malicious user detection).</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Adaptation models;Social networking (online);Semantics;Blogs;Bit error rate;Transformers;Data models;Twitter;Graph neural network;BERT;Malicious behavior detection</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>10.1109/ICDM54844.2022.00065</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Wu, Jiele, Zhang, Chunhui, Liu, Zheyuan, Zhang, Erchi, Wilson, Steven, Zhang, Chuxu</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2014 International Symposium on Computer, Consumer and Control</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RP Conversion and Air Quality Evaluation</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>235-238</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>One of the most important issues is indoor air quality in our environment-related. Formaldehyde, ammonia and other toxic substances in interior decoration materials and new furniture is known as a major source of indoor air pollution, indoor air gas into its volatile state. However, it is still using the current measurement tools to accurately estimate a challenge overall air quality. Therefore, the conversion from a region to a point (RP) is developed to evaluate the air quality in this article. Conversion from one area is defined as the first point value. It is the difference between the center and the belief that the threshold interval. In the RP conversion confident interval of the two sensors basic probability function is calculated based on the measurement value sensor of formaldehyde and ammonia sensor. Then, the interval is converted to a particular belief values. After the collision the extent and computing portfolio, the degree of contamination by the maximum probability and belief interval was chosen to represent the results of the integration decision. Compared with the Dempster-Shafer evidential reasoning conversion and weighted fusion method, the experiment proved that the conversion can improve the RP interval faith belief functions separability. In addition, the degree of conflict of evidence greatly reduced, so that the evidential reasoning to proceed.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sensors;Estimation;Cognition;Air pollution;Atmospheric measurements;Pollution measurement;air quality evaluation;RP conversion;AWF Fusion</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>10.1109/IS3C.2014.70</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Wang, Mei, Wang, Liang, Xu, Ningbo, Fu, Zhouxing</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2021 IEEE 6th International Conference on Computing, Communication and Automation (ICCCA)</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Automatic System for Monitoring Landfills SAM-01</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>362-366</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Uncontrolled storage of problematic and toxic waste, respectively, has led in many places to the emergence of areas that pose a danger to the environment and natural resources, as well as to human health. Basically, all over the world countries are dealing with these environmental issues, therefore we have focused our attention on this mandatory objective for contemporary society and for staff working in the field of technical and engineering sciences. Our system, i.e. SAM-01, ensures the monitoring of the gases emitted by waste or household waste left in the arranged or unarranged locations as well as the monitoring of the soil pH in order to prevent the infestation of groundwater with harmful substances. The temperature inside the waste mass is monitored in order to prevent the phenomenon of self-combustion; the soil moisture is also monitored in the possible direction of leakage of harmful substances emanating from the landfill. Both the hardware and software supports of our system are presented in this paper together with further development of SAM-01.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Temperature sensors;Temperature measurement;Wires;Soil moisture;Software;Sensors;Servers;environment;waste;landfill;microcontroller;computer;hardware;software;sensors</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>10.1109/ICCCA52192.2021.9666282</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Ciufudean, Calin, Buzduga, Corneliu</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
           <t>2018 3rd International Conference for Convergence in Technology (I2CT)</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Troll-Detection Systems Limitations of Troll Detection Systems and AI/ML Anti-Trolling Solution</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>1-6</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Trolling is a modern-day vice which has manifested itself in the burgeoning virtual world. As bullying shifts from playgrounds to social media, the need of the hour is having anti-trolling softwares in place to combat this malpractice. Many internet companies have taken steps in this direction by creating softwares or applications that can prevent trolling but none have been completely successful. The word anti-trolling has existed as a concept for a long time. It is necessary to make it a concrete reality. Most of the softwares identify abusive words and simply block them but trolls have found ways to circumvent this obstacle by using clever ways. This paper explores the currently existing “Anti-trolling systems”, their methodologies and technological challenges. In particular, we consider machine learning and existing expert systems that detect and prevent trolls. The paper concludes with a discussion of the issues faced by this technology, the current functioning and a few suggestions along with a modified architecture and the vision of a trolling-free internet.</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr">
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Twitter;Facebook;Tools;Software;Companies;Google;Anti-trolling bot;toxic language;perspective;online abuse;imposter buster;trolls;offensive messages</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
         <is>
           <t>10.1109/I2CT.2018.8529342</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Bhatt, Ushma, Iyyani, Divya, Jani, Keshin, Mali, Swati</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2011 Second International Conference on Mechanic Automation and Control Engineering</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>The network nodes design of gas wireless sensor monitor</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1778-1781</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>This article describes the toxic, flammable software and hardware design methods of gases wireless monitoring network nodes based on sensor array. By collecting signals with gases sensors and receiving and emitting data with wireless sensors network, we can measure the gas concentrations. We describe the toxic and flammable gas concentration measuring circuit and illustrate the theory. We choose the Atmega128 processor to fulfill the hardware design of wireless sensor network nodes, at the same time we select C language to accomplish ZigBee protocol. This system is suitable for detecting of the toxic or flammable gas, and it is easy to integrate with following equipment and controlled. It is beneficial to protect our life and property.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Wireless sensor networks;Monitoring;Wireless communication;Gases;Microprocessors;Zigbee;Radio frequency;wireless sensor network;ZigBee nodes;gas monitoring;wireless transmission</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>10.1109/MACE.2011.5987304</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Wang, Li-zhong, Zhang, Gang, Liu, Hong-bo, Hang, Tao</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023 14th International Conference on Computing Communication and Networking Technologies (ICCCNT)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>HSDH: Detection of Hate Speech on social media with an effective deep neural network for code-mixed Hinglish data</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>The phenomenal rise of social media platforms like Twitter, Facebook, Instagram, and Reddit has led to the blending of native languages or regional tongues with English for the purpose of improving communication in linguistically open geographic regions around the world. There are many ways in which Holocaust denial can lead to an increase in violence, from direct assault to purging out of compassion. Online, people are very hostile to one another. Distinguishing between language that incites hatred and language that is disparaging is a fundamental challenge in the categorization and tracking of extremely toxic lexical features. Our research focuses on identifying harmful tweets composed in Hinglish, a fusion of Hindi and the Roman alphabet. We propose a system in this paper for classifying tweets as either abusive, neutral, or offensive. The help of Hindi-English offensive tweet dataset is comprised of tweets written in the code-transferred language of Hindi and is further subdivided into three groups: neutral, abusive, and hateful. We studied the abusive and hate speech dataset with transfer learning and pre-trained the proposed model on Hinglish-processed English tweets. With our proposed model, we were able to improve accuracy to 98.54 percent.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Social networking (online);Computational modeling;Hate speech;Transfer learning;Multimedia Web sites;Blogs;Artificial neural networks;Hate Speech;Social Media;Deep Neural Network;Classification</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>10.1109/ICCCNT56998.2023.10306709</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Kumar Kaliyar, Rohit, Goswami, Anurag, Sharma, Ujali, Kanojia, Kanika, Agrawal, Mohit</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023 IEEE International Conference on ICT in Business Industry &amp; Government (ICTBIG)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Toxicity Tweet Detection and Classification Using NLP Driven Techniques</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>The use of social media is increasing regularly. Unethical things like defamation, spreading hatred, pornography, etc are becoming easier for some irresponsible users because of the easy accessing and due to similarity of social media. In this view, this study has been carried out to use machine learning techniques to classify comments into their hazardous categories. In order to categorize a comment based on its toxicity, this research compares classic machine learning methods with deep learning methods including Logistic Regression, SVM, RNN, and LSTM. To compare the performance of the models, four distinct models are developed, put into use, and trained on a common dataset. These models were developed and evaluated using sizable amounts of secondary qualitative data that included several comments that were either labeled as harmful or not. Results showed that employing LSTM, a satisfactory accuracy of 90.7% and an F1- score of 0.94 were obtained.</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Support vector machines;Deep learning;Logistic regression;Toxicology;Social networking (online);Text categorization;Government;Long-Short Term Memory;Recurrent Neural Network;Text mining;Toxic text classification;Text classification</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>10.1109/ICTBIG59752.2023.10456026</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Pal, Anuj Kumar, Rai, Sakshi</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2019 International Conference on Intelligent Computing and Control Systems (ICCS)</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Detecting Hate Speech in Tweets Using Different Deep Neural Network Architectures</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>923-926</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>One of the major problems, apparent in online social media, is the toxic online content. This has continued unabated, as people from diverse cultural backgrounds access the Internet, concealing their identity under the cloud of anonymity. Deep neural networks have been employed to detect hate speech from online content. This paper describes three different Deep Neural Network (DNN) Architectures for detection of hate words in Twitter - Gated Recurrent Unit (GRU), useful in capturing sequence orders, Convolution Neural Network (CNN), good for feature extraction, and Universal Language Model Fine-tuning (ULMFiT) model, which is based on transfer learning technique. ULMFiT model uses the DNN Architecture called Average-SGD Weight-Dropped Long Short Term Memory (AWD-LSTM). AWD -LSTM model was pre-trained using WikiText103 dataset. This method significantly outperformed the other Architectures.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Computational modeling;Neural networks;Conferences;Computer architecture;Voice activity detection;Convolution;Feature extraction;DNN;CNN;GRU;ULMFiT;Hate words;Classification</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>10.1109/ICCS45141.2019.9065763</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Amrutha, B R, Bindu, K R</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020 IEEE/ACM 42nd International Conference on Software Engineering: New Ideas and Emerging Results (ICSE-NIER)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Stress and Burnout in Open Source: Toward Finding, Understanding, and Mitigating Unhealthy Interactions</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>57-60</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Developers from open-source communities have reported high stress levels from frequent demands for features and bug fixes and from the sometimes aggressive tone of these demands. Toxic conversations may demotivate and burn out developers, creating challenges for sustaining open source. We outline a path toward finding, understanding, and possibly mitigating such unhealthy interactions. We take a first step toward finding them, by developing and demonstrating a measurement instrument (an SVM classifier tailored for software engineering) to detect toxic discussions in GITHUB issues. We used our classifier to analyze trends over time and in different GITHUB communities, finding that toxicity varies by community and that toxicity decreased between 2012 and 2018.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Support vector machines;Toxicology;Sustainable development;Stress;Open source software;Software development management;Software engineering;toxicity;open source;github;community;sustainability;oss;classifier</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Raman, Naveen, Cao, Minxuan, Tsvetkov, Yulia, Kästner, Christian, Vasilescu, Bogdan</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024 4th International Conference on Intelligent Technologies (CONIT)</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Domain Specific Embeddings in RNN Frameworks for Hate Span Detection and Classification</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>The unrestricted use of the internet has led to a significant rise in the dissemination of hate speech online, posing serious threats of harm and violence to individuals and society at large. Social media data often comprises informal and fragmented sentences, interspersed with multiple languages. While numerous researchers are dedicated to identifying and mitigating hate speech in social media content, existing approaches primarily focus on detecting hate speech as a whole, rather than targeting specific hateful words or phrases. To encourage research in this direction, a shared task was formulated during SemEval 2021, a task called Toxic Span Identification, to detect hateful words present in a sentence. Leveraging the dataset provided by the organizers of the task, our approach entails constructing a model comprising three fundamental layers: feature extraction, a Bidirectional Long Short-Term Memory (BiLSTM) layer, and at last, a Conditional Random Field (CRF) layer. Among various embedding techniques, we found that GloVe embeddings yielded superior results with our base model, achieving an F1 score of ${6 1. 2 3 \%}$ when combined with dropout layer. Further Toxic BERT and HateBERT models were used to classify the comments as hateful or non-hateful, HateBERT outperformed the Toxic BERT model.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Recurrent neural networks;Social networking (online);Hate speech;Bidirectional control;Feature extraction;Encoding;Conditional random fields;GloVe;hatespans;HateBERT;ToxicBERT;BiLSTM;CRF</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>10.1109/CONIT61985.2024.10626508</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Rachh, Rashmi, Kavatagi, Sanjana, Allagi, Shridhar</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2021 29th Conference of Open Innovations Association (FRUCT)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Multilingual Sentiment Analysis and Toxicity Detection for Text Messages in Russian</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>In this paper, we discuss an approach to sentiment analysis and emotion identification for user comments. The solution is threefold: 1) topic detection, 2) sentiment evaluation, 3) toxicity detection and toxic spans localization. The lack of significantly large training data for the Russian language is handled by utilizing multilingual word embeddings, the adversarial domain adaptation model, and data augmentation. We present an overview of various preprocessing pipelines for topic modeling and highlight the LDA- Mallet model which demonstrates the best performance. For sentiment analysis and toxicity detection, we examine the efficacy of a support vector machine and a deep neural network with a multilingual language model and adversarial domain adaptation that allows us to train algorithms with datasets in the English language. All methods are tested with a dataset of user comments to various online-courses and adjusted to provide support for the development of a virtual dialogue assistant for conducting virtual exams.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Training;Support vector machines;Sentiment analysis;Adaptation models;Technological innovation;Toxicology;Pipelines</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>10.23919/FRUCT52173.2021.9435584</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Bogoradnikova, Darya, Makhnytkina, Olesia, Matveev, Anton, Zakharova, Anastasia, Akulov, Artem</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023 5th International Conference on Inventive Research in Computing Applications (ICIRCA)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Multi-Label Toxicity Detection: An Analysis</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1131-1136</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Everybody has the freedom and flexibility to express their opinions and ideas through social networking and online discussion platforms. However, individuals are dealing with circumstances where the vast majority takes these networks casually and misuses them as a way to abuse and threaten others, which can result in cyberattacks, cyberbullying, nightmares, and, in severe cases, suicidal attempts. Such statements must be manually identified and classified, which is a time-taking, exhausting, and unreliable process. This research examines thetoxicity of remark and also investigate the sort of toxicity, categorize the comments into various labels if they are toxic. This research work will also compare various existing machine learning algorithms on the dataset named Toxic Comment Classification Challenge imported from Kaggle that contains 15000 comments. Machine Learning, Deep Learning and Natural Language Processing lend a helping hand in reducing the poisonous environment that exists on numerous discussion forums.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Support vector machines;Deep learning;Toxicology;Machine learning algorithms;Discussion forums;Neural networks;Static VAr compensators;Cyber Attacks;Cyber Bullying;Machine Learning;Deep Learning;Natural Language Processing</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>10.1109/ICIRCA57980.2023.10220812</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Priya, Parul, Gupta, Payal, Goel, Rupesh, Jain, Vishal</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022 5th International Conference on Advances in Science and Technology (ICAST)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>A Neuro-NLP Induced Deep Learning Model Developed Towards Comment Based Toxicity Prediction</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>94-99</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>The comments sections of online forums and social media platforms have become the new playing field for cyber harassment. Correspondingly, various organizations and companies have decided to abolish toxic and nasty comments altogether to avoid this kind of issue. To protect authorized and genuine users from being exposed to comments which contain offensive language on online mediums or social media platforms, organizations have started flagging such comments and they are blocking those users who are using unpleasant forms of language. Most of the organizations use computerized algorithms for instinctive discovery of comment toxicity using machine learning and artificial intelligence based systems. In the present research study, we have tried to build multi headed comment toxicity detection models. We have built three toxicity detection models using deep learning techniques and compared the accuracy and results. We have also developed a menu driven interface which will help to link machine learning models which is uncomplicated for non programmers and this connection of model to interface will be convenient for making interactive programming interfaces with great accuracy and operationality.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Deep learning;Toxicology;Machine learning algorithms;Social networking (online);Computational modeling;Buildings;Companies;toxic comment classification;deep learning;sequential;nlp;lstm;cnn;tensorflow;keras;machine learning</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>10.1109/ICAST55766.2022.10039597</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Ashok, Kulaye Shreyal, Ashok, Kulaye Aishwarya, Naseem, Shaikh Mohammad Bilal</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2012 IEEE International Conference on Systems, Man, and Cybernetics (SMC)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>NL-based communication with firefighting robots</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1461-1466</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Firefighters put themselves in harm's way while saving others and may even lose their lives in certain situations, such as toxic fumes, extreme heat, or inhaling smoke. In order to protect firefighters from the risks and, at the same time, to save others' lives, firefighting and firefighter assistant robots have been developed. This paper will compare different firefighting and firefighter assistant robots and their functionalities. The main thrust of the paper, however, is to discuss the transition from tele-operated robots first to voice-operated and, eventually, to fully autonomous ones, which is where robotic intelligence resides. We will introduce HARMS, the human-agent-robot-machine-sensor collaborative effort, and explain why using natural language as the basis of their communication is not only optimal but also feasible and affordable with the Ontological Semantic Technology.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>firefighting robots;firefighter assistant robots;robotic intelligence;natural language communication for robots;Ontological Semantic Technology</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>10.1109/ICSMC.2012.6377941</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Hong, Ji Hyeon, Min, Byung-Cheol, Taylor, Julia M., Raskin, Victor, Matson, Eric T.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ICASSP 2024 - 2024 IEEE International Conference on Acoustics, Speech and Signal Processing (ICASSP)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Voice Toxicity Detection Using Multi-Task Learning</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>331-335</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Social communication systems must identify toxic voice audio to support moderation that protects the safety and civility of their communities. Toxicity classification for voice depends on both audio style, such as volume and tone, and content, such as the words in the speech individually and in context. We introduce a novel end-to-end multi-task learning (MTL) paradigm for audio-based toxicity detection, addressing the challenges associated with existing automatic speech recognition (ASR) and text-based systems. By employing a hard parameter-sharing backbone and flexible soft-attention task adapters, our model performs two tasks: a multi-label toxicity classification task that targets specific categories of toxic behavior, and an auxiliary Audio to Keyword detection task that focuses on transcribing only toxic keywords, thereby enhancing computational efficiency and complementing classification output. We observe that the classifier significantly improves the quality of keyword detection. We also contribute a data pipeline for automated offline labeling of training sets.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Training;Performance evaluation;Toxicology;Computational modeling;Pipelines;Signal processing;Multitasking;Toxicity Detection;Multi-task Learning;Speech Recognition;Audio to Keyword Detection</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>10.1109/ICASSP48485.2024.10448289</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Kumar Nandwana, Mahesh, He, Yifan, Liu, Joseph, Yu, Xiao, Shang, Charles, Du Bois, Eloi, McGuire, Morgan, Bhat, Kiran</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr"/>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Cultural Insights in Souls-Like Games: Analyzing Player Behaviors, Perspectives, and Emotions Across a Multicultural Context</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>758-769</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Souls-like games are one of the most popular and emerging genres in the contemporary gaming world. This study compared the behavioral characteristics, perspectives, and emotional expressions of players in Souls-like games from different cultural backgrounds, specifically examining the distinctions and commonalities among them. Natural language processing techniques were employed to analyze English, Chinese, and Russian reviews of 17 Souls-like games to investigate players' gaming experiences, including gameplay behaviors, game evaluations, and emotional experiences. The findings revealed significant disparities among players from different cultures in all three aspects of their engagement with Souls-like games. Specifically, these players exhibited significant culture-related variations in their behavioral characteristics toward Souls-like games. In terms of perspectives, English-speaking players tended to focus more on game optimization, whereas Chinese and Russian players paid greater attention to game combat design. Regarding emotional expressions, Chinese players were more prone to exhibit emotions of anger and disgust, while English and Russian players displayed a more neutral emotional stance. These cultural insights provide valuable information for game developers to better meet the needs and expectations of players from different cultural backgrounds. This study not only broadens our understanding of player behaviors and cultural influences but also lends robust support to cross-cultural gaming research.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Games;Cultural differences;Behavioral sciences;Social networking (online);Video games;History;Emotion recognition;Cultural difference;emotion detection;game reviews;human factors in games;Souls-like games;topic modeling</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>10.1109/TG.2024.3366239</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Pan, Sicheng, Xu, Gary J. W., Guo, Kun, Park, Seop Hyeong, Ding, Hongliang</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr"/>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>UEF-HOCUrdu: Unified Embeddings Ensemble Framework for Hate and Offensive Text Classification in Urdu</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>21853-21869</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Hate speech and other forms of hostile communication on social media have several implications such as; fostering violence, promoting social divide, and negative psychological effects. Since such toxic language is becoming more and more common, it is imperative to have a proper way of identifying it, especially in low resource language like Urdu. To meet this challenge, this research proposed a new ensemble based multi-classification model and generated new dataset of 36,000 Urdu tweets categorized as ‘Hate’, ‘Offensive’ and ‘Neither’. This study sought to create a model that not only achieves a high classification accuracy but also overcome key challenges inherent in natural language processing, namely, high dimensionality, sparsity, overfitting, OOV words and dialectal variations. For this purpose, an extensive comparison of different learning algorithms were conducted. As a result, the most efficient models, namely FastText, XLM-RoBERTa, ULMFiT, and XGBoost were incorporated in the proposed ensemble approach to achieve the best results in both classification and mitigation of NLP issues. To further enhance the confidence in proposed model, a stratified 5-fold cross-validation technique has been utilized. The ensemble model performed the best and achieved macro F1 score of 0.94, complemented by comprehensive labeled dataset focusing on hate and offensive speech in Urdu. By addressing key research gaps, this research provides a valuable foundation for future work and benchmarking in Urdu hate speech multi-classification tasks.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Hate speech;Text categorization;Machine learning;Deep learning;Context modeling;Transfer learning;Multilingual;Data models;Cyberbullying;Cultural differences;Urdu hate speech detection;Urdu multi-class classification;machine learning;deep learning;transfer learning;ensemble learning model;natural language processing (NLP)</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>10.1109/ACCESS.2025.3532611</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Ullah, Kifayat, Aslam, Muhammad, Khan, Muhammad Usman Ghani, Alamri, Faten S., Khan, Amjad Rehman</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023 3rd International Conference on Innovative Research in Applied Science, Engineering and Technology (IRASET)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Social Media's Toxic Comments Detection Using Artificial Intelligence Techniques</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cyberbullying takes its place in social media and has increased throughout the past few years. The damage that cyberbullying has on the users is undeniable they get attacked either on their appearances, ethnicities, religions, and even their thoughts and personal opinion. The attack causes these users anxiety, depression, low self-esteem, and in the worst scenarios suicide. These harmful actions toward the users drive researchers to identify and detect cyberbullying to fight it. Unfortunately, most of the previous approaches were on English texts, hardly any on other languages. This paper presents a cyberbullying detection system in the Moroccan dialect on an Instagram-collected dataset. The experiment results gave accuracies of around 77% to 91% from both the ML and DL algorithms. The LSTM model gave the best outcome by 91.24% outperforming the ML models.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Anxiety disorders;Cyberbullying;Depression;Artificial intelligence;toxicity;social media;deep learning;machine learning;cyberbullying;Instagram;Moroccan dialect;natural language processing</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>10.1109/IRASET57153.2023.10153015</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Rachidi, Rabia, Ouassil, Mohamed Amine, Errami, Mouaad, Cherradi, Bouchaib, Hamida, Soufiane, Silkan, Hassan</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2019 2nd International Conference on Innovation in Engineering and Technology (ICIET)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Toxicity Detection on Bengali Social Media Comments using Supervised Models</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Social media playing an indispensable role in our daily life providing a public platform to share opinions including threats, spam and vulgar words often referred to as toxic comments. This type of expression depicts the anti-social behavior of the commentators which may hamper the online atmosphere. Filtering such toxic comments by handcrafting rules is cumbersome because they are unstructured and often include misspelled obscene words. Automated machine learning-based models to classify such toxic comments constitute a part of Sentiment Analysis and they are extensively used for the English language; showing promising results than statistical models. Though Bengali is a widely spoken language around the globe, little research works have been done to detect toxic comments in this language. Hence in this scholarly manuscript, we provide a comparative analysis of five supervised learning models (Naive Bayes, Support Vector Machines, Logistic Regression, Convolutional Neural Network, and Long Short Term Memory) to detect toxic Bengali comments from an annotated publicly available dataset. As our research finding, we demonstrate that both the deep learning-based models have outperformed other classifiers by 10% margin where Convolutional Neural Network achieved the highest accuracy of 95.30%.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Social networking (online);Toxicology;Feature extraction;Analytical models;Task analysis;Support vector machines;Computer architecture;Text Classification;Machine Learning;Natural Language Processing</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>10.1109/ICIET48527.2019.9290710</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Banik, Nayan, Rahman, Md. Hasan Hafizur</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022 International Conference on Machine Learning, Computer Systems and Security (MLCSS)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Challenges and Approaches of Code-mixed Hate Speech Detection</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>290-295</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>The online platform and social media are very eye catchy for internet users. Platforms like YouTube, Twitter, Instagram, etc., are higher in demand due to their brilliant services. Users of these sights frequently comment on others' posts which may contain toxic speech. Some platforms also raise concerns about emerging of this activity. As the increase of hate speech is just next to impossible to control, the need to detect these contents through automated hate speech detection technologies arises. In this work, we focused on multi-lingual issues, especially Indo-European code-mixed languages. At first, we identified some issues related to code-mixed Indian languages. Then, we focused on the available solutions to this problem. We have gone through the works performed on machine learning and deep learning techniques and identified the limitations of those works. We have analyzed the present solutions and gone through the comparative studies of those. Our implementation is conducted on code-mixed twitter datasets providing several perceptions on hate speech. We have performed the experimental work on HASOC 2021 dataset. Our work contributes to the field of hate speech detection by comparing feature extraction and classifier algorithms (Machine Learning and Deep Learning). More specifically, the proposed work aimed at distinguishing Hate and Non-Hate speech from normal text.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Deep learning;Video on demand;Machine learning algorithms;Social networking (online);Hate speech;Blogs;Multimedia Web sites;Hate Speech;Code-mixed;Feature Extraction;Machine Learning and Deep Learning</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>10.1109/MLCSS57186.2022.00060</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Dash, Swayam Samparna, Kar, Nikunja Bihari</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020 27th Asia-Pacific Software Engineering Conference (APSEC)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>A Benchmark Study of the Contemporary Toxicity Detectors on Software Engineering Interactions</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>218-227</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Automated filtering of toxic conversations may help an Open-source software (OSS) community to maintain healthy interactions among the project participants. Although, several general purpose tools exist to identify toxic contents, those may incorrectly flag some words commonly used in the Software Engineering (SE) context as toxic (e.g., `junk', `kill', and `dump') and vice versa. To encounter this challenge, an SE specific tool has been proposed by the CMU Strudel Lab (referred as the `STRUDEL' hereinafter) by combining the output of the Perspective API with the output from a customized version of the Stanford's Politeness detector tool. However, since STRUDEL's evaluation was very limited with only 654 SE text, its practical applicability is unclear. Therefore, this study aims to empirically evaluate the Strudel tool as well as four state-of-the-art general purpose toxicity detectors on a large scale SE dataset. On this goal, we empirically developed a rubric to manually label toxic SE interactions. Using this rubric, we manually labeled a dataset of 6,533 code review comments and 4,140 Gitter messages. The results of our analyses suggest significant degradation of all tools' performances on our datasets. Those degradations were significantly higher on our dataset of formal SE communication such as code review than on our dataset of informal communication such as Gitter messages. Two of the models from our study showed significant performance improvements during 10-fold cross validations after we retrained those on our SE datasets. Based on our manual investigations of the incorrectly classified text, we have identified several recommendations for developing an SE specific toxicity detector.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Degradation;Toxicology;Detectors;Switches;Tools;Software reliability;Software engineering;toxicity;chat;code review;developer communication;benchmark;rubric</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>10.1109/APSEC51365.2020.00030</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Sarker, Jaydeb, Turzo, Asif Kamal, Bosu, Amiangshu</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024 8th International Conference on Inventive Systems and Control (ICISC)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Predicting Hate Words and Offensive Language: A Machine Learning Approach</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>205-210</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>The internet has led to a significant increase in the amount of information available, which has resulted in the rise of online communication among users. Unfortunately, this has also resulted in the proliferation of toxic online texts, which can lead to bullying, harassment, and personal attacks. While there have been attempts to develop efficient models for predicting toxic comments online, the field is still in its nascent stage, hence new frameworks and strategies are needed to address this issue. Convolutional Neural Networks (CNNs) are a promising solution for text classification due to recent advancements in hardware and big data management. Additionally, the increasing amount of data available necessitates the development of novel machine learning tools for managing this information. This study compares CNNs with the traditional bag-of-words approach as well as more efficient methods for text classification. The results demonstrate that CNNs outperform the conventional method in classifying harmful comments, indicating the approach’s potential for further research in this field. This work highlights the importance of developing innovative strategies to combat online toxicity and provides insight into how deep learning techniques can be used for text classification.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Text mining;Industries;Deep learning;Toxicology;Text categorization;Predictive models;Control systems;Text Mining;Toxic Text Classification;Toxicity Detection;CNN;Deep Learning</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>10.1109/ICISC62624.2024.00042</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sugandhi, K, Reddy, R. Uday Kumar, Reddy, K. Ravi Kiran, Reddy, B. Balla</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023 APWG Symposium on Electronic Crime Research (eCrime)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Hacker's Paradise: Analysing Music in a Cybercrime Forum</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1-14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Underground cybercrime forums have numerous discussion boards where users interact with each other. The majority of the topics revolve around technology, but a substantial number also discuss everyday topics and interests, including music. The aim of this research is to analyse the musical content posted on a large English-language underground forum to understand what types of musical content is shared, if the lyrics glamorise cybercrime, and if those who post musical content also post more about criminal activity. We find little evidence of the glamorisation of cybercrime. However, lyrics often depict a ‘gangster’ lifestyle, including the promotion of violence. We find that users who post on music boards post significantly less criminal content elsewhere on the forum, however when broken down by crime type they are significantly more likely to post about eWhoring and trading credentials than other forum users. We evaluate the performance of Google's Perspective API in detecting toxic content in music lyrics. We find the toxicity classifier was able to detect toxic speech to an extent, but was not particularly reliable. In exploring this further, we find a bug, in that the classifier only takes the first 501 characters as input, providing a way to evade the detection of toxic content. Content Warning: This research paper contains example forum posts, which contain graphic/explicit language that some readers might find upsetting. Please contact the author if you would prefer to read the article with toxic content removed.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Toxicology;Computer hacking;Computer bugs;Music;Internet;Reliability;Computer crime;cybercrime;music;underground forums;natural language processing</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>10.1109/eCrime61234.2023.10485503</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Talas, Anna, Hutchings, Alice</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020 26th Conference of Open Innovations Association (FRUCT)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Avoiding Unintended Bias in Toxicity Classification with Neural Networks</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>314-320</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>The growing popularity of online platforms that allow users to communicate with each other, exchange opinions about various events and leave comments, has contributed to the development of natural language processing algorithms. Tens of millions of messages per day published by users of a certain social network must be analyzed in real time for moderation to prevent the spread of various illegal or offensive information, threats and other types of toxic comments. Of course, such a large amount of information can be processed quite quickly only automatically. That is why it is necessary to find a way to teach a computer to “understand” a text written by a man. It is a non-trivial task, even if the word “understand” here means only to detect or classify. The rapid development of machine learning technologies has led to the widespread adoption of new algorithms. Many tasks that for years were considered almost impossible to solve using computer now can be successfully solved with deep learning technologies. In this article, the author presents modern approaches to solving the problem of toxic comments detection using deep learning technologies and neural networks. The author introduces two state-of-theart neural network architectures and also demonstrates how to use a contextual language representation model to detect toxicity. Furthermore, in this article will be presented the results of the developed algorithms, as well as the results of their ensemble, tested on a large training set, gathered and marked up by Google and Jigsaw.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Training;Deep learning;Technological innovation;Toxicology;Social networking (online);Training data;Predictive models</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>10.23919/FRUCT48808.2020.9087368</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Morzhov, Sergey</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023 IEEE International Conference on Industry 4.0, Artificial Intelligence, and Communications Technology (IAICT)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Multi-Label Classification of Indonesian Online Toxicity using BERT and RoBERTa</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>143-149</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Online toxicity detection in Indonesian digital interactions poses a significant challenge due to the complexity and nuances of language. This study aims to evaluate the effectiveness of the BERT and RoBERTa language models, specifically IndoBERTweet, IndoBERT, and Indonesian RoBERTa, for identifying toxic content in Bahasa Indonesia. Our research methodology includes data collection, dataset pre-processing, data annotation, and model fine-tuning for multi-label classification tasks. The model performance is assessed using macro average of precision, recall, and F1-score. Our findings show that IndoBERTweet, fine-tuned under optimal hyperparameters (5e-5 learning rate, a batch size of 32, and three epochs), outperforms the other models with a precision of 0.85, recall of 0.94, and an F1-score of 0.89. These findings indicate that IndoBERTweet performs better in detecting and classifying online toxicity in Bahasa Indonesia. The study ’s implications extend to fostering a safer and healthier online environment for Indonesian users, while also providing a foundation for future research exploring additional models, hyperparameter optimizations, and techniques for enhancing toxicity detection and classification in the Indonesian language.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Toxicology;Bit error rate;Data collection;Hyperparameter optimization;Data models;Communications technology;Fourth Industrial Revolution;Online toxicity;Bahasa Indonesia;Multi-label classification;IndoBERTweet;IndoBERT;Indonesian RoBERTa;Macro Average F1-score</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>10.1109/IAICT59002.2023.10205892</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Sagama, Yoga, Alamsyah, Andry</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023 4th International Conference on Signal Processing and Communication (ICSPC)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Deep Neural Networks based Detection and Analysis of Fake Tweets</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>56-61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Social networking is a wedge for interchanging thoughts, individual perspectives and views but without adversely affecting the sentimental, religious, or maybe private thoughts of the group. Furthermore, the spread of fake news flashes continues to be a pattern on social networking. This paper discusses a hybrid method used towards the control over this kind of ill intentions by developing a method that analysis and also detects posts, toxic comments, or fake news inside any multimedia or text format. This particular paper will help to identify the precision of fake news utilizing Deep Neural Networks. News articles extracted from Twitter is represented as embedding vectors. The hybridized Convolutional Neural Network and LSTM (Long-Short Term Memory) framework is built to learn the contextual dependencies between the words present in news articles. We compare many methods for detecting fake news. The Natural Language Interference (NLI) designs may also be qualified. The information compilation, interpretation, and then tests procedure are clarified completely along with existing different study analyses in the identity of linguistic variants to come down with truthful and false information. Next, we check as well as train a pair of learning breakthroughs to produce exact fake information detectors.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Deep learning;Support vector machines;Radio frequency;Social networking (online);Neural networks;Signal processing algorithms;Feature extraction;fake news;lstm;deep learning;natural language interference;artificial intelligence</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>10.1109/ICSPC57692.2023.10125815</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Mareeswari, G, Dinesh, Erana Veerappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023 IEEE International Students' Conference on Electrical, Electronics and Computer Science (SCEECS)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Arduino Based Bluetooth Voice-Controlled Robot Car and Obstacle Detector</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1-5</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>A machine is required when humans would like to work in different environmental conditions, such as toxic material, remote handling of bombs, health conditions, and sewage treatment. The paper aims to build a robot car that monitors the human voice's movement and senses distant objects. The L298N board, HC-05, Arduino Uno microcontroller, ultrasonic sensor, battery, and jumping wires are included in this system. The robot movement and control system is used by the speaker to allow the robot to react to any speaker command that gives any verbal instruction that produces sound frequencies of the human voice. Through the software application, the user of a robotic car will choose the route or path to control the movement of the car. The user can monitor the robot's movements on his own smart device and allow the car to drive in his own way. In this method, a microcontroller with android devices is linked through a bluetooth module to receive desired voice commands. The robot then escapes obstacles and detects distant objects. The android application that is used to convert a voice to a text command and then transmit data to a microcontroller moves the robot via a voice application according to the user's command. After receiving the command, the robot moves in left, right, forward, and backward directions. This device tried to alert workers to the possibility of a terrorist attack in a military camp.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bluetooth;Microcontrollers;Wires;Robot sensing systems;Software;Acoustics;Autonomous automobiles;Arduino Uno;L298N;Bluetooth (HC-05);Ultrasonic sensor (HC-SR04)</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>10.1109/SCEECS57921.2023.10063092</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Sissodia, Rajeshwari, Rauthan, ManMohan Singh, Barthwal, Varun</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2021 International Conference on Innovative Practices in Technology and Management (ICIPTM)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Injurious Comment Detection and Removal utilizing Neural Network</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>165-168</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>There are a lot of ways to communicate in this cyber world. With this increasingly growing era there is also much obstruction in a safe and secure environment. There has been an exponential growth in cyber bullying and abusing. Deep learning methods have recently begun to be used to detect abusive comments made in online forums. Detecting, and classifying, online abusive language is a non-trivial NLP challenge because online comments are made in a wide variety of contexts, and contain words from many different formal and informal lexicons. For this to overcome we design a model that detects the level of toxicity in a message and replaces it with another phrase. It uses a Deep Neural network model that takes a message/comment as an input and checks for various parameters such as Toxic, Severe Toxic, Identity hate, threat, etc. And the application finally then replaces the portion with another word/phrase. Examining things, you care about can be troublesome. The danger of misuse and provocation online implies that numerous individuals quit communicating and offer up on looking for changed thoughts. Stages battle to adequately encourage discussions, driving numerous networks to restrict or totally shut down client remarks.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Deep learning;Toxicology;Neural networks;Graphical user interfaces;Deep learning;NLP;Neural network;Comment Detection</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>10.1109/ICIPTM52218.2021.9388331</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Wadhwani, Abhishek, Jain, Priyank, Sahu, Shriya</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2021 IEEE International Conference on Systems, Man, and Cybernetics (SMC)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Automatic Misogyny Detection in Social Media Platforms using Attention-based Bidirectional-LSTM</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2706-2711</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>The important growth of social media and online gaming sites in recent years have increased the challenge of online moderation to keep the internet safe and without toxic content. Today, machine learning techniques play an important role in detecting inappropriate content and help moderate online interaction. Text classification using Natural Language Processing (NLP) methods has been extensively studied using deep learning models and transformers which have shown impressive results. Despite this, specific classification tasks on limited datasets still need to be improved. In this paper, we propose an approach based on an Attention-Based Bidirectional LSTM model and a combination of custom features to enhance automatic misogyny identification (AMI) on social media. We present a multi-lingual study of the phenomena by carrying out different classification experiments. Our study focuses on selecting most important features to improve the model for misogyny detection. The proposed model outperforms many state-of-the-art approaches across multiple datasets.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Deep learning;Social networking (online);Conferences;Text categorization;Focusing;Transformers;Feature extraction</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>10.1109/SMC52423.2021.9659158</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Rahali, Abir, Akhloufi, Moulay A., Therien-Daniel, Anne-Marie, Brassard-Gourdeau, Eloi</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2017 International Carnahan Conference on Security Technology (ICCST)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Complex safety study of intelligent multi-robot navigation in risk's environment</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>The issue investigated in this paper concerns navigation, survey / control and the complexity associated with a mobile multi-robot coordination and cooperation in a complex environment (robotic analysis laboratory), which is little or no known with significant industrial risks, in the presence of human and machines. This group of mobile robots is mainly used to move chemical products, which can lead dangerous accidents (toxic, flammable, explosive ...) between the different rooms of the laboratory. The objective of our study is to ensure a good precision in the robots navigation in order to optimize human efforts, reduced error and establishment safety while keeping an eye on robots with good functioning and a desired production. In the literature there are several risk analysis techniques. Among the most used techniques in robotics, the FMEA method (failure modes, effects and criticality analysis). We applied the FMEA method on one robot. Then, the FTA (Fault Tree Analysis) method was chosen to generalize dependability study on all robots. Finally, to manage this level of complexity, a control architecture based on controllers' decomposition into a set of elementary behaviors / controllers (obstacles avoidance and collision between robots, attraction to a target, planning ...) was proposed.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>C# languages;FMEA;Multi-mobile robots system;Navigation control/command;Risks analysis;Safety level;Simulator</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>10.1109/CCST.2017.8167809</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Bensaci, Chaima, Zennir, Youcef, Pomorski, Denis, Mechhoud, El-Arkam</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2021 Third IEEE International Conference on Trust, Privacy and Security in Intelligent Systems and Applications (TPS-ISA)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Can pre-trained Transformers be used in detecting complex sensitive sentences? - A Monsanto case study</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>90-97</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Each and every organisation releases information in a variety of forms ranging from annual reports to legal proceedings. Such documents may contain sensitive information and releasing them openly may lead to the leakage of confidential information. Detection of sentences that contain sensitive information in documents can help organisations prevent the leakage of valuable confidential information. This is especially challenging when such sentences contain a substantial amount of information or are paraphrased versions of known sensitive content. Current approaches to sensitive information detection in such complex settings are based on keyword-based approaches or standard machine learning models. In this paper, we wish to explore whether pretrained transformer models are well suited to detect complex sensitive information. Pretrained transformers are typically trained on an enormous amount of text and therefore readily learn grammar, structure and other linguistic features, making them particularly attractive for this task. Through our experiments on the Monsanto trial data set, we observe that the fine-tuned Bidirectional Encoder Representations from Transformers (BERT) transformer model performs better than traditional models. We experimented with four different cat-egories of documents in the Monsanto dataset and observed that BERT achieves better F2 scores by 24.13% to 65.79% for GHOST, 30.14% to 54.88% for TOXIC, 39.22% for CHEMI, 53.57 % for REGUL compared to existing sensitive information detection models.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Privacy;Law;Bit error rate;Machine learning;Linguistics;Transformers;Data models;sensitive information detection;NLP;transformers;BERT;Monsanto Trial</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>10.1109/TPSISA52974.2021.00010</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Timmer, Roelien C., Liebowitz, David, Nepal, Surya, Kanhere, Salil S.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2006 IEEE International Conference on Automation, Quality and Testing, Robotics</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>GPRS Based System for Atmospheric Pollution Monitoring and Warning</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>193-198</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>This paper presents the synthesis of a SCADA (supervisory control and data acquisition) system, named Pollution Guard, designed to collect and process atmospheric pollution data measured in several strategic points of a region. Pollution Guard makes use of the GPRS (general packet radio service) data communication infrastructure from a mobile communication provider that covers a very large area, practically the air pollution data being collected from every place in the country. In comparison to other similar systems, the new functionalities provided by Pollution Guard are the SMS (short messaging system) and e-mail alerts generated when the level of toxic substances exceeds some given values, chosen with regard to respiratory illness</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Ground penetrating radar;Monitoring;Air pollution;Control system synthesis;SCADA systems;Atmospheric measurements;Pollution measurement;Packet radio networks;Data communication;Mobile communication;Data acquisition;analog-to-digital conversion;microcontroller;wireless;GPRS;SMS;Java</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>10.1109/AQTR.2006.254630</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Constantin, Suciu, Moldoveanu, Florin, Campeanu, Radu, Baciu, Ioana, Grigorescu, Sorin Mihai, Carstea, Bogdan, Voinea, Vlad</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024 IEEE/ACM 46th International Conference on Software Engineering: New Ideas and Emerging Results (ICSE-NIER)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Exploring ChatGPT for Toxicity Detection in GitHub</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Fostering a collaborative and inclusive environment is crucial for the sustained progress of open source development. However, the prevalence of negative discourse, often manifested as toxic comments, poses significant challenges to developer well-being and productivity. To identify such negativity in project communications, especially within large projects, automated toxicity detection models are necessary. To train these models effectively, we need large software engineering-specific toxicity datasets. However, such datasets are limited in availability and often exhibit imbalance (e.g., only 6 in 1000 GitHub issues are toxic) [1], posing challenges for training effective toxicity detection models. To address this problem, we explore a zero-shot LLM (ChatGPT) that is pretrained on massive datasets but without being fine-tuned specifically for the task of detecting toxicity in software-related text. Our preliminary evaluation indicates that ChatGPT shows promise in detecting toxicity in GitHub, and warrants further investigation. We experimented with various prompts, including those designed for justifying model outputs, thereby enhancing model interpretability and paving the way for potential integration of ChatGPT-enabled toxicity detection into developer communication channels.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Training;Productivity;Toxicology;Collaboration;Communication channels;Chatbots;Software;Software development management;Software engineering;LLM;software engineering;chatgpt;incivility</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>10.1145/3639476.3639777</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Mishra, Shyamal, Chatterjee, Preetha</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2021 Third International Conference on Intelligent Communication Technologies and Virtual Mobile Networks (ICICV)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Cyberbullying Detection: An Ensemble Based Machine Learning Approach</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>710-715</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Research on cyberbullying detection is gaining increasing attention in recent years as both individual victims and societies are greatly affected by it. Moreover, ease of access to social media platforms such as Facebook, Instagram, Twitter, etc. has led to an exponential increase in the mistreatment of people in the form of hateful messages, bullying, sexism, racism, aggressive content, harassment, toxic comment etc. Thus there is an extensive need to identify, control and reduce the bullying contents spread over social media sites, which has motivated us to conduct this research to automate the detection process of offensive language or cyberbullying. Our main aim is to build single and double ensemble-based voting model to classify the contents into two groups: `offensive' or `non-offensive'. For this purpose, we have chosen four machine learning classifiers and three ensemble models with two different feature extraction techniques combined with various n-gram analysis on a dataset extracted from Twitter. In our work, Logistic Regression and Bagging ensemble model classifier have performed individually best in detecting cyberbullying which has been outperformed by our proposed SLE and DLE voting classifiers. Our proposed SLE and DLE models yield the best performance of 96% when TF-IDF (Unigram) feature extraction is applied with K-Fold cross-validation.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Social networking (online);Blogs;Multimedia Web sites;Process control;Machine learning;Feature extraction;Logistics;Offensive Language;Cyberbullying;Text Classification;Machine Learning Classifiers;Twitter</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>10.1109/ICICV50876.2021.9388499</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Alam, Kazi Saeed, Bhowmik, Shovan, Prosun, Priyo Ranjan Kundu</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2019 International Conference on Computational Science and Computational Intelligence (CSCI)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Acoustic and Visual Approaches to Adversarial Text Generation for Google Perspective</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>355-360</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Google's Perspective API was introduced to help detect and classify toxic comments in online platforms. Adversarial machine learning attacks can decrease the effectiveness of Perspective in identifying toxic comments. We have shown in our previous study that by applying a semantic-based attack to a surrogate model trained with just 10,000 queries could produce adversarial examples which evade Perspective 25% of the time. In this paper, we propose two new approaches to generate adversarial text to evade Google's Perspective, one based on acoustic similarity and the other based on visual similarity. We tested the success rate of obfuscation in Google Perspective using the adversarial texts generated through the proposed approaches and showed that Google Perspective misclassified the generated texts 33% and 72.5% of the time for the visual-based and acoustic-based approaches, respectively. The study aims to broaden the understanding of adversarial text generation and to improve the robustness for online toxic comment detection for a safe online community.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Acoustics;Google;Machine learning;Visualization;Semantics;Pipelines;Tools;Machine Learning;Adversarial;Google's Perspective;Natural Language Processing;Deep Learning</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>10.1109/CSCI49370.2019.00069</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Brown, Stephan, Milkov, Petar, Patel, Sameep, Looi, Yi Zen, Dong, Ziqian, Gu, Huanying, Artan, N. Sertac, Jain, Edwin</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023 International Conference on Recent Advances in Science and Engineering Technology (ICRASET)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Analyzing the Performance of Machine Learning and Deep Learning Models in Detecting Cyberbullying Comments</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>With the proliferation of social media platforms, there has been a concerning escalation in cyberbullying and abusive language. Detecting such toxic comments in large volumes of user-generated data presents challenges. This research conducts a comparative analysis to evaluate the impact of natural language processing techniques on identifying cyberbullying. Using a dataset of 1,59,000 comments labelled across seven classes of toxicity, conventional machine learning and deep learning models are benchmarked across performance metrics. The study aims to quantify algorithmic capabilities to accurately classify bullying comments. The study finds that Support Vectors with a linear kernel surpass Logistic Regression in accurately identifying toxic comments. For deep learning techniques, the transformer models (BERT and Distil-BERT) deliver the highest performance among neural network architectures tested. The empirical evaluation provides insights into leveraging computational linguistics for automating the detection of online bullying at scale.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Deep learning;Measurement;Logistic regression;Computational modeling;Cyberbullying;Transformers;Tuning;Machine Learning;Natural Language Processing;Deep Learning;Cyberbullying;Classification</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>10.1109/ICRASET59632.2023.10419938</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Saim, Mohammad, Rizvi, Rehma Manaal, Kashif Khan, Mohammad</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024 IEEE International Conference on Big Data (BigData)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Visions of Violence : Threatful Communication in Incel Communities</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2772-2778</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>The incel subculture has gained increasing attention due to its toxic nature and its association with real-world violence. This paper investigates the prevalence and characteristics of violent threatful communication within incel forums, focusing on a platform known as Blackpill. We have trained a machine learning model to detect violent threatful language and analyzed the posts. The analysis concentrated on three key aspects: the identity of perpetrators (categorized into first-person, third-person, or generalized), the targets (individuals, groups, or general targets), and the types of violence described (general violence, sexual violence, self-harm, and military violence). The analysis showed that the most common type violent threatful communication involved generalized perpetrators targeting groups. Additionally, 13.5% of the violent threatful communication contained coded language, including references to video games to obscure violent intentions. A smaller proportion of the posts (4.1%) glorified past mass shooters and violent criminals.This research highlights the complexities of identifying violent rhetoric in online forums and the use of coded language to evade detection, emphasizing the need for refined models in threat detection.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Video games;Analytical models;Focusing;Machine learning;Big Data;Threat assessment;Rhetoric;Complexity theory</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>10.1109/BigData62323.2024.10825043</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Lundmark, Lukas, Kaati, Lisa, Shrestha, Amendra</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023 International Conference on Electrical, Computer and Communication Engineering (ECCE)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Sexual Harassment Detection using Machine Learning and Deep Learning Techniques for Bangla Text</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Harassment is a kind of act that annoys or upsets someone. Harassment can be classified into different categories. Sexual harassment is one of them. Sexual harassment is a type of harassment that involves the use of implicit or explicit sexual overtones, including the inappropriate and unwelcome promises of rewards in exchange for sexual favors. At present time, the technology has become more advance and spread all over the place. That gave the toxic people a huge opportunity to spread toxicity in online platforms. Because of the increasing amount Bangla text in different social media platforms, we also need to filter such kinds of offensive Bangla texts. The objective of this research is to detect sexual harassment from Bangla text and classify them by using machine learning and deep learning algorithms as well as prevents them. In the experiment, we combined TF-IDF with different machine learning algorithms like Naive Bayes, Decision Tree, Random Forest, AdaBoost, SGD, Logistic Regression, KNN, SVM and got accuracy of 74.9%, 75.6%, 70.0%, 70.1%, 75.2%, 75.7%, 65.2%, 76.5% respectively. Deep learning algorithms like CNN, LSTM, hybrid CNN-LSTM were also used and achieved accuracy of 89% for all of them which is comparatively better than machine learning techniques.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Deep learning;Support vector machines;Machine learning algorithms;Toxicology;Cyberbullying;Filtering algorithms;Classification algorithms;Cyberbullying;Sexual Harassment;Machine Learning;Deep Learning;Sentiment Analysis;Natural Language Processing;Text analysis</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>10.1109/ECCE57851.2023.10101522</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Islam, Mujahidul, Rahman, Maqsudur, Ahmed, Md Tofael, Muhammad Islam, Abu Zafor, Das, Dipankar, Hoque, Mohammed Moshiul</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2015 International Workshop on Network and Systems Support for Games (NetGames)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Toxicity detection in multiplayer online games</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1-6</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Social interactions in multiplayer online games are an essential feature for a growing number of players world-wide. However, this interaction between the players might lead to the emergence of undesired and unintended behavior, particularly if the game is designed to be highly competitive. Communication channels might be abused to harass and verbally assault other players, which negates the very purpose of entertainment games by creating a toxic player-community. By using a novel natural language processing framework, we detect profanity in chat-logs of a popular Multiplayer Online Battle Arena (MOBA) game and develop a method to classify toxic remarks. We show how toxicity is non-trivially linked to game success.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>10.1109/NetGames.2015.7382991</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Märtens, Marcus, Shen, Siqi, Iosup, Alexandru, Kuipers, Fernando</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2022 IEEE/ACM 44th International Conference on Software Engineering: Software Engineering in Society (ICSE-SEIS)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Detecting Interpersonal Conflict in Issues and Code Review: Cross Pollinating Open- and Closed-Source Approaches</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>41-55</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Interpersonal conflict in code review, such as toxic language or an unnecessary pushback, is associated with negative outcomes such as stress and turnover. Automatic detection is one approach to prevent and mitigate interpersonal conflict. Two recent automatic detection approaches were developed in different settings: a toxicity detector using text analytics for open source issue discussions and a pushback detector using logs-based metrics for corporate code reviews. This paper tests how the toxicity detector and the pushback detector can be generalized beyond their respective contexts and discussion types, and how the combination of the two can help improve interpersonal conflict detection. The results reveal connections between the two concepts. LAY ABSTRACT Software engineers often communicate with one another on platforms that support tasks like discussing bugs and inspecting each others‘ code. Such discussions sometimes contain interpersonal conflict, which can lead to stress and abandonment. In this paper, we investigate how to automatically detect interpersonal conflict, both by analyzing the text of the what the engineers are saying and by analyzing the properties of that text.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Measurement;Codes;Toxicology;Computer bugs;Detectors;Feature extraction;Software;code review;interpersonal conflict</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>10.1145/3510458.3513019</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Qiu, Huilian Sophie, Vasilescu, Bogdan, Kästner, Christian, Egelman, Carolyn, Jaspan, Ciera, Murphy-Hill, Emerson</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023 14th International Conference on Information, Intelligence, Systems &amp; Applications (IISA)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Not-in-Perspective: Towards Shielding Google's Perspective API Against Adversarial Negation Attacks</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>The rise of cyberbullying in social media platforms involving toxic comments has escalated the need for effective ways to monitor and moderate online interactions. Existing solutions of automated toxicity detection systems, are based on a machine or deep learning algorithms. However, statistics-based solutions are generally prone to adversarial attacks that contain logic based modifications such as negation in phrases and sentences. In that regard, we present a set of formal reasoning-based methodologies that wrap around existing ma-chine learning toxicity detection systems. Acting as both pre-processing and post-processing steps, our formal reasoning wrapper helps alleviating the negation attack problems and significantly improves the accuracy and efficacy of toxicity scoring. We evaluate different variations of our wrapper on multiple machine learning models against a negation adver-sarial dataset. Experimental results highlight the improvement of hybrid (formal reasoning and machine-learning) methods against various purely statistical solutions.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Deep learning;Toxicology;Cyberbullying;Media;Cognition;Internet;Monitoring;Sentiment analysis;toxicity;machine learning;cyberbullying;natural language processing;social media</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>10.1109/IISA59645.2023.10345930</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Alexiou, Michail S., Mertoguno, J. Sukarno</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023 7th International Conference on I-SMAC (IoT in Social, Mobile, Analytics and Cloud) (I-SMAC)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Bullyproof Sentinel: Fortifying Online Spaces Against Bullying using Machine Learning</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>825-830</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>In the current social media landscape, cyberbullying and online harassment remain pressing issues. Therefore, we planned a cyberbullying detection system for social media platforms. It can protect online communities from toxic behaviors and make a global impact by fostering a safer and more constructive online environment. We are mainly focused on developing an improved technique to detect bot profiles on social media, developing a mechanism to detect abusive content and sarcasm, developing a mechanism to detect defamatory comments on social media, and developing an effective method for detecting offensive and abusive content in image-format reviews on social media using machine learning algorithms.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Machine learning algorithms;Cyberbullying;Pressing;Machine learning;Chatbots;Behavioral sciences;Social Media;Bot;Abusive;Sarcasm;Defamatory</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>10.1109/I-SMAC58438.2023.10290419</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>M.M.T., Dilshani, T., Vinoshan, W.A.S.D., Wijesinghe, V., Jathushan, Senarathne, Amila, Gunasinghe, Amali</t>
         </is>
       </c>
     </row>
